--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.305001863076457</v>
+        <v>5.305001863076435</v>
       </c>
       <c r="D2">
-        <v>4.612282936499029</v>
+        <v>4.612282936499024</v>
       </c>
       <c r="E2">
-        <v>12.97490580520975</v>
+        <v>12.97490580520972</v>
       </c>
       <c r="F2">
-        <v>30.41490553588583</v>
+        <v>30.41490553588567</v>
       </c>
       <c r="G2">
-        <v>22.65770424780441</v>
+        <v>22.65770424780425</v>
       </c>
       <c r="H2">
-        <v>22.5742712096483</v>
+        <v>22.57427120964815</v>
       </c>
       <c r="I2">
-        <v>9.18277331106319</v>
+        <v>9.182773311063135</v>
       </c>
       <c r="J2">
         <v>100.1969548864303</v>
       </c>
       <c r="K2">
-        <v>9.059235363710505</v>
+        <v>9.05923536371049</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.908049080795534</v>
+        <v>4.908049080795505</v>
       </c>
       <c r="D3">
-        <v>4.172539497208727</v>
+        <v>4.172539497208931</v>
       </c>
       <c r="E3">
         <v>12.08968177689534</v>
       </c>
       <c r="F3">
-        <v>27.18578836304343</v>
+        <v>27.18578836304354</v>
       </c>
       <c r="G3">
-        <v>20.04700514859689</v>
+        <v>20.04700514859704</v>
       </c>
       <c r="H3">
-        <v>20.09891026149449</v>
+        <v>20.09891026149459</v>
       </c>
       <c r="I3">
-        <v>8.422965385239339</v>
+        <v>8.422965385239376</v>
       </c>
       <c r="J3">
-        <v>92.80587039119777</v>
+        <v>92.80587039119766</v>
       </c>
       <c r="K3">
-        <v>8.354454295594213</v>
+        <v>8.354454295594207</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.659380856828737</v>
+        <v>4.659380856828873</v>
       </c>
       <c r="D4">
-        <v>3.906091577786864</v>
+        <v>3.906091577787074</v>
       </c>
       <c r="E4">
-        <v>11.53808766106195</v>
+        <v>11.53808766106197</v>
       </c>
       <c r="F4">
-        <v>25.27987280004281</v>
+        <v>25.27987280004298</v>
       </c>
       <c r="G4">
-        <v>18.50171751463125</v>
+        <v>18.50171751463146</v>
       </c>
       <c r="H4">
-        <v>18.62383603032462</v>
+        <v>18.62383603032482</v>
       </c>
       <c r="I4">
-        <v>7.948432717012996</v>
+        <v>7.948432717013073</v>
       </c>
       <c r="J4">
-        <v>88.09785264301406</v>
+        <v>88.09785264301432</v>
       </c>
       <c r="K4">
-        <v>8.031114723971317</v>
+        <v>8.031114723971328</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.556507869211577</v>
+        <v>4.556507869211504</v>
       </c>
       <c r="D5">
-        <v>3.797853923157199</v>
+        <v>3.79785392315715</v>
       </c>
       <c r="E5">
         <v>11.31093897940707</v>
       </c>
       <c r="F5">
-        <v>24.52026740037795</v>
+        <v>24.52026740037796</v>
       </c>
       <c r="G5">
-        <v>17.8846045780251</v>
+        <v>17.88460457802509</v>
       </c>
       <c r="H5">
-        <v>18.03207779129052</v>
+        <v>18.03207779129053</v>
       </c>
       <c r="I5">
-        <v>7.752453880114444</v>
+        <v>7.752453880114417</v>
       </c>
       <c r="J5">
-        <v>86.13297221310972</v>
+        <v>86.13297221310974</v>
       </c>
       <c r="K5">
-        <v>7.900368170062475</v>
+        <v>7.900368170062495</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.539325437408405</v>
+        <v>4.539325437408529</v>
       </c>
       <c r="D6">
-        <v>3.779887661786587</v>
+        <v>3.779887661786597</v>
       </c>
       <c r="E6">
-        <v>11.27307064459893</v>
+        <v>11.27307064459892</v>
       </c>
       <c r="F6">
-        <v>24.3951213142778</v>
+        <v>24.39512131427772</v>
       </c>
       <c r="G6">
-        <v>17.78285616282968</v>
+        <v>17.78285616282962</v>
       </c>
       <c r="H6">
-        <v>17.93433989992632</v>
+        <v>17.93433989992623</v>
       </c>
       <c r="I6">
-        <v>7.719739465152474</v>
+        <v>7.719739465152485</v>
       </c>
       <c r="J6">
-        <v>85.80381366895885</v>
+        <v>85.80381366895894</v>
       </c>
       <c r="K6">
-        <v>7.878713577297357</v>
+        <v>7.878713577297337</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.658000053187277</v>
+        <v>4.658000053187263</v>
       </c>
       <c r="D7">
-        <v>3.904631113910386</v>
+        <v>3.904631113910387</v>
       </c>
       <c r="E7">
-        <v>11.53503419927581</v>
+        <v>11.53503419927578</v>
       </c>
       <c r="F7">
-        <v>25.26956155588823</v>
+        <v>25.26956155588815</v>
       </c>
       <c r="G7">
-        <v>18.49334573819355</v>
+        <v>18.49334573819351</v>
       </c>
       <c r="H7">
-        <v>18.61581949906591</v>
+        <v>18.61581949906585</v>
       </c>
       <c r="I7">
-        <v>7.945800911974897</v>
+        <v>7.945800911974866</v>
       </c>
       <c r="J7">
-        <v>88.07154546047853</v>
+        <v>88.07154546047848</v>
       </c>
       <c r="K7">
-        <v>8.029347581515509</v>
+        <v>8.029347581515516</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.168956916271379</v>
+        <v>5.168956916271307</v>
       </c>
       <c r="D8">
-        <v>4.459551339079218</v>
+        <v>4.459551339079148</v>
       </c>
       <c r="E8">
         <v>12.67110089346378</v>
       </c>
       <c r="F8">
-        <v>29.28386529563718</v>
+        <v>29.28386529563712</v>
       </c>
       <c r="G8">
-        <v>21.74411417199395</v>
+        <v>21.74411417199388</v>
       </c>
       <c r="H8">
-        <v>21.71004859120551</v>
+        <v>21.71004859120546</v>
       </c>
       <c r="I8">
-        <v>8.92205823042144</v>
+        <v>8.922058230421394</v>
       </c>
       <c r="J8">
-        <v>97.68136762331623</v>
+        <v>97.68136762331611</v>
       </c>
       <c r="K8">
-        <v>8.81295569268323</v>
+        <v>8.812955692683218</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.149801643756701</v>
+        <v>6.149801643756776</v>
       </c>
       <c r="D9">
-        <v>5.60901502144319</v>
+        <v>5.60901502144326</v>
       </c>
       <c r="E9">
-        <v>14.89583106273198</v>
+        <v>14.89583106273199</v>
       </c>
       <c r="F9">
-        <v>37.93989112755342</v>
+        <v>37.93989112755334</v>
       </c>
       <c r="G9">
-        <v>28.72357356133585</v>
+        <v>28.72357356133583</v>
       </c>
       <c r="H9">
-        <v>28.27358817423984</v>
+        <v>28.27358817423979</v>
       </c>
       <c r="I9">
         <v>10.8083389555984</v>
       </c>
       <c r="J9">
-        <v>115.3892696717832</v>
+        <v>115.3892696717833</v>
       </c>
       <c r="K9">
         <v>10.5797727013762</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.894701916126983</v>
+        <v>6.894701916126921</v>
       </c>
       <c r="D10">
-        <v>6.558400380802108</v>
+        <v>6.558400380801996</v>
       </c>
       <c r="E10">
-        <v>16.67068690168124</v>
+        <v>16.67068690168127</v>
       </c>
       <c r="F10">
-        <v>45.19363501016913</v>
+        <v>45.19363501016918</v>
       </c>
       <c r="G10">
         <v>34.56542875039572</v>
       </c>
       <c r="H10">
-        <v>33.71924975190996</v>
+        <v>33.71924975190998</v>
       </c>
       <c r="I10">
-        <v>12.24956143185039</v>
+        <v>12.24956143185038</v>
       </c>
       <c r="J10">
-        <v>128.1253865552082</v>
+        <v>128.1253865552083</v>
       </c>
       <c r="K10">
-        <v>11.90531915540788</v>
+        <v>11.90531915540791</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.25348103994211</v>
+        <v>7.253481039942081</v>
       </c>
       <c r="D11">
-        <v>7.039546902168911</v>
+        <v>7.039546902168671</v>
       </c>
       <c r="E11">
-        <v>17.50440480967627</v>
+        <v>17.50440480967621</v>
       </c>
       <c r="F11">
-        <v>48.86627795595497</v>
+        <v>48.86627795595447</v>
       </c>
       <c r="G11">
-        <v>37.52483183927428</v>
+        <v>37.5248318392738</v>
       </c>
       <c r="H11">
-        <v>36.46667428861983</v>
+        <v>36.46667428861935</v>
       </c>
       <c r="I11">
-        <v>12.94578981590916</v>
+        <v>12.94578981590905</v>
       </c>
       <c r="J11">
-        <v>134.0194260433298</v>
+        <v>134.0194260433294</v>
       </c>
       <c r="K11">
-        <v>12.53772757218896</v>
+        <v>12.53772757218893</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.394372303948346</v>
+        <v>7.394372303948303</v>
       </c>
       <c r="D12">
-        <v>7.23274456902301</v>
+        <v>7.232744569023017</v>
       </c>
       <c r="E12">
-        <v>17.82780728979618</v>
+        <v>17.8278072897962</v>
       </c>
       <c r="F12">
-        <v>50.33783951027952</v>
+        <v>50.33783951027985</v>
       </c>
       <c r="G12">
-        <v>38.71116105972736</v>
+        <v>38.71116105972766</v>
       </c>
       <c r="H12">
-        <v>37.56625951497463</v>
+        <v>37.56625951497492</v>
       </c>
       <c r="I12">
-        <v>13.21951049727366</v>
+        <v>13.21951049727368</v>
       </c>
       <c r="J12">
-        <v>136.2888737917074</v>
+        <v>136.2888737917075</v>
       </c>
       <c r="K12">
-        <v>12.78490243264699</v>
+        <v>12.78490243264697</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.363755904700612</v>
+        <v>7.363755904700525</v>
       </c>
       <c r="D13">
-        <v>7.190557831281671</v>
+        <v>7.190557831281659</v>
       </c>
       <c r="E13">
-        <v>17.7577259385945</v>
+        <v>17.75772593859444</v>
       </c>
       <c r="F13">
-        <v>50.01669481563567</v>
+        <v>50.0166948156351</v>
       </c>
       <c r="G13">
-        <v>38.45223368901101</v>
+        <v>38.45223368901058</v>
       </c>
       <c r="H13">
-        <v>37.32634597193832</v>
+        <v>37.32634597193793</v>
       </c>
       <c r="I13">
-        <v>13.1600152672729</v>
+        <v>13.16001526727284</v>
       </c>
       <c r="J13">
-        <v>135.7979198487152</v>
+        <v>135.7979198487148</v>
       </c>
       <c r="K13">
-        <v>12.73124767930021</v>
+        <v>12.73124767930016</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,28 +874,28 @@
         <v>7.264954285268022</v>
       </c>
       <c r="D14">
-        <v>7.055189949620829</v>
+        <v>7.05518994962101</v>
       </c>
       <c r="E14">
-        <v>17.5308262420109</v>
+        <v>17.53082624201091</v>
       </c>
       <c r="F14">
-        <v>48.98550745590993</v>
+        <v>48.98550745590985</v>
       </c>
       <c r="G14">
-        <v>37.62093827183892</v>
+        <v>37.62093827183888</v>
       </c>
       <c r="H14">
-        <v>36.55578930832921</v>
+        <v>36.55578930832917</v>
       </c>
       <c r="I14">
-        <v>12.96807344535046</v>
+        <v>12.96807344535051</v>
       </c>
       <c r="J14">
-        <v>134.2052019487375</v>
+        <v>134.2052019487373</v>
       </c>
       <c r="K14">
-        <v>12.5578810520016</v>
+        <v>12.55788105200161</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.205176728155369</v>
+        <v>7.205176728155362</v>
       </c>
       <c r="D15">
-        <v>6.973861460271083</v>
+        <v>6.973861460271262</v>
       </c>
       <c r="E15">
-        <v>17.39300083688348</v>
+        <v>17.39300083688353</v>
       </c>
       <c r="F15">
-        <v>48.36549082263318</v>
+        <v>48.36549082263349</v>
       </c>
       <c r="G15">
-        <v>37.12118980422788</v>
+        <v>37.12118980422817</v>
       </c>
       <c r="H15">
-        <v>36.09232508055791</v>
+        <v>36.09232508055819</v>
       </c>
       <c r="I15">
-        <v>12.85198456359721</v>
+        <v>12.8519845635973</v>
       </c>
       <c r="J15">
-        <v>133.2354126019665</v>
+        <v>133.2354126019668</v>
       </c>
       <c r="K15">
-        <v>12.45282949170346</v>
+        <v>12.45282949170351</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.871814079294403</v>
+        <v>6.871814079294307</v>
       </c>
       <c r="D16">
-        <v>6.528234030485409</v>
+        <v>6.528234030485254</v>
       </c>
       <c r="E16">
-        <v>16.61701720779187</v>
+        <v>16.61701720779196</v>
       </c>
       <c r="F16">
-        <v>44.96310256043736</v>
+        <v>44.96310256043778</v>
       </c>
       <c r="G16">
-        <v>34.37972177225813</v>
+        <v>34.37972177225845</v>
       </c>
       <c r="H16">
-        <v>33.54661908046065</v>
+        <v>33.54661908046096</v>
       </c>
       <c r="I16">
-        <v>12.20518793338204</v>
+        <v>12.20518793338209</v>
       </c>
       <c r="J16">
-        <v>127.7439131121999</v>
+        <v>127.7439131122002</v>
       </c>
       <c r="K16">
-        <v>11.86483504820076</v>
+        <v>11.86483504820081</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.673607274716358</v>
+        <v>6.673607274716296</v>
       </c>
       <c r="D17">
-        <v>6.269641157614226</v>
+        <v>6.269641157614468</v>
       </c>
       <c r="E17">
-        <v>16.14988435005877</v>
+        <v>16.14988435005879</v>
       </c>
       <c r="F17">
-        <v>42.98628100312319</v>
+        <v>42.98628100312325</v>
       </c>
       <c r="G17">
-        <v>32.78748185059712</v>
+        <v>32.78748185059725</v>
       </c>
       <c r="H17">
-        <v>32.06530407654615</v>
+        <v>32.06530407654622</v>
       </c>
       <c r="I17">
-        <v>11.82114070411522</v>
+        <v>11.82114070411529</v>
       </c>
       <c r="J17">
-        <v>124.4136356138778</v>
+        <v>124.4136356138779</v>
       </c>
       <c r="K17">
-        <v>11.5135694878889</v>
+        <v>11.51356948788895</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.561303662381173</v>
+        <v>6.561303662381262</v>
       </c>
       <c r="D18">
-        <v>6.125225805602541</v>
+        <v>6.125225805602493</v>
       </c>
       <c r="E18">
-        <v>15.88336412216441</v>
+        <v>15.8833641221644</v>
       </c>
       <c r="F18">
-        <v>41.88214114044466</v>
+        <v>41.88214114044494</v>
       </c>
       <c r="G18">
-        <v>31.89826962769404</v>
+        <v>31.8982696276943</v>
       </c>
       <c r="H18">
-        <v>31.23706211658057</v>
+        <v>31.23706211658078</v>
       </c>
       <c r="I18">
-        <v>11.60372609312397</v>
+        <v>11.60372609312389</v>
       </c>
       <c r="J18">
-        <v>122.5057342470288</v>
+        <v>122.5057342470291</v>
       </c>
       <c r="K18">
-        <v>11.31401838718658</v>
+        <v>11.31401838718657</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.523523369279026</v>
+        <v>6.523523369279033</v>
       </c>
       <c r="D19">
-        <v>6.07698422457138</v>
+        <v>6.076984224571375</v>
       </c>
       <c r="E19">
-        <v>15.79340930230538</v>
+        <v>15.7934093023054</v>
       </c>
       <c r="F19">
-        <v>41.51334633204399</v>
+        <v>41.51334633204377</v>
       </c>
       <c r="G19">
-        <v>31.60127599700436</v>
+        <v>31.60127599700416</v>
       </c>
       <c r="H19">
-        <v>30.96026723922012</v>
+        <v>30.96026723921992</v>
       </c>
       <c r="I19">
-        <v>11.5306167996047</v>
+        <v>11.53061679960472</v>
       </c>
       <c r="J19">
-        <v>121.8605355146662</v>
+        <v>121.860535514666</v>
       </c>
       <c r="K19">
-        <v>11.24680404491433</v>
+        <v>11.24680404491436</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.694518824023175</v>
+        <v>6.694518824023228</v>
       </c>
       <c r="D20">
-        <v>6.2966999802665</v>
+        <v>6.296699980266377</v>
       </c>
       <c r="E20">
-        <v>16.19936599153134</v>
+        <v>16.19936599153138</v>
       </c>
       <c r="F20">
-        <v>43.19316518404572</v>
+        <v>43.1931651840457</v>
       </c>
       <c r="G20">
-        <v>32.95410290421178</v>
+        <v>32.95410290421173</v>
       </c>
       <c r="H20">
         <v>32.2204203351779</v>
       </c>
       <c r="I20">
-        <v>11.86163968706915</v>
+        <v>11.86163968706921</v>
       </c>
       <c r="J20">
-        <v>124.7672351441244</v>
+        <v>124.7672351441242</v>
       </c>
       <c r="K20">
-        <v>11.55068567177355</v>
+        <v>11.55068567177354</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.293814322604971</v>
+        <v>7.293814322605155</v>
       </c>
       <c r="D21">
-        <v>7.09460910865249</v>
+        <v>7.09460910865254</v>
       </c>
       <c r="E21">
-        <v>17.59722037586084</v>
+        <v>17.59722037586088</v>
       </c>
       <c r="F21">
-        <v>49.28589666981912</v>
+        <v>49.28589666981982</v>
       </c>
       <c r="G21">
-        <v>37.86308058892217</v>
+        <v>37.86308058892276</v>
       </c>
       <c r="H21">
-        <v>36.78028820982124</v>
+        <v>36.78028820982174</v>
       </c>
       <c r="I21">
-        <v>13.02413118155458</v>
+        <v>13.02413118155461</v>
       </c>
       <c r="J21">
-        <v>134.6717515983477</v>
+        <v>134.671751598348</v>
       </c>
       <c r="K21">
-        <v>12.60855587743442</v>
+        <v>12.60855587743447</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.71702688462788</v>
+        <v>7.717026884627959</v>
       </c>
       <c r="D22">
-        <v>7.684210414523752</v>
+        <v>7.684210414523815</v>
       </c>
       <c r="E22">
-        <v>18.55963323582712</v>
+        <v>18.55963323582711</v>
       </c>
       <c r="F22">
-        <v>53.76716631304382</v>
+        <v>53.76716631304402</v>
       </c>
       <c r="G22">
-        <v>41.47723863631177</v>
+        <v>41.477238636312</v>
       </c>
       <c r="H22">
-        <v>40.12654510899874</v>
+        <v>40.12654510899894</v>
       </c>
       <c r="I22">
-        <v>13.84697180605782</v>
+        <v>13.84697180605783</v>
       </c>
       <c r="J22">
         <v>141.3867508378135</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.487134602418393</v>
+        <v>7.487134602418275</v>
       </c>
       <c r="D23">
-        <v>7.361253783002289</v>
+        <v>7.361253783002364</v>
       </c>
       <c r="E23">
-        <v>18.03947151500288</v>
+        <v>18.03947151500282</v>
       </c>
       <c r="F23">
-        <v>51.31542072622702</v>
+        <v>51.31542072622665</v>
       </c>
       <c r="G23">
-        <v>39.49945746862256</v>
+        <v>39.49945746862227</v>
       </c>
       <c r="H23">
-        <v>38.29639802605323</v>
+        <v>38.29639802605303</v>
       </c>
       <c r="I23">
-        <v>13.39981800745439</v>
+        <v>13.39981800745429</v>
       </c>
       <c r="J23">
         <v>137.7688134191313</v>
       </c>
       <c r="K23">
-        <v>12.94726920216461</v>
+        <v>12.94726920216453</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.685059721209831</v>
+        <v>6.685059721209829</v>
       </c>
       <c r="D24">
-        <v>6.284453695974669</v>
+        <v>6.284453695974518</v>
       </c>
       <c r="E24">
-        <v>16.17698924181484</v>
+        <v>16.17698924181476</v>
       </c>
       <c r="F24">
-        <v>43.09953382709665</v>
+        <v>43.09953382709612</v>
       </c>
       <c r="G24">
-        <v>32.87869341384864</v>
+        <v>32.87869341384816</v>
       </c>
       <c r="H24">
-        <v>32.1502207657901</v>
+        <v>32.15022076578966</v>
       </c>
       <c r="I24">
-        <v>11.84331984901309</v>
+        <v>11.84331984901299</v>
       </c>
       <c r="J24">
-        <v>124.607353390076</v>
+        <v>124.6073533900754</v>
       </c>
       <c r="K24">
-        <v>11.53389820902891</v>
+        <v>11.53389820902883</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.883683887322701</v>
+        <v>5.883683887322612</v>
       </c>
       <c r="D25">
-        <v>5.285959551155416</v>
+        <v>5.285959551155569</v>
       </c>
       <c r="E25">
-        <v>14.26754915525079</v>
+        <v>14.26754915525077</v>
       </c>
       <c r="F25">
-        <v>35.48233041216198</v>
+        <v>35.48233041216201</v>
       </c>
       <c r="G25">
-        <v>26.74402206748522</v>
+        <v>26.74402206748531</v>
       </c>
       <c r="H25">
-        <v>26.41982532463354</v>
+        <v>26.41982532463362</v>
       </c>
       <c r="I25">
-        <v>10.29512854579736</v>
+        <v>10.29512854579734</v>
       </c>
       <c r="J25">
-        <v>110.6856330063193</v>
+        <v>110.6856330063191</v>
       </c>
       <c r="K25">
-        <v>10.10256595836488</v>
+        <v>10.10256595836483</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.305001863076435</v>
+        <v>5.305001863076457</v>
       </c>
       <c r="D2">
-        <v>4.612282936499024</v>
+        <v>4.612282936499029</v>
       </c>
       <c r="E2">
-        <v>12.97490580520972</v>
+        <v>12.97490580520975</v>
       </c>
       <c r="F2">
-        <v>30.41490553588567</v>
+        <v>30.41490553588583</v>
       </c>
       <c r="G2">
-        <v>22.65770424780425</v>
+        <v>22.65770424780441</v>
       </c>
       <c r="H2">
-        <v>22.57427120964815</v>
+        <v>22.5742712096483</v>
       </c>
       <c r="I2">
-        <v>9.182773311063135</v>
+        <v>9.18277331106319</v>
       </c>
       <c r="J2">
         <v>100.1969548864303</v>
       </c>
       <c r="K2">
-        <v>9.05923536371049</v>
+        <v>9.059235363710505</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.908049080795505</v>
+        <v>4.908049080795534</v>
       </c>
       <c r="D3">
-        <v>4.172539497208931</v>
+        <v>4.172539497208727</v>
       </c>
       <c r="E3">
         <v>12.08968177689534</v>
       </c>
       <c r="F3">
-        <v>27.18578836304354</v>
+        <v>27.18578836304343</v>
       </c>
       <c r="G3">
-        <v>20.04700514859704</v>
+        <v>20.04700514859689</v>
       </c>
       <c r="H3">
-        <v>20.09891026149459</v>
+        <v>20.09891026149449</v>
       </c>
       <c r="I3">
-        <v>8.422965385239376</v>
+        <v>8.422965385239339</v>
       </c>
       <c r="J3">
-        <v>92.80587039119766</v>
+        <v>92.80587039119777</v>
       </c>
       <c r="K3">
-        <v>8.354454295594207</v>
+        <v>8.354454295594213</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.659380856828873</v>
+        <v>4.659380856828737</v>
       </c>
       <c r="D4">
-        <v>3.906091577787074</v>
+        <v>3.906091577786864</v>
       </c>
       <c r="E4">
-        <v>11.53808766106197</v>
+        <v>11.53808766106195</v>
       </c>
       <c r="F4">
-        <v>25.27987280004298</v>
+        <v>25.27987280004281</v>
       </c>
       <c r="G4">
-        <v>18.50171751463146</v>
+        <v>18.50171751463125</v>
       </c>
       <c r="H4">
-        <v>18.62383603032482</v>
+        <v>18.62383603032462</v>
       </c>
       <c r="I4">
-        <v>7.948432717013073</v>
+        <v>7.948432717012996</v>
       </c>
       <c r="J4">
-        <v>88.09785264301432</v>
+        <v>88.09785264301406</v>
       </c>
       <c r="K4">
-        <v>8.031114723971328</v>
+        <v>8.031114723971317</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -529,31 +529,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.556507869211504</v>
+        <v>4.556507869211577</v>
       </c>
       <c r="D5">
-        <v>3.79785392315715</v>
+        <v>3.797853923157199</v>
       </c>
       <c r="E5">
         <v>11.31093897940707</v>
       </c>
       <c r="F5">
-        <v>24.52026740037796</v>
+        <v>24.52026740037795</v>
       </c>
       <c r="G5">
-        <v>17.88460457802509</v>
+        <v>17.8846045780251</v>
       </c>
       <c r="H5">
-        <v>18.03207779129053</v>
+        <v>18.03207779129052</v>
       </c>
       <c r="I5">
-        <v>7.752453880114417</v>
+        <v>7.752453880114444</v>
       </c>
       <c r="J5">
-        <v>86.13297221310974</v>
+        <v>86.13297221310972</v>
       </c>
       <c r="K5">
-        <v>7.900368170062495</v>
+        <v>7.900368170062475</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.539325437408529</v>
+        <v>4.539325437408405</v>
       </c>
       <c r="D6">
-        <v>3.779887661786597</v>
+        <v>3.779887661786587</v>
       </c>
       <c r="E6">
-        <v>11.27307064459892</v>
+        <v>11.27307064459893</v>
       </c>
       <c r="F6">
-        <v>24.39512131427772</v>
+        <v>24.3951213142778</v>
       </c>
       <c r="G6">
-        <v>17.78285616282962</v>
+        <v>17.78285616282968</v>
       </c>
       <c r="H6">
-        <v>17.93433989992623</v>
+        <v>17.93433989992632</v>
       </c>
       <c r="I6">
-        <v>7.719739465152485</v>
+        <v>7.719739465152474</v>
       </c>
       <c r="J6">
-        <v>85.80381366895894</v>
+        <v>85.80381366895885</v>
       </c>
       <c r="K6">
-        <v>7.878713577297337</v>
+        <v>7.878713577297357</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.658000053187263</v>
+        <v>4.658000053187277</v>
       </c>
       <c r="D7">
-        <v>3.904631113910387</v>
+        <v>3.904631113910386</v>
       </c>
       <c r="E7">
-        <v>11.53503419927578</v>
+        <v>11.53503419927581</v>
       </c>
       <c r="F7">
-        <v>25.26956155588815</v>
+        <v>25.26956155588823</v>
       </c>
       <c r="G7">
-        <v>18.49334573819351</v>
+        <v>18.49334573819355</v>
       </c>
       <c r="H7">
-        <v>18.61581949906585</v>
+        <v>18.61581949906591</v>
       </c>
       <c r="I7">
-        <v>7.945800911974866</v>
+        <v>7.945800911974897</v>
       </c>
       <c r="J7">
-        <v>88.07154546047848</v>
+        <v>88.07154546047853</v>
       </c>
       <c r="K7">
-        <v>8.029347581515516</v>
+        <v>8.029347581515509</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.168956916271307</v>
+        <v>5.168956916271379</v>
       </c>
       <c r="D8">
-        <v>4.459551339079148</v>
+        <v>4.459551339079218</v>
       </c>
       <c r="E8">
         <v>12.67110089346378</v>
       </c>
       <c r="F8">
-        <v>29.28386529563712</v>
+        <v>29.28386529563718</v>
       </c>
       <c r="G8">
-        <v>21.74411417199388</v>
+        <v>21.74411417199395</v>
       </c>
       <c r="H8">
-        <v>21.71004859120546</v>
+        <v>21.71004859120551</v>
       </c>
       <c r="I8">
-        <v>8.922058230421394</v>
+        <v>8.92205823042144</v>
       </c>
       <c r="J8">
-        <v>97.68136762331611</v>
+        <v>97.68136762331623</v>
       </c>
       <c r="K8">
-        <v>8.812955692683218</v>
+        <v>8.81295569268323</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.149801643756776</v>
+        <v>6.149801643756701</v>
       </c>
       <c r="D9">
-        <v>5.60901502144326</v>
+        <v>5.60901502144319</v>
       </c>
       <c r="E9">
-        <v>14.89583106273199</v>
+        <v>14.89583106273198</v>
       </c>
       <c r="F9">
-        <v>37.93989112755334</v>
+        <v>37.93989112755342</v>
       </c>
       <c r="G9">
-        <v>28.72357356133583</v>
+        <v>28.72357356133585</v>
       </c>
       <c r="H9">
-        <v>28.27358817423979</v>
+        <v>28.27358817423984</v>
       </c>
       <c r="I9">
         <v>10.8083389555984</v>
       </c>
       <c r="J9">
-        <v>115.3892696717833</v>
+        <v>115.3892696717832</v>
       </c>
       <c r="K9">
         <v>10.5797727013762</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.894701916126921</v>
+        <v>6.894701916126983</v>
       </c>
       <c r="D10">
-        <v>6.558400380801996</v>
+        <v>6.558400380802108</v>
       </c>
       <c r="E10">
-        <v>16.67068690168127</v>
+        <v>16.67068690168124</v>
       </c>
       <c r="F10">
-        <v>45.19363501016918</v>
+        <v>45.19363501016913</v>
       </c>
       <c r="G10">
         <v>34.56542875039572</v>
       </c>
       <c r="H10">
-        <v>33.71924975190998</v>
+        <v>33.71924975190996</v>
       </c>
       <c r="I10">
-        <v>12.24956143185038</v>
+        <v>12.24956143185039</v>
       </c>
       <c r="J10">
-        <v>128.1253865552083</v>
+        <v>128.1253865552082</v>
       </c>
       <c r="K10">
-        <v>11.90531915540791</v>
+        <v>11.90531915540788</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.253481039942081</v>
+        <v>7.25348103994211</v>
       </c>
       <c r="D11">
-        <v>7.039546902168671</v>
+        <v>7.039546902168911</v>
       </c>
       <c r="E11">
-        <v>17.50440480967621</v>
+        <v>17.50440480967627</v>
       </c>
       <c r="F11">
-        <v>48.86627795595447</v>
+        <v>48.86627795595497</v>
       </c>
       <c r="G11">
-        <v>37.5248318392738</v>
+        <v>37.52483183927428</v>
       </c>
       <c r="H11">
-        <v>36.46667428861935</v>
+        <v>36.46667428861983</v>
       </c>
       <c r="I11">
-        <v>12.94578981590905</v>
+        <v>12.94578981590916</v>
       </c>
       <c r="J11">
-        <v>134.0194260433294</v>
+        <v>134.0194260433298</v>
       </c>
       <c r="K11">
-        <v>12.53772757218893</v>
+        <v>12.53772757218896</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.394372303948303</v>
+        <v>7.394372303948346</v>
       </c>
       <c r="D12">
-        <v>7.232744569023017</v>
+        <v>7.23274456902301</v>
       </c>
       <c r="E12">
-        <v>17.8278072897962</v>
+        <v>17.82780728979618</v>
       </c>
       <c r="F12">
-        <v>50.33783951027985</v>
+        <v>50.33783951027952</v>
       </c>
       <c r="G12">
-        <v>38.71116105972766</v>
+        <v>38.71116105972736</v>
       </c>
       <c r="H12">
-        <v>37.56625951497492</v>
+        <v>37.56625951497463</v>
       </c>
       <c r="I12">
-        <v>13.21951049727368</v>
+        <v>13.21951049727366</v>
       </c>
       <c r="J12">
-        <v>136.2888737917075</v>
+        <v>136.2888737917074</v>
       </c>
       <c r="K12">
-        <v>12.78490243264697</v>
+        <v>12.78490243264699</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.363755904700525</v>
+        <v>7.363755904700612</v>
       </c>
       <c r="D13">
-        <v>7.190557831281659</v>
+        <v>7.190557831281671</v>
       </c>
       <c r="E13">
-        <v>17.75772593859444</v>
+        <v>17.7577259385945</v>
       </c>
       <c r="F13">
-        <v>50.0166948156351</v>
+        <v>50.01669481563567</v>
       </c>
       <c r="G13">
-        <v>38.45223368901058</v>
+        <v>38.45223368901101</v>
       </c>
       <c r="H13">
-        <v>37.32634597193793</v>
+        <v>37.32634597193832</v>
       </c>
       <c r="I13">
-        <v>13.16001526727284</v>
+        <v>13.1600152672729</v>
       </c>
       <c r="J13">
-        <v>135.7979198487148</v>
+        <v>135.7979198487152</v>
       </c>
       <c r="K13">
-        <v>12.73124767930016</v>
+        <v>12.73124767930021</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,28 +874,28 @@
         <v>7.264954285268022</v>
       </c>
       <c r="D14">
-        <v>7.05518994962101</v>
+        <v>7.055189949620829</v>
       </c>
       <c r="E14">
-        <v>17.53082624201091</v>
+        <v>17.5308262420109</v>
       </c>
       <c r="F14">
-        <v>48.98550745590985</v>
+        <v>48.98550745590993</v>
       </c>
       <c r="G14">
-        <v>37.62093827183888</v>
+        <v>37.62093827183892</v>
       </c>
       <c r="H14">
-        <v>36.55578930832917</v>
+        <v>36.55578930832921</v>
       </c>
       <c r="I14">
-        <v>12.96807344535051</v>
+        <v>12.96807344535046</v>
       </c>
       <c r="J14">
-        <v>134.2052019487373</v>
+        <v>134.2052019487375</v>
       </c>
       <c r="K14">
-        <v>12.55788105200161</v>
+        <v>12.5578810520016</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.205176728155362</v>
+        <v>7.205176728155369</v>
       </c>
       <c r="D15">
-        <v>6.973861460271262</v>
+        <v>6.973861460271083</v>
       </c>
       <c r="E15">
-        <v>17.39300083688353</v>
+        <v>17.39300083688348</v>
       </c>
       <c r="F15">
-        <v>48.36549082263349</v>
+        <v>48.36549082263318</v>
       </c>
       <c r="G15">
-        <v>37.12118980422817</v>
+        <v>37.12118980422788</v>
       </c>
       <c r="H15">
-        <v>36.09232508055819</v>
+        <v>36.09232508055791</v>
       </c>
       <c r="I15">
-        <v>12.8519845635973</v>
+        <v>12.85198456359721</v>
       </c>
       <c r="J15">
-        <v>133.2354126019668</v>
+        <v>133.2354126019665</v>
       </c>
       <c r="K15">
-        <v>12.45282949170351</v>
+        <v>12.45282949170346</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.871814079294307</v>
+        <v>6.871814079294403</v>
       </c>
       <c r="D16">
-        <v>6.528234030485254</v>
+        <v>6.528234030485409</v>
       </c>
       <c r="E16">
-        <v>16.61701720779196</v>
+        <v>16.61701720779187</v>
       </c>
       <c r="F16">
-        <v>44.96310256043778</v>
+        <v>44.96310256043736</v>
       </c>
       <c r="G16">
-        <v>34.37972177225845</v>
+        <v>34.37972177225813</v>
       </c>
       <c r="H16">
-        <v>33.54661908046096</v>
+        <v>33.54661908046065</v>
       </c>
       <c r="I16">
-        <v>12.20518793338209</v>
+        <v>12.20518793338204</v>
       </c>
       <c r="J16">
-        <v>127.7439131122002</v>
+        <v>127.7439131121999</v>
       </c>
       <c r="K16">
-        <v>11.86483504820081</v>
+        <v>11.86483504820076</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.673607274716296</v>
+        <v>6.673607274716358</v>
       </c>
       <c r="D17">
-        <v>6.269641157614468</v>
+        <v>6.269641157614226</v>
       </c>
       <c r="E17">
-        <v>16.14988435005879</v>
+        <v>16.14988435005877</v>
       </c>
       <c r="F17">
-        <v>42.98628100312325</v>
+        <v>42.98628100312319</v>
       </c>
       <c r="G17">
-        <v>32.78748185059725</v>
+        <v>32.78748185059712</v>
       </c>
       <c r="H17">
-        <v>32.06530407654622</v>
+        <v>32.06530407654615</v>
       </c>
       <c r="I17">
-        <v>11.82114070411529</v>
+        <v>11.82114070411522</v>
       </c>
       <c r="J17">
-        <v>124.4136356138779</v>
+        <v>124.4136356138778</v>
       </c>
       <c r="K17">
-        <v>11.51356948788895</v>
+        <v>11.5135694878889</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.561303662381262</v>
+        <v>6.561303662381173</v>
       </c>
       <c r="D18">
-        <v>6.125225805602493</v>
+        <v>6.125225805602541</v>
       </c>
       <c r="E18">
-        <v>15.8833641221644</v>
+        <v>15.88336412216441</v>
       </c>
       <c r="F18">
-        <v>41.88214114044494</v>
+        <v>41.88214114044466</v>
       </c>
       <c r="G18">
-        <v>31.8982696276943</v>
+        <v>31.89826962769404</v>
       </c>
       <c r="H18">
-        <v>31.23706211658078</v>
+        <v>31.23706211658057</v>
       </c>
       <c r="I18">
-        <v>11.60372609312389</v>
+        <v>11.60372609312397</v>
       </c>
       <c r="J18">
-        <v>122.5057342470291</v>
+        <v>122.5057342470288</v>
       </c>
       <c r="K18">
-        <v>11.31401838718657</v>
+        <v>11.31401838718658</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.523523369279033</v>
+        <v>6.523523369279026</v>
       </c>
       <c r="D19">
-        <v>6.076984224571375</v>
+        <v>6.07698422457138</v>
       </c>
       <c r="E19">
-        <v>15.7934093023054</v>
+        <v>15.79340930230538</v>
       </c>
       <c r="F19">
-        <v>41.51334633204377</v>
+        <v>41.51334633204399</v>
       </c>
       <c r="G19">
-        <v>31.60127599700416</v>
+        <v>31.60127599700436</v>
       </c>
       <c r="H19">
-        <v>30.96026723921992</v>
+        <v>30.96026723922012</v>
       </c>
       <c r="I19">
-        <v>11.53061679960472</v>
+        <v>11.5306167996047</v>
       </c>
       <c r="J19">
-        <v>121.860535514666</v>
+        <v>121.8605355146662</v>
       </c>
       <c r="K19">
-        <v>11.24680404491436</v>
+        <v>11.24680404491433</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.694518824023228</v>
+        <v>6.694518824023175</v>
       </c>
       <c r="D20">
-        <v>6.296699980266377</v>
+        <v>6.2966999802665</v>
       </c>
       <c r="E20">
-        <v>16.19936599153138</v>
+        <v>16.19936599153134</v>
       </c>
       <c r="F20">
-        <v>43.1931651840457</v>
+        <v>43.19316518404572</v>
       </c>
       <c r="G20">
-        <v>32.95410290421173</v>
+        <v>32.95410290421178</v>
       </c>
       <c r="H20">
         <v>32.2204203351779</v>
       </c>
       <c r="I20">
-        <v>11.86163968706921</v>
+        <v>11.86163968706915</v>
       </c>
       <c r="J20">
-        <v>124.7672351441242</v>
+        <v>124.7672351441244</v>
       </c>
       <c r="K20">
-        <v>11.55068567177354</v>
+        <v>11.55068567177355</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.293814322605155</v>
+        <v>7.293814322604971</v>
       </c>
       <c r="D21">
-        <v>7.09460910865254</v>
+        <v>7.09460910865249</v>
       </c>
       <c r="E21">
-        <v>17.59722037586088</v>
+        <v>17.59722037586084</v>
       </c>
       <c r="F21">
-        <v>49.28589666981982</v>
+        <v>49.28589666981912</v>
       </c>
       <c r="G21">
-        <v>37.86308058892276</v>
+        <v>37.86308058892217</v>
       </c>
       <c r="H21">
-        <v>36.78028820982174</v>
+        <v>36.78028820982124</v>
       </c>
       <c r="I21">
-        <v>13.02413118155461</v>
+        <v>13.02413118155458</v>
       </c>
       <c r="J21">
-        <v>134.671751598348</v>
+        <v>134.6717515983477</v>
       </c>
       <c r="K21">
-        <v>12.60855587743447</v>
+        <v>12.60855587743442</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.717026884627959</v>
+        <v>7.71702688462788</v>
       </c>
       <c r="D22">
-        <v>7.684210414523815</v>
+        <v>7.684210414523752</v>
       </c>
       <c r="E22">
-        <v>18.55963323582711</v>
+        <v>18.55963323582712</v>
       </c>
       <c r="F22">
-        <v>53.76716631304402</v>
+        <v>53.76716631304382</v>
       </c>
       <c r="G22">
-        <v>41.477238636312</v>
+        <v>41.47723863631177</v>
       </c>
       <c r="H22">
-        <v>40.12654510899894</v>
+        <v>40.12654510899874</v>
       </c>
       <c r="I22">
-        <v>13.84697180605783</v>
+        <v>13.84697180605782</v>
       </c>
       <c r="J22">
         <v>141.3867508378135</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.487134602418275</v>
+        <v>7.487134602418393</v>
       </c>
       <c r="D23">
-        <v>7.361253783002364</v>
+        <v>7.361253783002289</v>
       </c>
       <c r="E23">
-        <v>18.03947151500282</v>
+        <v>18.03947151500288</v>
       </c>
       <c r="F23">
-        <v>51.31542072622665</v>
+        <v>51.31542072622702</v>
       </c>
       <c r="G23">
-        <v>39.49945746862227</v>
+        <v>39.49945746862256</v>
       </c>
       <c r="H23">
-        <v>38.29639802605303</v>
+        <v>38.29639802605323</v>
       </c>
       <c r="I23">
-        <v>13.39981800745429</v>
+        <v>13.39981800745439</v>
       </c>
       <c r="J23">
         <v>137.7688134191313</v>
       </c>
       <c r="K23">
-        <v>12.94726920216453</v>
+        <v>12.94726920216461</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.685059721209829</v>
+        <v>6.685059721209831</v>
       </c>
       <c r="D24">
-        <v>6.284453695974518</v>
+        <v>6.284453695974669</v>
       </c>
       <c r="E24">
-        <v>16.17698924181476</v>
+        <v>16.17698924181484</v>
       </c>
       <c r="F24">
-        <v>43.09953382709612</v>
+        <v>43.09953382709665</v>
       </c>
       <c r="G24">
-        <v>32.87869341384816</v>
+        <v>32.87869341384864</v>
       </c>
       <c r="H24">
-        <v>32.15022076578966</v>
+        <v>32.1502207657901</v>
       </c>
       <c r="I24">
-        <v>11.84331984901299</v>
+        <v>11.84331984901309</v>
       </c>
       <c r="J24">
-        <v>124.6073533900754</v>
+        <v>124.607353390076</v>
       </c>
       <c r="K24">
-        <v>11.53389820902883</v>
+        <v>11.53389820902891</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.883683887322612</v>
+        <v>5.883683887322701</v>
       </c>
       <c r="D25">
-        <v>5.285959551155569</v>
+        <v>5.285959551155416</v>
       </c>
       <c r="E25">
-        <v>14.26754915525077</v>
+        <v>14.26754915525079</v>
       </c>
       <c r="F25">
-        <v>35.48233041216201</v>
+        <v>35.48233041216198</v>
       </c>
       <c r="G25">
-        <v>26.74402206748531</v>
+        <v>26.74402206748522</v>
       </c>
       <c r="H25">
-        <v>26.41982532463362</v>
+        <v>26.41982532463354</v>
       </c>
       <c r="I25">
-        <v>10.29512854579734</v>
+        <v>10.29512854579736</v>
       </c>
       <c r="J25">
-        <v>110.6856330063191</v>
+        <v>110.6856330063193</v>
       </c>
       <c r="K25">
-        <v>10.10256595836483</v>
+        <v>10.10256595836488</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.305001863076457</v>
+        <v>5.306554846203881</v>
       </c>
       <c r="D2">
-        <v>4.612282936499029</v>
+        <v>4.612371454068439</v>
       </c>
       <c r="E2">
-        <v>12.97490580520975</v>
+        <v>12.97534740099371</v>
       </c>
       <c r="F2">
-        <v>30.41490553588583</v>
+        <v>30.39334591491561</v>
       </c>
       <c r="G2">
-        <v>22.65770424780441</v>
+        <v>22.69319731501351</v>
       </c>
       <c r="H2">
-        <v>22.5742712096483</v>
+        <v>21.85960302771679</v>
       </c>
       <c r="I2">
-        <v>9.18277331106319</v>
+        <v>22.55795179959782</v>
       </c>
       <c r="J2">
-        <v>100.1969548864303</v>
+        <v>9.181123806180585</v>
       </c>
       <c r="K2">
-        <v>9.059235363710505</v>
+        <v>100.1930888785375</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.058523923788044</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.908049080795534</v>
+        <v>4.909738728833543</v>
       </c>
       <c r="D3">
-        <v>4.172539497208727</v>
+        <v>4.173107443430867</v>
       </c>
       <c r="E3">
-        <v>12.08968177689534</v>
+        <v>12.09023548914829</v>
       </c>
       <c r="F3">
-        <v>27.18578836304343</v>
+        <v>27.16695970809888</v>
       </c>
       <c r="G3">
-        <v>20.04700514859689</v>
+        <v>20.07870081463053</v>
       </c>
       <c r="H3">
-        <v>20.09891026149449</v>
+        <v>19.38411628612609</v>
       </c>
       <c r="I3">
-        <v>8.422965385239339</v>
+        <v>20.08464246225144</v>
       </c>
       <c r="J3">
-        <v>92.80587039119777</v>
+        <v>8.421591354469605</v>
       </c>
       <c r="K3">
-        <v>8.354454295594213</v>
+        <v>92.80310511406778</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.354126161542</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.659380856828737</v>
+        <v>4.661133943437597</v>
       </c>
       <c r="D4">
-        <v>3.906091577786864</v>
+        <v>3.906922908784338</v>
       </c>
       <c r="E4">
-        <v>11.53808766106195</v>
+        <v>11.53869207056175</v>
       </c>
       <c r="F4">
-        <v>25.27987280004281</v>
+        <v>25.26256676173914</v>
       </c>
       <c r="G4">
-        <v>18.50171751463125</v>
+        <v>18.53113923593267</v>
       </c>
       <c r="H4">
-        <v>18.62383603032462</v>
+        <v>17.94296368101859</v>
       </c>
       <c r="I4">
-        <v>7.948432717012996</v>
+        <v>18.61071411896837</v>
       </c>
       <c r="J4">
-        <v>88.09785264301406</v>
+        <v>7.947210335945538</v>
       </c>
       <c r="K4">
-        <v>8.031114723971317</v>
+        <v>88.09566288228334</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.030853299397309</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.556507869211577</v>
+        <v>4.558282620884414</v>
       </c>
       <c r="D5">
-        <v>3.797853923157199</v>
+        <v>3.798786302232296</v>
       </c>
       <c r="E5">
-        <v>11.31093897940707</v>
+        <v>11.3115604790006</v>
       </c>
       <c r="F5">
-        <v>24.52026740037795</v>
+        <v>24.50355098137636</v>
       </c>
       <c r="G5">
-        <v>17.8846045780251</v>
+        <v>17.91311695325138</v>
       </c>
       <c r="H5">
-        <v>18.03207779129052</v>
+        <v>17.37405391989525</v>
       </c>
       <c r="I5">
-        <v>7.752453880114444</v>
+        <v>18.01940008982831</v>
       </c>
       <c r="J5">
-        <v>86.13297221310972</v>
+        <v>7.751290090364103</v>
       </c>
       <c r="K5">
-        <v>7.900368170062475</v>
+        <v>86.1309977064026</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>7.900130581987544</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.539325437408405</v>
+        <v>4.541103557661086</v>
       </c>
       <c r="D6">
-        <v>3.779887661786587</v>
+        <v>3.780836477315933</v>
       </c>
       <c r="E6">
-        <v>11.27307064459893</v>
+        <v>11.2736947902388</v>
       </c>
       <c r="F6">
-        <v>24.3951213142778</v>
+        <v>24.37850112159709</v>
       </c>
       <c r="G6">
-        <v>17.78285616282968</v>
+        <v>17.81121867357644</v>
       </c>
       <c r="H6">
-        <v>17.93433989992632</v>
+        <v>17.28067156523091</v>
       </c>
       <c r="I6">
-        <v>7.719739465152474</v>
+        <v>17.92173472129311</v>
       </c>
       <c r="J6">
-        <v>85.80381366895885</v>
+        <v>7.718585239351415</v>
       </c>
       <c r="K6">
-        <v>7.878713577297357</v>
+        <v>85.80187388373596</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>7.878479765779655</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.658000053187277</v>
+        <v>4.659753447821494</v>
       </c>
       <c r="D7">
-        <v>3.904631113910386</v>
+        <v>3.905463831402752</v>
       </c>
       <c r="E7">
-        <v>11.53503419927581</v>
+        <v>11.53563885260239</v>
       </c>
       <c r="F7">
-        <v>25.26956155588823</v>
+        <v>25.25226358572345</v>
       </c>
       <c r="G7">
-        <v>18.49334573819355</v>
+        <v>18.52275512180784</v>
       </c>
       <c r="H7">
-        <v>18.61581949906591</v>
+        <v>17.93521802032868</v>
       </c>
       <c r="I7">
-        <v>7.945800911974897</v>
+        <v>18.60270366421762</v>
       </c>
       <c r="J7">
-        <v>88.07154546047853</v>
+        <v>7.944579332745085</v>
       </c>
       <c r="K7">
-        <v>8.029347581515509</v>
+        <v>88.06935867413208</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.029086490999806</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.168956916271379</v>
+        <v>5.170561930231128</v>
       </c>
       <c r="D8">
-        <v>4.459551339079218</v>
+        <v>4.459812640564477</v>
       </c>
       <c r="E8">
-        <v>12.67110089346378</v>
+        <v>12.67158561132169</v>
       </c>
       <c r="F8">
-        <v>29.28386529563718</v>
+        <v>29.26328499123866</v>
       </c>
       <c r="G8">
-        <v>21.74411417199395</v>
+        <v>21.7782875850872</v>
       </c>
       <c r="H8">
-        <v>21.71004859120551</v>
+        <v>20.98851784649303</v>
       </c>
       <c r="I8">
-        <v>8.92205823042144</v>
+        <v>21.69446441257516</v>
       </c>
       <c r="J8">
-        <v>97.68136762331623</v>
+        <v>8.920508177968076</v>
       </c>
       <c r="K8">
-        <v>8.81295569268323</v>
+        <v>97.67790616829696</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.812307355356214</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.149801643756701</v>
+        <v>6.150891113238766</v>
       </c>
       <c r="D9">
-        <v>5.60901502144319</v>
+        <v>5.607809773100256</v>
       </c>
       <c r="E9">
-        <v>14.89583106273198</v>
+        <v>14.89591977161731</v>
       </c>
       <c r="F9">
-        <v>37.93989112755342</v>
+        <v>37.91108314781334</v>
       </c>
       <c r="G9">
-        <v>28.72357356133585</v>
+        <v>28.76740438295192</v>
       </c>
       <c r="H9">
-        <v>28.27358817423984</v>
+        <v>27.73023795601152</v>
       </c>
       <c r="I9">
-        <v>10.8083389555984</v>
+        <v>28.25183836776805</v>
       </c>
       <c r="J9">
-        <v>115.3892696717832</v>
+        <v>10.80592360737508</v>
       </c>
       <c r="K9">
-        <v>10.5797727013762</v>
+        <v>115.3820998030648</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.57854702468547</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.894701916126983</v>
+        <v>6.895131450472116</v>
       </c>
       <c r="D10">
-        <v>6.558400380802108</v>
+        <v>6.555668166655535</v>
       </c>
       <c r="E10">
-        <v>16.67068690168124</v>
+        <v>16.67012516574745</v>
       </c>
       <c r="F10">
-        <v>45.19363501016913</v>
+        <v>45.15625622057321</v>
       </c>
       <c r="G10">
-        <v>34.56542875039572</v>
+        <v>34.61617605710558</v>
       </c>
       <c r="H10">
-        <v>33.71924975190996</v>
+        <v>33.46855595520083</v>
       </c>
       <c r="I10">
-        <v>12.24956143185039</v>
+        <v>33.69109417847122</v>
       </c>
       <c r="J10">
-        <v>128.1253865552082</v>
+        <v>12.24616977106992</v>
       </c>
       <c r="K10">
-        <v>11.90531915540788</v>
+        <v>128.1137238626811</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.90339245708966</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.25348103994211</v>
+        <v>7.253481142698737</v>
       </c>
       <c r="D11">
-        <v>7.039546902168911</v>
+        <v>7.035907150175906</v>
       </c>
       <c r="E11">
-        <v>17.50440480967627</v>
+        <v>17.50338610908869</v>
       </c>
       <c r="F11">
-        <v>48.86627795595497</v>
+        <v>48.82372651353813</v>
       </c>
       <c r="G11">
-        <v>37.52483183927428</v>
+        <v>37.57844544437287</v>
       </c>
       <c r="H11">
-        <v>36.46667428861983</v>
+        <v>36.39324796974691</v>
       </c>
       <c r="I11">
-        <v>12.94578981590916</v>
+        <v>36.43465719903515</v>
       </c>
       <c r="J11">
-        <v>134.0194260433298</v>
+        <v>12.94177538077037</v>
       </c>
       <c r="K11">
-        <v>12.53772757218896</v>
+        <v>134.0048115233339</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.53533812978567</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.394372303948346</v>
+        <v>7.394179206350223</v>
       </c>
       <c r="D12">
-        <v>7.23274456902301</v>
+        <v>7.228709959921381</v>
       </c>
       <c r="E12">
-        <v>17.82780728979618</v>
+        <v>17.82657523365915</v>
       </c>
       <c r="F12">
-        <v>50.33783951027952</v>
+        <v>50.29301348794641</v>
       </c>
       <c r="G12">
-        <v>38.71116105972736</v>
+        <v>38.76576519658567</v>
       </c>
       <c r="H12">
-        <v>37.56625951497463</v>
+        <v>37.56801978291299</v>
       </c>
       <c r="I12">
-        <v>13.21951049727366</v>
+        <v>37.53254512221702</v>
       </c>
       <c r="J12">
-        <v>136.2888737917074</v>
+        <v>13.21521515758584</v>
       </c>
       <c r="K12">
-        <v>12.78490243264699</v>
+        <v>136.27291408555</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.78230150911548</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.363755904700612</v>
+        <v>7.36360608053442</v>
       </c>
       <c r="D13">
-        <v>7.190557831281671</v>
+        <v>7.186611063141093</v>
       </c>
       <c r="E13">
-        <v>17.7577259385945</v>
+        <v>17.75654207201914</v>
       </c>
       <c r="F13">
-        <v>50.01669481563567</v>
+        <v>49.97237613063545</v>
       </c>
       <c r="G13">
-        <v>38.45223368901101</v>
+        <v>38.50663027655184</v>
       </c>
       <c r="H13">
-        <v>37.32634597193832</v>
+        <v>37.31151389947499</v>
       </c>
       <c r="I13">
-        <v>13.1600152672729</v>
+        <v>37.29301012374368</v>
       </c>
       <c r="J13">
-        <v>135.7979198487152</v>
+        <v>13.15578293375257</v>
       </c>
       <c r="K13">
-        <v>12.73124767930021</v>
+        <v>135.7822624775836</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.72869431947758</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.264954285268022</v>
+        <v>7.264939211066132</v>
       </c>
       <c r="D14">
-        <v>7.055189949620829</v>
+        <v>7.051518919192044</v>
       </c>
       <c r="E14">
-        <v>17.5308262420109</v>
+        <v>17.52979095003214</v>
       </c>
       <c r="F14">
-        <v>48.98550745590993</v>
+        <v>48.94277638869452</v>
       </c>
       <c r="G14">
-        <v>37.62093827183892</v>
+        <v>37.67463580163943</v>
       </c>
       <c r="H14">
-        <v>36.55578930832921</v>
+        <v>36.48837282682428</v>
       </c>
       <c r="I14">
-        <v>12.96807344535046</v>
+        <v>36.52363816742563</v>
       </c>
       <c r="J14">
-        <v>134.2052019487375</v>
+        <v>12.964036976564</v>
       </c>
       <c r="K14">
-        <v>12.5578810520016</v>
+        <v>134.1904821806084</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.5554750767408</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.205176728155369</v>
+        <v>7.205239687837928</v>
       </c>
       <c r="D15">
-        <v>6.973861460271083</v>
+        <v>6.970351761760185</v>
       </c>
       <c r="E15">
-        <v>17.39300083688348</v>
+        <v>17.39205053910924</v>
       </c>
       <c r="F15">
-        <v>48.36549082263318</v>
+        <v>48.32368524294341</v>
       </c>
       <c r="G15">
-        <v>37.12118980422788</v>
+        <v>37.17444416944802</v>
       </c>
       <c r="H15">
-        <v>36.09232508055791</v>
+        <v>35.99382030424825</v>
       </c>
       <c r="I15">
-        <v>12.85198456359721</v>
+        <v>36.06086464531161</v>
       </c>
       <c r="J15">
-        <v>133.2354126019665</v>
+        <v>12.8480613380168</v>
       </c>
       <c r="K15">
-        <v>12.45282949170346</v>
+        <v>133.2212332408613</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.45050838151633</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.871814079294403</v>
+        <v>6.872268246876089</v>
       </c>
       <c r="D16">
-        <v>6.528234030485409</v>
+        <v>6.525555422644887</v>
       </c>
       <c r="E16">
-        <v>16.61701720779187</v>
+        <v>16.61648092579221</v>
       </c>
       <c r="F16">
-        <v>44.96310256043736</v>
+        <v>44.92602709577734</v>
       </c>
       <c r="G16">
-        <v>34.37972177225813</v>
+        <v>34.4302726109699</v>
       </c>
       <c r="H16">
-        <v>33.54661908046065</v>
+        <v>33.28534958025325</v>
       </c>
       <c r="I16">
-        <v>12.20518793338204</v>
+        <v>33.51869003120656</v>
       </c>
       <c r="J16">
-        <v>127.7439131121999</v>
+        <v>12.20183205502212</v>
       </c>
       <c r="K16">
-        <v>11.86483504820076</v>
+        <v>127.732418445289</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.86293463597634</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.673607274716358</v>
+        <v>6.674262253699524</v>
       </c>
       <c r="D17">
-        <v>6.269641157614226</v>
+        <v>6.267407496542174</v>
       </c>
       <c r="E17">
-        <v>16.14988435005877</v>
+        <v>16.14955232517114</v>
       </c>
       <c r="F17">
-        <v>42.98628100312319</v>
+        <v>42.95171494339737</v>
       </c>
       <c r="G17">
-        <v>32.78748185059712</v>
+        <v>32.83627788901245</v>
       </c>
       <c r="H17">
-        <v>32.06530407654615</v>
+        <v>31.71637870239288</v>
       </c>
       <c r="I17">
-        <v>11.82114070411522</v>
+        <v>32.03924949073507</v>
       </c>
       <c r="J17">
-        <v>124.4136356138778</v>
+        <v>11.81807752157152</v>
       </c>
       <c r="K17">
-        <v>11.5135694878889</v>
+        <v>124.4035073493819</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.51188262506964</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.561303662381173</v>
+        <v>6.562062991858558</v>
       </c>
       <c r="D18">
-        <v>6.125225805602541</v>
+        <v>6.12322976636767</v>
       </c>
       <c r="E18">
-        <v>15.88336412216441</v>
+        <v>15.88313588261916</v>
       </c>
       <c r="F18">
-        <v>41.88214114044466</v>
+        <v>41.84890981342292</v>
       </c>
       <c r="G18">
-        <v>31.89826962769404</v>
+        <v>31.94603480816686</v>
       </c>
       <c r="H18">
-        <v>31.23706211658057</v>
+        <v>30.84172527237982</v>
       </c>
       <c r="I18">
-        <v>11.60372609312397</v>
+        <v>31.21200488975491</v>
       </c>
       <c r="J18">
-        <v>122.5057342470288</v>
+        <v>11.60081609871548</v>
       </c>
       <c r="K18">
-        <v>11.31401838718658</v>
+        <v>122.4963146835625</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.31244214053386</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.523523369279026</v>
+        <v>6.52431635299568</v>
       </c>
       <c r="D19">
-        <v>6.07698422457138</v>
+        <v>6.075065901996594</v>
       </c>
       <c r="E19">
-        <v>15.79340930230538</v>
+        <v>15.79321417893011</v>
       </c>
       <c r="F19">
-        <v>41.51334633204399</v>
+        <v>41.48055084282785</v>
       </c>
       <c r="G19">
-        <v>31.60127599700436</v>
+        <v>31.64868936862493</v>
       </c>
       <c r="H19">
-        <v>30.96026723922012</v>
+        <v>30.54986916645155</v>
       </c>
       <c r="I19">
-        <v>11.5306167996047</v>
+        <v>30.93553574366066</v>
       </c>
       <c r="J19">
-        <v>121.8605355146662</v>
+        <v>11.52775644064872</v>
       </c>
       <c r="K19">
-        <v>11.24680404491433</v>
+        <v>121.851344508355</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.24526345222396</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.694518824023175</v>
+        <v>6.695153640544853</v>
       </c>
       <c r="D20">
-        <v>6.2966999802665</v>
+        <v>6.294420950268859</v>
       </c>
       <c r="E20">
-        <v>16.19936599153134</v>
+        <v>16.19901372430924</v>
       </c>
       <c r="F20">
-        <v>43.19316518404572</v>
+        <v>43.15834388725662</v>
       </c>
       <c r="G20">
-        <v>32.95410290421178</v>
+        <v>33.0030882120416</v>
       </c>
       <c r="H20">
-        <v>32.2204203351779</v>
+        <v>31.88040259430475</v>
       </c>
       <c r="I20">
-        <v>11.86163968706915</v>
+        <v>32.19417505626069</v>
       </c>
       <c r="J20">
-        <v>124.7672351441244</v>
+        <v>11.8585470104573</v>
       </c>
       <c r="K20">
-        <v>11.55068567177355</v>
+        <v>124.7569698887915</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.54897741594285</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.293814322604971</v>
+        <v>7.293760644998478</v>
       </c>
       <c r="D21">
-        <v>7.09460910865249</v>
+        <v>7.090858728289591</v>
       </c>
       <c r="E21">
-        <v>17.59722037586084</v>
+        <v>17.59614275176908</v>
       </c>
       <c r="F21">
-        <v>49.28589666981912</v>
+        <v>49.24270949010547</v>
       </c>
       <c r="G21">
-        <v>37.86308058892217</v>
+        <v>37.91698676382214</v>
       </c>
       <c r="H21">
-        <v>36.78028820982124</v>
+        <v>36.7280784261433</v>
       </c>
       <c r="I21">
-        <v>13.02413118155458</v>
+        <v>36.74779669038747</v>
       </c>
       <c r="J21">
-        <v>134.6717515983477</v>
+        <v>13.02003864692301</v>
       </c>
       <c r="K21">
-        <v>12.60855587743442</v>
+        <v>134.6567638073511</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.60610778950151</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.71702688462788</v>
+        <v>7.716329572878235</v>
       </c>
       <c r="D22">
-        <v>7.684210414523752</v>
+        <v>7.679173311236837</v>
       </c>
       <c r="E22">
-        <v>18.55963323582712</v>
+        <v>18.55782336592865</v>
       </c>
       <c r="F22">
-        <v>53.76716631304382</v>
+        <v>53.7164947986842</v>
       </c>
       <c r="G22">
-        <v>41.47723863631177</v>
+        <v>41.53372016301974</v>
       </c>
       <c r="H22">
-        <v>40.12654510899874</v>
+        <v>40.31132807493029</v>
       </c>
       <c r="I22">
-        <v>13.84697180605782</v>
+        <v>40.08847033452085</v>
       </c>
       <c r="J22">
-        <v>141.3867508378135</v>
+        <v>13.84193697065119</v>
       </c>
       <c r="K22">
-        <v>13.34835935642199</v>
+        <v>141.3672211869526</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>13.34519540640755</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.487134602418393</v>
+        <v>7.486805801826314</v>
       </c>
       <c r="D23">
-        <v>7.361253783002289</v>
+        <v>7.356945748938462</v>
       </c>
       <c r="E23">
-        <v>18.03947151500288</v>
+        <v>18.03808686859508</v>
       </c>
       <c r="F23">
-        <v>51.31542072622702</v>
+        <v>51.26901054827915</v>
       </c>
       <c r="G23">
-        <v>39.49945746862256</v>
+        <v>39.55466196979348</v>
       </c>
       <c r="H23">
-        <v>38.29639802605323</v>
+        <v>38.34926967825588</v>
       </c>
       <c r="I23">
-        <v>13.39981800745439</v>
+        <v>38.26150174509977</v>
       </c>
       <c r="J23">
-        <v>137.7688134191313</v>
+        <v>13.39532467682421</v>
       </c>
       <c r="K23">
-        <v>12.94726920216461</v>
+        <v>137.7519015709322</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.94451836402987</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.685059721209831</v>
+        <v>6.685703687009942</v>
       </c>
       <c r="D24">
-        <v>6.284453695974669</v>
+        <v>6.282195232643402</v>
       </c>
       <c r="E24">
-        <v>16.17698924181484</v>
+        <v>16.17664616761374</v>
       </c>
       <c r="F24">
-        <v>43.09953382709665</v>
+        <v>43.06482825115876</v>
       </c>
       <c r="G24">
-        <v>32.87869341384864</v>
+        <v>32.92759321840856</v>
       </c>
       <c r="H24">
-        <v>32.1502207657901</v>
+        <v>31.80616358716119</v>
       </c>
       <c r="I24">
-        <v>11.84331984901309</v>
+        <v>32.12406194330312</v>
       </c>
       <c r="J24">
-        <v>124.607353390076</v>
+        <v>11.84024055248474</v>
       </c>
       <c r="K24">
-        <v>11.53389820902891</v>
+        <v>124.597150301828</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.53219966189948</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.883683887322701</v>
+        <v>5.884947769313493</v>
       </c>
       <c r="D25">
-        <v>5.285959551155416</v>
+        <v>5.285205871979402</v>
       </c>
       <c r="E25">
-        <v>14.26754915525079</v>
+        <v>14.26774237274801</v>
       </c>
       <c r="F25">
-        <v>35.48233041216198</v>
+        <v>35.45604373602643</v>
       </c>
       <c r="G25">
-        <v>26.74402206748522</v>
+        <v>26.78523098845287</v>
       </c>
       <c r="H25">
-        <v>26.41982532463354</v>
+        <v>25.8012957218314</v>
       </c>
       <c r="I25">
-        <v>10.29512854579736</v>
+        <v>26.39996260894989</v>
       </c>
       <c r="J25">
-        <v>110.6856330063193</v>
+        <v>10.29298587473363</v>
       </c>
       <c r="K25">
-        <v>10.10256595836488</v>
+        <v>110.6796705396698</v>
       </c>
       <c r="L25">
+        <v>10.10152817477811</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.306554846203881</v>
+        <v>5.836144427173477</v>
       </c>
       <c r="D2">
-        <v>4.612371454068439</v>
+        <v>7.914151652870266</v>
       </c>
       <c r="E2">
-        <v>12.97534740099371</v>
+        <v>5.7416619209722</v>
       </c>
       <c r="F2">
-        <v>30.39334591491561</v>
+        <v>70.66343018102256</v>
       </c>
       <c r="G2">
-        <v>22.69319731501351</v>
+        <v>2.085120466059874</v>
       </c>
       <c r="H2">
-        <v>21.85960302771679</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>22.55795179959782</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.181123806180585</v>
+        <v>5.988942495389734</v>
       </c>
       <c r="K2">
-        <v>100.1930888785375</v>
+        <v>56.2380474092835</v>
       </c>
       <c r="L2">
-        <v>9.058523923788044</v>
+        <v>5.313723262128487</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>37.2047303826652</v>
+      </c>
+      <c r="N2">
+        <v>12.10457409522318</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.909738728833543</v>
+        <v>5.794798767686501</v>
       </c>
       <c r="D3">
-        <v>4.173107443430867</v>
+        <v>7.431298159330069</v>
       </c>
       <c r="E3">
-        <v>12.09023548914829</v>
+        <v>5.641071049063407</v>
       </c>
       <c r="F3">
-        <v>27.16695970809888</v>
+        <v>67.29206785207305</v>
       </c>
       <c r="G3">
-        <v>20.07870081463053</v>
+        <v>2.119010306540442</v>
       </c>
       <c r="H3">
-        <v>19.38411628612609</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20.08464246225144</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.421591354469605</v>
+        <v>6.129510360024741</v>
       </c>
       <c r="K3">
-        <v>92.80310511406778</v>
+        <v>52.55401727158115</v>
       </c>
       <c r="L3">
-        <v>8.354126161542</v>
+        <v>5.116687350076296</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>35.09701950193845</v>
+      </c>
+      <c r="N3">
+        <v>12.63121227110105</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.661133943437597</v>
+        <v>5.77618589131588</v>
       </c>
       <c r="D4">
-        <v>3.906922908784338</v>
+        <v>7.150492907483962</v>
       </c>
       <c r="E4">
-        <v>11.53869207056175</v>
+        <v>5.582075388212396</v>
       </c>
       <c r="F4">
-        <v>25.26256676173914</v>
+        <v>65.35232745472148</v>
       </c>
       <c r="G4">
-        <v>18.53113923593267</v>
+        <v>2.139460002162516</v>
       </c>
       <c r="H4">
-        <v>17.94296368101859</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>18.61071411896837</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.947210335945538</v>
+        <v>6.216808661565357</v>
       </c>
       <c r="K4">
-        <v>88.09566288228334</v>
+        <v>50.29615054778962</v>
       </c>
       <c r="L4">
-        <v>8.030853299397309</v>
+        <v>4.997726866115126</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>33.82102494902398</v>
+      </c>
+      <c r="N4">
+        <v>12.94658324806959</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.558282620884414</v>
+        <v>5.770128319234157</v>
       </c>
       <c r="D5">
-        <v>3.798786302232296</v>
+        <v>7.039471354035198</v>
       </c>
       <c r="E5">
-        <v>11.3115604790006</v>
+        <v>5.558572437293118</v>
       </c>
       <c r="F5">
-        <v>24.50355098137636</v>
+        <v>64.59070433284801</v>
       </c>
       <c r="G5">
-        <v>17.91311695325138</v>
+        <v>2.147748294607267</v>
       </c>
       <c r="H5">
-        <v>17.37405391989525</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.01940008982831</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.751290090364103</v>
+        <v>6.252708093627003</v>
       </c>
       <c r="K5">
-        <v>86.1309977064026</v>
+        <v>49.37510009050247</v>
       </c>
       <c r="L5">
-        <v>7.900130581987544</v>
+        <v>4.949567759458775</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>33.30445765143598</v>
+      </c>
+      <c r="N5">
+        <v>13.0737791728003</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.541103557661086</v>
+        <v>5.769210189629194</v>
       </c>
       <c r="D6">
-        <v>3.780836477315933</v>
+        <v>7.021229547272402</v>
       </c>
       <c r="E6">
-        <v>11.2736947902388</v>
+        <v>5.554698376279435</v>
       </c>
       <c r="F6">
-        <v>24.37850112159709</v>
+        <v>64.46588289803775</v>
       </c>
       <c r="G6">
-        <v>17.81121867357644</v>
+        <v>2.149122965287219</v>
       </c>
       <c r="H6">
-        <v>17.28067156523091</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.92173472129311</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.718585239351415</v>
+        <v>6.258690752089378</v>
       </c>
       <c r="K6">
-        <v>85.80187388373596</v>
+        <v>49.22206065701617</v>
       </c>
       <c r="L6">
-        <v>7.878479765779655</v>
+        <v>4.941585571027422</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>33.21886363867202</v>
+      </c>
+      <c r="N6">
+        <v>13.09483751358887</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.659753447821494</v>
+        <v>5.776098220915538</v>
       </c>
       <c r="D7">
-        <v>3.905463831402752</v>
+        <v>7.148982419107629</v>
       </c>
       <c r="E7">
-        <v>11.53563885260239</v>
+        <v>5.581756421407007</v>
       </c>
       <c r="F7">
-        <v>25.25226358572345</v>
+        <v>65.34194363960204</v>
       </c>
       <c r="G7">
-        <v>18.52275512180784</v>
+        <v>2.139571911367726</v>
       </c>
       <c r="H7">
-        <v>17.93521802032868</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>18.60270366421762</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.944579332745085</v>
+        <v>6.217291408401978</v>
       </c>
       <c r="K7">
-        <v>88.06935867413208</v>
+        <v>50.28373480606118</v>
       </c>
       <c r="L7">
-        <v>8.029086490999806</v>
+        <v>4.997076301885682</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>33.81404569461832</v>
+      </c>
+      <c r="N7">
+        <v>12.94830320315604</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.170561930231128</v>
+        <v>5.82036490777352</v>
       </c>
       <c r="D8">
-        <v>4.459812640564477</v>
+        <v>7.744036701133644</v>
       </c>
       <c r="E8">
-        <v>12.67158561132169</v>
+        <v>5.70629578524152</v>
       </c>
       <c r="F8">
-        <v>29.26328499123866</v>
+        <v>69.4712194338486</v>
       </c>
       <c r="G8">
-        <v>21.7782875850872</v>
+        <v>2.096910856666042</v>
       </c>
       <c r="H8">
-        <v>20.98851784649303</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>21.69446441257516</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.920508177968076</v>
+        <v>6.037255315377417</v>
       </c>
       <c r="K8">
-        <v>97.67790616829696</v>
+        <v>54.96543991164769</v>
       </c>
       <c r="L8">
-        <v>8.812307355356214</v>
+        <v>5.245234209983726</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>36.47335800491022</v>
+      </c>
+      <c r="N8">
+        <v>12.28828436914659</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.150891113238766</v>
+        <v>5.971486176424659</v>
       </c>
       <c r="D9">
-        <v>5.607809773100256</v>
+        <v>9.198241299710034</v>
       </c>
       <c r="E9">
-        <v>14.89591977161731</v>
+        <v>5.982561255659151</v>
       </c>
       <c r="F9">
-        <v>37.91108314781334</v>
+        <v>78.86244181980392</v>
       </c>
       <c r="G9">
-        <v>28.76740438295192</v>
+        <v>2.007570962846914</v>
       </c>
       <c r="H9">
-        <v>27.73023795601152</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>28.25183836776805</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>10.80592360737508</v>
+        <v>5.687631317895274</v>
       </c>
       <c r="K9">
-        <v>115.3820998030648</v>
+        <v>64.50582795673022</v>
       </c>
       <c r="L9">
-        <v>10.57854702468547</v>
+        <v>5.760405579074397</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>41.92222255453355</v>
+      </c>
+      <c r="N9">
+        <v>10.8875530347263</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.895131450472116</v>
+        <v>6.144017457083082</v>
       </c>
       <c r="D10">
-        <v>6.555668166655535</v>
+        <v>10.59026304628396</v>
       </c>
       <c r="E10">
-        <v>16.67012516574745</v>
+        <v>6.227887181739651</v>
       </c>
       <c r="F10">
-        <v>45.15625622057321</v>
+        <v>87.18843148629807</v>
       </c>
       <c r="G10">
-        <v>34.61617605710558</v>
+        <v>1.932195841276126</v>
       </c>
       <c r="H10">
-        <v>33.46855595520083</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>33.69109417847122</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>12.24616977106992</v>
+        <v>5.423990271444894</v>
       </c>
       <c r="K10">
-        <v>128.1137238626811</v>
+        <v>72.37532861452789</v>
       </c>
       <c r="L10">
-        <v>11.90339245708966</v>
+        <v>6.185101128878374</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>46.99380478970496</v>
+      </c>
+      <c r="N10">
+        <v>9.698801543902681</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.253481142698737</v>
+        <v>6.245355010630288</v>
       </c>
       <c r="D11">
-        <v>7.035907150175906</v>
+        <v>11.29461874783552</v>
       </c>
       <c r="E11">
-        <v>17.50338610908869</v>
+        <v>6.359152104027413</v>
       </c>
       <c r="F11">
-        <v>48.82372651353813</v>
+        <v>91.7928307557892</v>
       </c>
       <c r="G11">
-        <v>37.57844544437287</v>
+        <v>1.892988522170297</v>
       </c>
       <c r="H11">
-        <v>36.39324796974691</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>36.43465719903515</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>12.94177538077037</v>
+        <v>5.299064866216882</v>
       </c>
       <c r="K11">
-        <v>134.0048115233339</v>
+        <v>76.23913720260819</v>
       </c>
       <c r="L11">
-        <v>12.53533812978567</v>
+        <v>6.401623083120812</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>49.51886265290435</v>
+      </c>
+      <c r="N11">
+        <v>9.081309007677586</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.394179206350223</v>
+        <v>6.28859354278091</v>
       </c>
       <c r="D12">
-        <v>7.228709959921381</v>
+        <v>11.57916245861609</v>
       </c>
       <c r="E12">
-        <v>17.82657523365915</v>
+        <v>6.413515465219476</v>
       </c>
       <c r="F12">
-        <v>50.29301348794641</v>
+        <v>93.66959654829937</v>
       </c>
       <c r="G12">
-        <v>38.76576519658567</v>
+        <v>1.876954010970709</v>
       </c>
       <c r="H12">
-        <v>37.56801978291299</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>37.53254512221702</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.21521515758584</v>
+        <v>5.250486655930213</v>
       </c>
       <c r="K12">
-        <v>136.27291408555</v>
+        <v>77.77674659902793</v>
       </c>
       <c r="L12">
-        <v>12.78230150911548</v>
+        <v>6.489281622578631</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>50.52263615151412</v>
+      </c>
+      <c r="N12">
+        <v>8.82928095517765</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.36360608053442</v>
+        <v>6.279025582712613</v>
       </c>
       <c r="D13">
-        <v>7.186611063141093</v>
+        <v>11.51689529787</v>
       </c>
       <c r="E13">
-        <v>17.75654207201914</v>
+        <v>6.401553428597749</v>
       </c>
       <c r="F13">
-        <v>49.97237613063545</v>
+        <v>93.25819768098272</v>
       </c>
       <c r="G13">
-        <v>38.50663027655184</v>
+        <v>1.880472318519243</v>
       </c>
       <c r="H13">
-        <v>37.31151389947499</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>37.29301012374368</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.15578293375257</v>
+        <v>5.261018892182396</v>
       </c>
       <c r="K13">
-        <v>135.7822624775836</v>
+        <v>77.44142669461758</v>
       </c>
       <c r="L13">
-        <v>12.72869431947758</v>
+        <v>6.470091800186932</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>50.3037862711476</v>
+      </c>
+      <c r="N13">
+        <v>8.884550133331656</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.264939211066132</v>
+        <v>6.248801192512027</v>
       </c>
       <c r="D14">
-        <v>7.051518919192044</v>
+        <v>11.317604760426</v>
       </c>
       <c r="E14">
-        <v>17.52979095003214</v>
+        <v>6.363515189210246</v>
       </c>
       <c r="F14">
-        <v>48.94277638869452</v>
+        <v>91.94412358677131</v>
       </c>
       <c r="G14">
-        <v>37.67463580163943</v>
+        <v>1.891697343789171</v>
       </c>
       <c r="H14">
-        <v>36.48837282682428</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>36.52363816742563</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>12.964036976564</v>
+        <v>5.295098454490437</v>
       </c>
       <c r="K14">
-        <v>134.1904821806084</v>
+        <v>76.36385012843101</v>
       </c>
       <c r="L14">
-        <v>12.5554750767408</v>
+        <v>6.408700950503089</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>49.6002997007864</v>
+      </c>
+      <c r="N14">
+        <v>9.061001566347977</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.205239687837928</v>
+        <v>6.230988982992652</v>
       </c>
       <c r="D15">
-        <v>6.970351761760185</v>
+        <v>11.19818429282</v>
       </c>
       <c r="E15">
-        <v>17.39205053910924</v>
+        <v>6.340902000851982</v>
       </c>
       <c r="F15">
-        <v>48.32368524294341</v>
+        <v>91.15874876426606</v>
       </c>
       <c r="G15">
-        <v>37.17444416944802</v>
+        <v>1.898397516541818</v>
       </c>
       <c r="H15">
-        <v>35.99382030424825</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>36.06086464531161</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>12.8480613380168</v>
+        <v>5.315784319233367</v>
       </c>
       <c r="K15">
-        <v>133.2212332408613</v>
+        <v>75.71496542838483</v>
       </c>
       <c r="L15">
-        <v>12.45050838151633</v>
+        <v>6.371936002969949</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>49.17653667064908</v>
+      </c>
+      <c r="N15">
+        <v>9.166403359358178</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.872268246876089</v>
+        <v>6.137965106316464</v>
       </c>
       <c r="D16">
-        <v>6.525555422644887</v>
+        <v>10.54618900025532</v>
       </c>
       <c r="E16">
-        <v>16.61648092579221</v>
+        <v>6.219830623627958</v>
       </c>
       <c r="F16">
-        <v>44.92602709577734</v>
+        <v>86.9026036108051</v>
       </c>
       <c r="G16">
-        <v>34.4302726109699</v>
+        <v>1.934625811477714</v>
       </c>
       <c r="H16">
-        <v>33.28534958025325</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>33.51869003120656</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>12.20183205502212</v>
+        <v>5.432014655231804</v>
       </c>
       <c r="K16">
-        <v>127.732418445289</v>
+        <v>72.1308623477799</v>
       </c>
       <c r="L16">
-        <v>11.86293463597634</v>
+        <v>6.171580212807295</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>46.83390976002622</v>
+      </c>
+      <c r="N16">
+        <v>9.737114123852908</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.674262253699524</v>
+        <v>6.0875671604394</v>
       </c>
       <c r="D17">
-        <v>6.267407496542174</v>
+        <v>10.16828954107662</v>
       </c>
       <c r="E17">
-        <v>16.14955232517114</v>
+        <v>6.15151840965421</v>
       </c>
       <c r="F17">
-        <v>42.95171494339737</v>
+        <v>84.5920438324124</v>
       </c>
       <c r="G17">
-        <v>32.83627788901245</v>
+        <v>1.955345761685561</v>
       </c>
       <c r="H17">
-        <v>31.71637870239288</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>32.03924949073507</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>11.81807752157152</v>
+        <v>5.501746124232136</v>
       </c>
       <c r="K17">
-        <v>124.4035073493819</v>
+        <v>70.02194272882791</v>
       </c>
       <c r="L17">
-        <v>11.51188262506964</v>
+        <v>6.05581550459352</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>45.45388094578874</v>
+      </c>
+      <c r="N17">
+        <v>10.06391048321262</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.562062991858558</v>
+        <v>6.060599898387628</v>
       </c>
       <c r="D18">
-        <v>6.12322976636767</v>
+        <v>9.9569912869487</v>
       </c>
       <c r="E18">
-        <v>15.88313588261916</v>
+        <v>6.113924851424611</v>
       </c>
       <c r="F18">
-        <v>41.84890981342292</v>
+        <v>83.32291298305827</v>
       </c>
       <c r="G18">
-        <v>31.94603480816686</v>
+        <v>1.96684039966607</v>
       </c>
       <c r="H18">
-        <v>30.84172527237982</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>31.21200488975491</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>11.60081609871548</v>
+        <v>5.541428969890186</v>
       </c>
       <c r="K18">
-        <v>122.4963146835625</v>
+        <v>68.8328565321429</v>
       </c>
       <c r="L18">
-        <v>11.31244214053386</v>
+        <v>5.991232661500471</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>44.67522650102389</v>
+      </c>
+      <c r="N18">
+        <v>10.24525031308449</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.52431635299568</v>
+        <v>6.051784059774343</v>
       </c>
       <c r="D19">
-        <v>6.075065901996594</v>
+        <v>9.886338516432973</v>
       </c>
       <c r="E19">
-        <v>15.79321417893011</v>
+        <v>6.101451729950952</v>
       </c>
       <c r="F19">
-        <v>41.48055084282785</v>
+        <v>82.90097962071169</v>
       </c>
       <c r="G19">
-        <v>31.64868936862493</v>
+        <v>1.970669271443734</v>
       </c>
       <c r="H19">
-        <v>30.54986916645155</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>30.93553574366066</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>11.52775644064872</v>
+        <v>5.554803567568099</v>
       </c>
       <c r="K19">
-        <v>121.851344508355</v>
+        <v>68.43368874806184</v>
       </c>
       <c r="L19">
-        <v>11.24526345222396</v>
+        <v>5.96966390464182</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>44.41374770377815</v>
+      </c>
+      <c r="N19">
+        <v>10.30565506716782</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.695153640544853</v>
+        <v>6.092714924385071</v>
       </c>
       <c r="D20">
-        <v>6.294420950268859</v>
+        <v>10.20785222729346</v>
       </c>
       <c r="E20">
-        <v>16.19901372430924</v>
+        <v>6.158605506642668</v>
       </c>
       <c r="F20">
-        <v>43.15834388725662</v>
+        <v>84.83084095729146</v>
       </c>
       <c r="G20">
-        <v>33.0030882120416</v>
+        <v>1.953186284735605</v>
       </c>
       <c r="H20">
-        <v>31.88040259430475</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>32.19417505626069</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>11.8585470104573</v>
+        <v>5.494369973516855</v>
       </c>
       <c r="K20">
-        <v>124.7569698887915</v>
+        <v>70.24379732528743</v>
       </c>
       <c r="L20">
-        <v>11.54897741594285</v>
+        <v>6.067920063448979</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>45.59911504641429</v>
+      </c>
+      <c r="N20">
+        <v>10.02984437719779</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.293760644998478</v>
+        <v>6.257527896371016</v>
       </c>
       <c r="D21">
-        <v>7.090858728289591</v>
+        <v>11.37556512756523</v>
       </c>
       <c r="E21">
-        <v>17.59614275176908</v>
+        <v>6.374539159025295</v>
       </c>
       <c r="F21">
-        <v>49.24270949010547</v>
+        <v>92.32587112788688</v>
       </c>
       <c r="G21">
-        <v>37.91698676382214</v>
+        <v>1.888438343922376</v>
       </c>
       <c r="H21">
-        <v>36.7280784261433</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.74779669038747</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13.02003864692301</v>
+        <v>5.285129460863982</v>
       </c>
       <c r="K21">
-        <v>134.6567638073511</v>
+        <v>76.67792928777453</v>
       </c>
       <c r="L21">
-        <v>12.60610778950151</v>
+        <v>6.426550904561076</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>49.8053744010423</v>
+      </c>
+      <c r="N21">
+        <v>9.009754167972709</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.716329572878235</v>
+        <v>6.395596901289668</v>
       </c>
       <c r="D22">
-        <v>7.679173311236837</v>
+        <v>12.25255528852888</v>
       </c>
       <c r="E22">
-        <v>18.55782336592865</v>
+        <v>6.545236911327732</v>
       </c>
       <c r="F22">
-        <v>53.7164947986842</v>
+        <v>98.13982743943988</v>
       </c>
       <c r="G22">
-        <v>41.53372016301974</v>
+        <v>1.838573820659166</v>
       </c>
       <c r="H22">
-        <v>40.31132807493029</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>40.08847033452085</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13.84193697065119</v>
+        <v>5.140295978978898</v>
       </c>
       <c r="K22">
-        <v>141.3672211869526</v>
+        <v>81.36122795083236</v>
       </c>
       <c r="L22">
-        <v>13.34519540640755</v>
+        <v>6.697014073732549</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>52.86028252189391</v>
+      </c>
+      <c r="N22">
+        <v>8.227707668114563</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.486805801826314</v>
+        <v>6.318181789783779</v>
       </c>
       <c r="D23">
-        <v>7.356945748938462</v>
+        <v>11.76940754746489</v>
       </c>
       <c r="E23">
-        <v>18.03808686859508</v>
+        <v>6.450291116474394</v>
       </c>
       <c r="F23">
-        <v>51.26901054827915</v>
+        <v>94.92878743203701</v>
       </c>
       <c r="G23">
-        <v>39.55466196979348</v>
+        <v>1.866172043688606</v>
       </c>
       <c r="H23">
-        <v>38.34926967825588</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>38.26150174509977</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>13.39532467682421</v>
+        <v>5.218657789998824</v>
       </c>
       <c r="K23">
-        <v>137.7519015709322</v>
+        <v>78.79721181172083</v>
       </c>
       <c r="L23">
-        <v>12.94451836402987</v>
+        <v>6.547934854857545</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>51.18847566717024</v>
+      </c>
+      <c r="N23">
+        <v>8.660025570469394</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.685703687009942</v>
+        <v>6.090381466654771</v>
       </c>
       <c r="D24">
-        <v>6.282195232643402</v>
+        <v>10.18994783704789</v>
       </c>
       <c r="E24">
-        <v>16.17664616761374</v>
+        <v>6.155396309289938</v>
       </c>
       <c r="F24">
-        <v>43.06482825115876</v>
+        <v>84.72272697991062</v>
       </c>
       <c r="G24">
-        <v>32.92759321840856</v>
+        <v>1.954163855148465</v>
       </c>
       <c r="H24">
-        <v>31.80616358716119</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>32.12406194330312</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>11.84024055248474</v>
+        <v>5.497705963046186</v>
       </c>
       <c r="K24">
-        <v>124.597150301828</v>
+        <v>70.14342617380727</v>
       </c>
       <c r="L24">
-        <v>11.53219966189948</v>
+        <v>6.062441592795723</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>45.53341012969743</v>
+      </c>
+      <c r="N24">
+        <v>10.0452655905004</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.884947769313493</v>
+        <v>5.921935140378566</v>
       </c>
       <c r="D25">
-        <v>5.285205871979402</v>
+        <v>8.719272227402723</v>
       </c>
       <c r="E25">
-        <v>14.26774237274801</v>
+        <v>5.902638901916062</v>
       </c>
       <c r="F25">
-        <v>35.45604373602643</v>
+        <v>76.13741118640539</v>
       </c>
       <c r="G25">
-        <v>26.78523098845287</v>
+        <v>2.032836757457215</v>
       </c>
       <c r="H25">
-        <v>25.8012957218314</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>26.39996260894989</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>10.29298587473363</v>
+        <v>5.782579079420323</v>
       </c>
       <c r="K25">
-        <v>110.6796705396698</v>
+        <v>61.75027291170396</v>
       </c>
       <c r="L25">
-        <v>10.10152817477811</v>
+        <v>5.615784232286266</v>
       </c>
       <c r="M25">
+        <v>40.40639750035106</v>
+      </c>
+      <c r="N25">
+        <v>11.28529015247314</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.836144427173477</v>
+        <v>4.079877461567881</v>
       </c>
       <c r="D2">
-        <v>7.914151652870266</v>
+        <v>4.471846776895117</v>
       </c>
       <c r="E2">
-        <v>5.7416619209722</v>
+        <v>6.334992510732378</v>
       </c>
       <c r="F2">
-        <v>70.66343018102256</v>
+        <v>40.48185147725252</v>
       </c>
       <c r="G2">
-        <v>2.085120466059874</v>
+        <v>61.40750206858432</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>16.57771168102702</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.80807009506529</v>
       </c>
       <c r="J2">
-        <v>5.988942495389734</v>
+        <v>5.162213875179207</v>
       </c>
       <c r="K2">
-        <v>56.2380474092835</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.313723262128487</v>
+        <v>5.250266726374385</v>
       </c>
       <c r="M2">
-        <v>37.2047303826652</v>
+        <v>34.31733720490792</v>
       </c>
       <c r="N2">
-        <v>12.10457409522318</v>
+        <v>18.55190062592674</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.794798767686501</v>
+        <v>4.074057167940789</v>
       </c>
       <c r="D3">
-        <v>7.431298159330069</v>
+        <v>4.325858487654463</v>
       </c>
       <c r="E3">
-        <v>5.641071049063407</v>
+        <v>6.391877383583481</v>
       </c>
       <c r="F3">
-        <v>67.29206785207305</v>
+        <v>38.56961872405756</v>
       </c>
       <c r="G3">
-        <v>2.119010306540442</v>
+        <v>57.89753292036698</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>15.96529904396836</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.4967532007155</v>
       </c>
       <c r="J3">
-        <v>6.129510360024741</v>
+        <v>5.268511414561992</v>
       </c>
       <c r="K3">
-        <v>52.55401727158115</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.116687350076296</v>
+        <v>5.314753722966102</v>
       </c>
       <c r="M3">
-        <v>35.09701950193845</v>
+        <v>32.23732258161164</v>
       </c>
       <c r="N3">
-        <v>12.63121227110105</v>
+        <v>17.84056999585586</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.77618589131588</v>
+        <v>4.071381828780135</v>
       </c>
       <c r="D4">
-        <v>7.150492907483962</v>
+        <v>4.235072055993148</v>
       </c>
       <c r="E4">
-        <v>5.582075388212396</v>
+        <v>6.428194231818788</v>
       </c>
       <c r="F4">
-        <v>65.35232745472148</v>
+        <v>37.40553849291659</v>
       </c>
       <c r="G4">
-        <v>2.139460002162516</v>
+        <v>55.72490409968739</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>15.59915769434983</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.70296512981376</v>
       </c>
       <c r="J4">
-        <v>6.216808661565357</v>
+        <v>5.334893004336772</v>
       </c>
       <c r="K4">
-        <v>50.29615054778962</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.997726866115126</v>
+        <v>5.355293951030772</v>
       </c>
       <c r="M4">
-        <v>33.82102494902398</v>
+        <v>30.89909487831208</v>
       </c>
       <c r="N4">
-        <v>12.94658324806959</v>
+        <v>17.39311435516865</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.770128319234157</v>
+        <v>4.070501234044394</v>
       </c>
       <c r="D5">
-        <v>7.039471354035198</v>
+        <v>4.197773506709463</v>
       </c>
       <c r="E5">
-        <v>5.558572437293118</v>
+        <v>6.443345945311692</v>
       </c>
       <c r="F5">
-        <v>64.59070433284801</v>
+        <v>36.93399026741635</v>
       </c>
       <c r="G5">
-        <v>2.147748294607267</v>
+        <v>54.83570259728184</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>15.45247089472969</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.38252368166081</v>
       </c>
       <c r="J5">
-        <v>6.252708093627003</v>
+        <v>5.362249042938599</v>
       </c>
       <c r="K5">
-        <v>49.37510009050247</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.949567759458775</v>
+        <v>5.372063626100024</v>
       </c>
       <c r="M5">
-        <v>33.30445765143598</v>
+        <v>30.33857592440048</v>
       </c>
       <c r="N5">
-        <v>13.0737791728003</v>
+        <v>17.20832056025158</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.769210189629194</v>
+        <v>4.070367233963466</v>
       </c>
       <c r="D6">
-        <v>7.021229547272402</v>
+        <v>4.191561567503332</v>
       </c>
       <c r="E6">
-        <v>5.554698376279435</v>
+        <v>6.445883239104562</v>
       </c>
       <c r="F6">
-        <v>64.46588289803775</v>
+        <v>36.85587125449216</v>
       </c>
       <c r="G6">
-        <v>2.149122965287219</v>
+        <v>54.68784084922891</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>15.42826709101283</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.3295040730315</v>
       </c>
       <c r="J6">
-        <v>6.258690752089378</v>
+        <v>5.366810597367843</v>
       </c>
       <c r="K6">
-        <v>49.22206065701617</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.941585571027422</v>
+        <v>5.374863589752826</v>
       </c>
       <c r="M6">
-        <v>33.21886363867202</v>
+        <v>30.24459236192151</v>
       </c>
       <c r="N6">
-        <v>13.09483751358887</v>
+        <v>17.17749512195611</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.776098220915538</v>
+        <v>4.07136912408114</v>
       </c>
       <c r="D7">
-        <v>7.148982419107629</v>
+        <v>4.234570272440026</v>
       </c>
       <c r="E7">
-        <v>5.581756421407007</v>
+        <v>6.428397142794331</v>
       </c>
       <c r="F7">
-        <v>65.34194363960204</v>
+        <v>37.39916712606361</v>
       </c>
       <c r="G7">
-        <v>2.139571911367726</v>
+        <v>55.71292663004937</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>15.59716916950703</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.69863098706828</v>
       </c>
       <c r="J7">
-        <v>6.217291408401978</v>
+        <v>5.335260671302304</v>
       </c>
       <c r="K7">
-        <v>50.28373480606118</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4.997076301885682</v>
+        <v>5.355519089089867</v>
       </c>
       <c r="M7">
-        <v>33.81404569461832</v>
+        <v>30.89159668423708</v>
       </c>
       <c r="N7">
-        <v>12.94830320315604</v>
+        <v>17.39063175370091</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.82036490777352</v>
+        <v>4.077673734099728</v>
       </c>
       <c r="D8">
-        <v>7.744036701133644</v>
+        <v>4.421738508791108</v>
       </c>
       <c r="E8">
-        <v>5.70629578524152</v>
+        <v>6.354319864526796</v>
       </c>
       <c r="F8">
-        <v>69.4712194338486</v>
+        <v>39.82057674147158</v>
       </c>
       <c r="G8">
-        <v>2.096910856666042</v>
+        <v>60.20115231871854</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>16.36451464894941</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.35365463785512</v>
       </c>
       <c r="J8">
-        <v>6.037255315377417</v>
+        <v>5.198649570488334</v>
       </c>
       <c r="K8">
-        <v>54.96543991164769</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.245234209983726</v>
+        <v>5.272313014891308</v>
       </c>
       <c r="M8">
-        <v>36.47335800491022</v>
+        <v>33.61290957282246</v>
       </c>
       <c r="N8">
-        <v>12.28828436914659</v>
+        <v>18.30898703995323</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.971486176424659</v>
+        <v>4.098022095206737</v>
       </c>
       <c r="D9">
-        <v>9.198241299710034</v>
+        <v>4.780630791104504</v>
       </c>
       <c r="E9">
-        <v>5.982561255659151</v>
+        <v>6.219941071382853</v>
       </c>
       <c r="F9">
-        <v>78.86244181980392</v>
+        <v>44.64175396462827</v>
       </c>
       <c r="G9">
-        <v>2.007570962846914</v>
+        <v>68.85318713819954</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>17.94759414921784</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.68552246747759</v>
       </c>
       <c r="J9">
-        <v>5.687631317895274</v>
+        <v>4.938349786642362</v>
       </c>
       <c r="K9">
-        <v>64.50582795673022</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.760405579074397</v>
+        <v>5.116061151225638</v>
       </c>
       <c r="M9">
-        <v>41.92222255453355</v>
+        <v>38.46105161080982</v>
       </c>
       <c r="N9">
-        <v>10.8875530347263</v>
+        <v>20.01609608434405</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.144017457083082</v>
+        <v>4.119273356559018</v>
       </c>
       <c r="D10">
-        <v>10.59026304628396</v>
+        <v>5.041352527988117</v>
       </c>
       <c r="E10">
-        <v>6.227887181739651</v>
+        <v>6.127659098344613</v>
       </c>
       <c r="F10">
-        <v>87.18843148629807</v>
+        <v>48.23008790760607</v>
       </c>
       <c r="G10">
-        <v>1.932195841276126</v>
+        <v>75.12625813653361</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>19.16122859866429</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>35.18818609701646</v>
       </c>
       <c r="J10">
-        <v>5.423990271444894</v>
+        <v>4.749762448448449</v>
       </c>
       <c r="K10">
-        <v>72.37532861452789</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.185101128878374</v>
+        <v>5.004560148119546</v>
       </c>
       <c r="M10">
-        <v>46.99380478970496</v>
+        <v>41.91831138507146</v>
       </c>
       <c r="N10">
-        <v>9.698801543902681</v>
+        <v>21.20326316359052</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.245355010630288</v>
+        <v>4.130717133528279</v>
       </c>
       <c r="D11">
-        <v>11.29461874783552</v>
+        <v>5.159986148599069</v>
       </c>
       <c r="E11">
-        <v>6.359152104027413</v>
+        <v>6.087038706803679</v>
       </c>
       <c r="F11">
-        <v>91.7928307557892</v>
+        <v>49.87652484909</v>
       </c>
       <c r="G11">
-        <v>1.892988522170297</v>
+        <v>77.9699752448885</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>19.72597507770139</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36.34146236420257</v>
       </c>
       <c r="J11">
-        <v>5.299064866216882</v>
+        <v>4.664027939619619</v>
       </c>
       <c r="K11">
-        <v>76.23913720260819</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.401623083120812</v>
+        <v>4.95431215251564</v>
       </c>
       <c r="M11">
-        <v>49.51886265290435</v>
+        <v>43.45443204981991</v>
       </c>
       <c r="N11">
-        <v>9.081309007677586</v>
+        <v>21.72724734169974</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.28859354278091</v>
+        <v>4.13534905518439</v>
       </c>
       <c r="D12">
-        <v>11.57916245861609</v>
+        <v>5.204988902383042</v>
       </c>
       <c r="E12">
-        <v>6.413515465219476</v>
+        <v>6.071849648999994</v>
       </c>
       <c r="F12">
-        <v>93.66959654829937</v>
+        <v>50.50261528160201</v>
       </c>
       <c r="G12">
-        <v>1.876954010970709</v>
+        <v>79.04651925574396</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>19.94187643936088</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.78073339554737</v>
       </c>
       <c r="J12">
-        <v>5.250486655930213</v>
+        <v>4.631519747771707</v>
       </c>
       <c r="K12">
-        <v>77.77674659902793</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.489281622578631</v>
+        <v>4.935329510902141</v>
       </c>
       <c r="M12">
-        <v>50.52263615151412</v>
+        <v>44.02575614083783</v>
       </c>
       <c r="N12">
-        <v>8.82928095517765</v>
+        <v>21.92326277094525</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.279025582712613</v>
+        <v>4.134337433587838</v>
       </c>
       <c r="D13">
-        <v>11.51689529787</v>
+        <v>5.195291860724965</v>
       </c>
       <c r="E13">
-        <v>6.401553428597749</v>
+        <v>6.075112333436737</v>
       </c>
       <c r="F13">
-        <v>93.25819768098272</v>
+        <v>50.36764686163877</v>
       </c>
       <c r="G13">
-        <v>1.880472318519243</v>
+        <v>78.81465792027932</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>19.8952828279402</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.68600652020581</v>
       </c>
       <c r="J13">
-        <v>5.261018892182396</v>
+        <v>4.638523737164221</v>
       </c>
       <c r="K13">
-        <v>77.44142669461758</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.470091800186932</v>
+        <v>4.93941615645666</v>
       </c>
       <c r="M13">
-        <v>50.3037862711476</v>
+        <v>43.90316534270335</v>
       </c>
       <c r="N13">
-        <v>8.884550133331656</v>
+        <v>21.88115561961947</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.248801192512027</v>
+        <v>4.131091945355565</v>
       </c>
       <c r="D14">
-        <v>11.317604760426</v>
+        <v>5.163686479440837</v>
       </c>
       <c r="E14">
-        <v>6.363515189210246</v>
+        <v>6.085785237852464</v>
       </c>
       <c r="F14">
-        <v>91.94412358677131</v>
+        <v>49.92797688990889</v>
       </c>
       <c r="G14">
-        <v>1.891697343789171</v>
+        <v>78.0585415484709</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>19.74369486100279</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>36.37754731272777</v>
       </c>
       <c r="J14">
-        <v>5.295098454490437</v>
+        <v>4.661354636037665</v>
       </c>
       <c r="K14">
-        <v>76.36385012843101</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.408700950503089</v>
+        <v>4.952749677727446</v>
       </c>
       <c r="M14">
-        <v>49.6002997007864</v>
+        <v>43.50164051439216</v>
       </c>
       <c r="N14">
-        <v>9.061001566347977</v>
+        <v>21.74342233263944</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.230988982992652</v>
+        <v>4.129144281058791</v>
       </c>
       <c r="D15">
-        <v>11.19818429282</v>
+        <v>5.144340060363719</v>
       </c>
       <c r="E15">
-        <v>6.340902000851982</v>
+        <v>6.092347771302624</v>
       </c>
       <c r="F15">
-        <v>91.15874876426606</v>
+        <v>49.65902940212914</v>
       </c>
       <c r="G15">
-        <v>1.898397516541818</v>
+        <v>77.59539806512359</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>19.65111714031408</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.18895471773327</v>
       </c>
       <c r="J15">
-        <v>5.315784319233367</v>
+        <v>4.675332077967131</v>
       </c>
       <c r="K15">
-        <v>75.71496542838483</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.371936002969949</v>
+        <v>4.960921987293977</v>
       </c>
       <c r="M15">
-        <v>49.17653667064908</v>
+        <v>43.2543575187141</v>
       </c>
       <c r="N15">
-        <v>9.166403359358178</v>
+        <v>21.65874094964552</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.137965106316464</v>
+        <v>4.118564699570613</v>
       </c>
       <c r="D16">
-        <v>10.54618900025532</v>
+        <v>5.033606095331756</v>
       </c>
       <c r="E16">
-        <v>6.219830623627958</v>
+        <v>6.130340866027787</v>
       </c>
       <c r="F16">
-        <v>86.9026036108051</v>
+        <v>48.12281827132575</v>
       </c>
       <c r="G16">
-        <v>1.934625811477714</v>
+        <v>74.94030135302106</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>19.1245930766834</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>35.11314687388178</v>
       </c>
       <c r="J16">
-        <v>5.432014655231804</v>
+        <v>4.755362373801477</v>
       </c>
       <c r="K16">
-        <v>72.1308623477799</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.171580212807295</v>
+        <v>5.007851624884197</v>
       </c>
       <c r="M16">
-        <v>46.83390976002622</v>
+        <v>41.81644727295271</v>
       </c>
       <c r="N16">
-        <v>9.737114123852908</v>
+        <v>21.16868755032297</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.0875671604394</v>
+        <v>4.1125573557101</v>
       </c>
       <c r="D17">
-        <v>10.16828954107662</v>
+        <v>4.96572943385137</v>
       </c>
       <c r="E17">
-        <v>6.15151840965421</v>
+        <v>6.153994624437526</v>
       </c>
       <c r="F17">
-        <v>84.5920438324124</v>
+        <v>47.18435974274886</v>
       </c>
       <c r="G17">
-        <v>1.955345761685561</v>
+        <v>73.30961534594316</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>18.80496367382377</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.4572128790873</v>
       </c>
       <c r="J17">
-        <v>5.501746124232136</v>
+        <v>4.8044389154044</v>
       </c>
       <c r="K17">
-        <v>70.02194272882791</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.05581550459352</v>
+        <v>5.036747567841437</v>
       </c>
       <c r="M17">
-        <v>45.45388094578874</v>
+        <v>40.91540655666468</v>
       </c>
       <c r="N17">
-        <v>10.06391048321262</v>
+        <v>20.86386517911907</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.060599898387628</v>
+        <v>4.109266268551102</v>
       </c>
       <c r="D18">
-        <v>9.9569912869487</v>
+        <v>4.926685946973871</v>
       </c>
       <c r="E18">
-        <v>6.113924851424611</v>
+        <v>6.167727693772232</v>
       </c>
       <c r="F18">
-        <v>83.32291298305827</v>
+        <v>46.64585991667808</v>
       </c>
       <c r="G18">
-        <v>1.96684039966607</v>
+        <v>72.37066331737446</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>18.62229481824813</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.08129552607929</v>
       </c>
       <c r="J18">
-        <v>5.541428969890186</v>
+        <v>4.832675015010116</v>
       </c>
       <c r="K18">
-        <v>68.8328565321429</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.991232661500471</v>
+        <v>5.05341395816119</v>
       </c>
       <c r="M18">
-        <v>44.67522650102389</v>
+        <v>40.39006758284192</v>
       </c>
       <c r="N18">
-        <v>10.24525031308449</v>
+        <v>20.68703154288509</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.051784059774343</v>
+        <v>4.108178991176962</v>
       </c>
       <c r="D19">
-        <v>9.886338516432973</v>
+        <v>4.913464065794541</v>
       </c>
       <c r="E19">
-        <v>6.101451729950952</v>
+        <v>6.172399550381238</v>
       </c>
       <c r="F19">
-        <v>82.90097962071169</v>
+        <v>46.46373810460563</v>
       </c>
       <c r="G19">
-        <v>1.970669271443734</v>
+        <v>72.05254654533356</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>18.56064232951358</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.9542395473575</v>
       </c>
       <c r="J19">
-        <v>5.554803567568099</v>
+        <v>4.842238158535519</v>
       </c>
       <c r="K19">
-        <v>68.43368874806184</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.96966390464182</v>
+        <v>5.059065496559668</v>
       </c>
       <c r="M19">
-        <v>44.41374770377815</v>
+        <v>40.210968653832</v>
       </c>
       <c r="N19">
-        <v>10.30565506716782</v>
+        <v>20.62690305950797</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.092714924385071</v>
+        <v>4.113179572539925</v>
       </c>
       <c r="D20">
-        <v>10.20785222729346</v>
+        <v>4.972954810909286</v>
       </c>
       <c r="E20">
-        <v>6.158605506642668</v>
+        <v>6.151463407722173</v>
       </c>
       <c r="F20">
-        <v>84.83084095729146</v>
+        <v>47.28412456819036</v>
       </c>
       <c r="G20">
-        <v>1.953186284735605</v>
+        <v>73.48330383286073</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>18.83886595331234</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.52689504816244</v>
       </c>
       <c r="J20">
-        <v>5.494369973516855</v>
+        <v>4.799214087347801</v>
       </c>
       <c r="K20">
-        <v>70.24379732528743</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.067920063448979</v>
+        <v>5.033666919308573</v>
       </c>
       <c r="M20">
-        <v>45.59911504641429</v>
+        <v>41.01205430121224</v>
       </c>
       <c r="N20">
-        <v>10.02984437719779</v>
+        <v>20.89647087254792</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.257527896371016</v>
+        <v>4.132036737466223</v>
       </c>
       <c r="D21">
-        <v>11.37556512756523</v>
+        <v>5.172966920540693</v>
       </c>
       <c r="E21">
-        <v>6.374539159025295</v>
+        <v>6.082645125816434</v>
       </c>
       <c r="F21">
-        <v>92.32587112788688</v>
+        <v>50.05704154494934</v>
       </c>
       <c r="G21">
-        <v>1.888438343922376</v>
+        <v>78.28062876578893</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>19.78816223912237</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>36.46807582450801</v>
       </c>
       <c r="J21">
-        <v>5.285129460863982</v>
+        <v>4.654650236932265</v>
       </c>
       <c r="K21">
-        <v>76.67792928777453</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.426550904561076</v>
+        <v>4.948832273595785</v>
       </c>
       <c r="M21">
-        <v>49.8053744010423</v>
+        <v>43.61985598898278</v>
       </c>
       <c r="N21">
-        <v>9.009754167972709</v>
+        <v>21.78394388085623</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.395596901289668</v>
+        <v>4.146127331204442</v>
       </c>
       <c r="D22">
-        <v>12.25255528852888</v>
+        <v>5.304194566835034</v>
       </c>
       <c r="E22">
-        <v>6.545236911327732</v>
+        <v>6.038792689952058</v>
       </c>
       <c r="F22">
-        <v>98.13982743943988</v>
+        <v>51.88503602862967</v>
       </c>
       <c r="G22">
-        <v>1.838573820659166</v>
+        <v>81.44568343567207</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>20.42066504693102</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.75194032974809</v>
       </c>
       <c r="J22">
-        <v>5.140295978978898</v>
+        <v>4.559893137553781</v>
       </c>
       <c r="K22">
-        <v>81.36122795083236</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.697014073732549</v>
+        <v>4.893638003899768</v>
       </c>
       <c r="M22">
-        <v>52.86028252189391</v>
+        <v>45.26399138748248</v>
       </c>
       <c r="N22">
-        <v>8.227707668114563</v>
+        <v>22.34990720943215</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.318181789783779</v>
+        <v>4.138428604806596</v>
       </c>
       <c r="D23">
-        <v>11.76940754746489</v>
+        <v>5.234079655402827</v>
       </c>
       <c r="E23">
-        <v>6.450291116474394</v>
+        <v>6.062095337077853</v>
       </c>
       <c r="F23">
-        <v>94.92878743203701</v>
+        <v>50.90769933544564</v>
       </c>
       <c r="G23">
-        <v>1.866172043688606</v>
+        <v>79.7428527753909</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>20.08188392870682</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>37.06514194851471</v>
       </c>
       <c r="J23">
-        <v>5.218657789998824</v>
+        <v>4.610510753258298</v>
       </c>
       <c r="K23">
-        <v>78.79721181172083</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.547934854857545</v>
+        <v>4.923081879881667</v>
       </c>
       <c r="M23">
-        <v>51.18847566717024</v>
+        <v>44.39184228914595</v>
       </c>
       <c r="N23">
-        <v>8.660025570469394</v>
+        <v>22.0491531221736</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.090381466654771</v>
+        <v>4.112897764884059</v>
       </c>
       <c r="D24">
-        <v>10.18994783704789</v>
+        <v>4.969688286450802</v>
       </c>
       <c r="E24">
-        <v>6.155396309289938</v>
+        <v>6.152607352558783</v>
       </c>
       <c r="F24">
-        <v>84.72272697991062</v>
+        <v>47.23901771631737</v>
       </c>
       <c r="G24">
-        <v>1.954163855148465</v>
+        <v>73.40478386006689</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>18.82353535236921</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.49538806920769</v>
       </c>
       <c r="J24">
-        <v>5.497705963046186</v>
+        <v>4.801576161954375</v>
       </c>
       <c r="K24">
-        <v>70.14342617380727</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.062441592795723</v>
+        <v>5.035059511466657</v>
       </c>
       <c r="M24">
-        <v>45.53341012969743</v>
+        <v>40.96838268185902</v>
       </c>
       <c r="N24">
-        <v>10.0452655905004</v>
+        <v>20.88173477474803</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.921935140378566</v>
+        <v>4.091529593070682</v>
       </c>
       <c r="D25">
-        <v>8.719272227402723</v>
+        <v>4.684242317619107</v>
       </c>
       <c r="E25">
-        <v>5.902638901916062</v>
+        <v>6.255148482386484</v>
       </c>
       <c r="F25">
-        <v>76.13741118640539</v>
+        <v>43.33009888512848</v>
       </c>
       <c r="G25">
-        <v>2.032836757457215</v>
+        <v>66.52890560767096</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>17.51081628246632</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.77508815137011</v>
       </c>
       <c r="J25">
-        <v>5.782579079420323</v>
+        <v>5.008144012049748</v>
       </c>
       <c r="K25">
-        <v>61.75027291170396</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.615784232286266</v>
+        <v>5.157679364561933</v>
       </c>
       <c r="M25">
-        <v>40.40639750035106</v>
+        <v>37.20196978427506</v>
       </c>
       <c r="N25">
-        <v>11.28529015247314</v>
+        <v>19.56544457742725</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.079877461567881</v>
+        <v>6.820912598721751</v>
       </c>
       <c r="D2">
-        <v>4.471846776895117</v>
+        <v>5.70151577176208</v>
       </c>
       <c r="E2">
-        <v>6.334992510732378</v>
+        <v>11.08340569134277</v>
       </c>
       <c r="F2">
-        <v>40.48185147725252</v>
+        <v>48.71888702128586</v>
       </c>
       <c r="G2">
-        <v>61.40750206858432</v>
+        <v>63.53804066105725</v>
       </c>
       <c r="H2">
-        <v>16.57771168102702</v>
+        <v>22.46658599470801</v>
       </c>
       <c r="I2">
-        <v>29.80807009506529</v>
+        <v>37.36823565528921</v>
       </c>
       <c r="J2">
-        <v>5.162213875179207</v>
+        <v>9.865134272908122</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.250266726374385</v>
+        <v>9.465304517862631</v>
       </c>
       <c r="M2">
-        <v>34.31733720490792</v>
+        <v>30.84481856938868</v>
       </c>
       <c r="N2">
-        <v>18.55190062592674</v>
+        <v>17.52634659968407</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.074057167940789</v>
+        <v>6.826459800416182</v>
       </c>
       <c r="D3">
-        <v>4.325858487654463</v>
+        <v>5.666067956587002</v>
       </c>
       <c r="E3">
-        <v>6.391877383583481</v>
+        <v>11.10840268998274</v>
       </c>
       <c r="F3">
-        <v>38.56961872405756</v>
+        <v>48.58106236823549</v>
       </c>
       <c r="G3">
-        <v>57.89753292036698</v>
+        <v>63.07106968057143</v>
       </c>
       <c r="H3">
-        <v>15.96529904396836</v>
+        <v>22.45622469797813</v>
       </c>
       <c r="I3">
-        <v>28.4967532007155</v>
+        <v>37.29707625788979</v>
       </c>
       <c r="J3">
-        <v>5.268511414561992</v>
+        <v>9.899902076866796</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.314753722966102</v>
+        <v>9.488614189692694</v>
       </c>
       <c r="M3">
-        <v>32.23732258161164</v>
+        <v>30.21168592982617</v>
       </c>
       <c r="N3">
-        <v>17.84056999585586</v>
+        <v>17.3076605741715</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.071381828780135</v>
+        <v>6.830163008576514</v>
       </c>
       <c r="D4">
-        <v>4.235072055993148</v>
+        <v>5.643824383140236</v>
       </c>
       <c r="E4">
-        <v>6.428194231818788</v>
+        <v>11.12459823832196</v>
       </c>
       <c r="F4">
-        <v>37.40553849291659</v>
+        <v>48.51139695660602</v>
       </c>
       <c r="G4">
-        <v>55.72490409968739</v>
+        <v>62.80540223011759</v>
       </c>
       <c r="H4">
-        <v>15.59915769434983</v>
+        <v>22.45579872348409</v>
       </c>
       <c r="I4">
-        <v>27.70296512981376</v>
+        <v>37.2643849442028</v>
       </c>
       <c r="J4">
-        <v>5.334893004336772</v>
+        <v>9.92224022619502</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.355293951030772</v>
+        <v>9.503636415162136</v>
       </c>
       <c r="M4">
-        <v>30.89909487831208</v>
+        <v>29.81874467176163</v>
       </c>
       <c r="N4">
-        <v>17.39311435516865</v>
+        <v>17.17419911573255</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.070501234044394</v>
+        <v>6.831746882843774</v>
       </c>
       <c r="D5">
-        <v>4.197773506709463</v>
+        <v>5.634640923975969</v>
       </c>
       <c r="E5">
-        <v>6.443345945311692</v>
+        <v>11.13141171062487</v>
       </c>
       <c r="F5">
-        <v>36.93399026741635</v>
+        <v>48.48677523525924</v>
       </c>
       <c r="G5">
-        <v>54.83570259728184</v>
+        <v>62.70251844644347</v>
       </c>
       <c r="H5">
-        <v>15.45247089472969</v>
+        <v>22.45711421108927</v>
       </c>
       <c r="I5">
-        <v>27.38252368166081</v>
+        <v>37.25382830052191</v>
       </c>
       <c r="J5">
-        <v>5.362249042938599</v>
+        <v>9.931593192214077</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.372063626100024</v>
+        <v>9.509937218758703</v>
       </c>
       <c r="M5">
-        <v>30.33857592440048</v>
+        <v>29.65776032650312</v>
       </c>
       <c r="N5">
-        <v>17.20832056025158</v>
+        <v>17.12007578858776</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.070367233963466</v>
+        <v>6.832014402483477</v>
       </c>
       <c r="D6">
-        <v>4.191561567503332</v>
+        <v>5.633108866592345</v>
       </c>
       <c r="E6">
-        <v>6.445883239104562</v>
+        <v>11.13255600426192</v>
       </c>
       <c r="F6">
-        <v>36.85587125449216</v>
+        <v>48.48291444191224</v>
       </c>
       <c r="G6">
-        <v>54.68784084922891</v>
+        <v>62.68576169533245</v>
       </c>
       <c r="H6">
-        <v>15.42826709101283</v>
+        <v>22.45742245916151</v>
       </c>
       <c r="I6">
-        <v>27.3295040730315</v>
+        <v>37.25224231364644</v>
       </c>
       <c r="J6">
-        <v>5.366810597367843</v>
+        <v>9.933161370179585</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.374863589752826</v>
+        <v>9.510994298427688</v>
       </c>
       <c r="M6">
-        <v>30.24459236192151</v>
+        <v>29.63098309944927</v>
       </c>
       <c r="N6">
-        <v>17.17749512195611</v>
+        <v>17.11110627571253</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.07136912408114</v>
+        <v>6.83018406637613</v>
       </c>
       <c r="D7">
-        <v>4.234570272440026</v>
+        <v>5.643701012018192</v>
       </c>
       <c r="E7">
-        <v>6.428397142794331</v>
+        <v>11.12468926131151</v>
       </c>
       <c r="F7">
-        <v>37.39916712606361</v>
+        <v>48.51104964070982</v>
       </c>
       <c r="G7">
-        <v>55.71292663004937</v>
+        <v>62.80399282675431</v>
       </c>
       <c r="H7">
-        <v>15.59716916950703</v>
+        <v>22.45581044081066</v>
       </c>
       <c r="I7">
-        <v>27.69863098706828</v>
+        <v>37.26423138015738</v>
       </c>
       <c r="J7">
-        <v>5.335260671302304</v>
+        <v>9.922365350167874</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.355519089089867</v>
+        <v>9.503720663942525</v>
       </c>
       <c r="M7">
-        <v>30.89159668423708</v>
+        <v>29.81657678727797</v>
       </c>
       <c r="N7">
-        <v>17.39063175370091</v>
+        <v>17.17346804565996</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.077673734099728</v>
+        <v>6.822763620352496</v>
       </c>
       <c r="D8">
-        <v>4.421738508791108</v>
+        <v>5.689393443770365</v>
       </c>
       <c r="E8">
-        <v>6.354319864526796</v>
+        <v>11.09184916181768</v>
       </c>
       <c r="F8">
-        <v>39.82057674147158</v>
+        <v>48.66826513496307</v>
       </c>
       <c r="G8">
-        <v>60.20115231871854</v>
+        <v>63.37271275315851</v>
       </c>
       <c r="H8">
-        <v>16.36451464894941</v>
+        <v>22.46177958391948</v>
       </c>
       <c r="I8">
-        <v>29.35365463785512</v>
+        <v>37.34141696631151</v>
       </c>
       <c r="J8">
-        <v>5.198649570488334</v>
+        <v>9.876917162274077</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.272313014891308</v>
+        <v>9.473194691286066</v>
       </c>
       <c r="M8">
-        <v>33.61290957282246</v>
+        <v>30.62750139315782</v>
       </c>
       <c r="N8">
-        <v>18.30898703995323</v>
+        <v>17.45081035075837</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.098022095206737</v>
+        <v>6.810568131364006</v>
       </c>
       <c r="D9">
-        <v>4.780630791104504</v>
+        <v>5.775145070943776</v>
       </c>
       <c r="E9">
-        <v>6.219941071382853</v>
+        <v>11.03414536228465</v>
       </c>
       <c r="F9">
-        <v>44.64175396462827</v>
+        <v>49.09479461685689</v>
       </c>
       <c r="G9">
-        <v>68.85318713819954</v>
+        <v>64.65082242231557</v>
       </c>
       <c r="H9">
-        <v>17.94759414921784</v>
+        <v>22.52069972844828</v>
       </c>
       <c r="I9">
-        <v>32.68552246747759</v>
+        <v>37.57998035778463</v>
       </c>
       <c r="J9">
-        <v>4.938349786642362</v>
+        <v>9.795611500614854</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.116061151225638</v>
+        <v>9.418939559694675</v>
       </c>
       <c r="M9">
-        <v>38.46105161080982</v>
+        <v>32.17614066687347</v>
       </c>
       <c r="N9">
-        <v>20.01609608434405</v>
+        <v>17.99854515740062</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.119273356559018</v>
+        <v>6.803041603652122</v>
       </c>
       <c r="D10">
-        <v>5.041352527988117</v>
+        <v>5.83572929195931</v>
       </c>
       <c r="E10">
-        <v>6.127659098344613</v>
+        <v>10.99579376500471</v>
       </c>
       <c r="F10">
-        <v>48.23008790760607</v>
+        <v>49.47931608217024</v>
       </c>
       <c r="G10">
-        <v>75.12625813653361</v>
+        <v>65.68278685169965</v>
       </c>
       <c r="H10">
-        <v>19.16122859866429</v>
+        <v>22.59286754131061</v>
       </c>
       <c r="I10">
-        <v>35.18818609701646</v>
+        <v>37.80812097845305</v>
       </c>
       <c r="J10">
-        <v>4.749762448448449</v>
+        <v>9.740583108451869</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.004560148119546</v>
+        <v>9.382457431863452</v>
       </c>
       <c r="M10">
-        <v>41.91831138507146</v>
+        <v>33.27807037803947</v>
       </c>
       <c r="N10">
-        <v>21.20326316359052</v>
+        <v>18.39990522103325</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.130717133528279</v>
+        <v>6.799928329260833</v>
       </c>
       <c r="D11">
-        <v>5.159986148599069</v>
+        <v>5.862751079188586</v>
       </c>
       <c r="E11">
-        <v>6.087038706803679</v>
+        <v>10.97921641675754</v>
       </c>
       <c r="F11">
-        <v>49.87652484909</v>
+        <v>49.66940076567146</v>
       </c>
       <c r="G11">
-        <v>77.9699752448885</v>
+        <v>66.17089854113502</v>
       </c>
       <c r="H11">
-        <v>19.72597507770139</v>
+        <v>22.63196735109986</v>
       </c>
       <c r="I11">
-        <v>36.34146236420257</v>
+        <v>37.9232647356522</v>
       </c>
       <c r="J11">
-        <v>4.664027939619619</v>
+        <v>9.716558575998475</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>4.95431215251564</v>
+        <v>9.366586234327405</v>
       </c>
       <c r="M11">
-        <v>43.45443204981991</v>
+        <v>33.76954615582107</v>
       </c>
       <c r="N11">
-        <v>21.72724734169974</v>
+        <v>18.58155763467967</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.13534905518439</v>
+        <v>6.798794037504333</v>
       </c>
       <c r="D12">
-        <v>5.204988902383042</v>
+        <v>5.872904810331963</v>
       </c>
       <c r="E12">
-        <v>6.071849648999994</v>
+        <v>10.97306334397866</v>
       </c>
       <c r="F12">
-        <v>50.50261528160201</v>
+        <v>49.74352947077031</v>
       </c>
       <c r="G12">
-        <v>79.04651925574396</v>
+        <v>66.35827794765703</v>
       </c>
       <c r="H12">
-        <v>19.94187643936088</v>
+        <v>22.64767292315524</v>
       </c>
       <c r="I12">
-        <v>36.78073339554737</v>
+        <v>37.96848524355649</v>
       </c>
       <c r="J12">
-        <v>4.631519747771707</v>
+        <v>9.707605116611363</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4.935329510902141</v>
+        <v>9.360679808812925</v>
       </c>
       <c r="M12">
-        <v>44.02575614083783</v>
+        <v>33.95409034013471</v>
       </c>
       <c r="N12">
-        <v>21.92326277094525</v>
+        <v>18.65015397479865</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.134337433587838</v>
+        <v>6.799036342607844</v>
       </c>
       <c r="D13">
-        <v>5.195291860724965</v>
+        <v>5.870721551408784</v>
       </c>
       <c r="E13">
-        <v>6.075112333436737</v>
+        <v>10.9743829938831</v>
       </c>
       <c r="F13">
-        <v>50.36764686163877</v>
+        <v>49.72746957253627</v>
       </c>
       <c r="G13">
-        <v>78.81465792027932</v>
+        <v>66.31781170077053</v>
       </c>
       <c r="H13">
-        <v>19.8952828279402</v>
+        <v>22.64425049876795</v>
       </c>
       <c r="I13">
-        <v>36.68600652020581</v>
+        <v>37.95867451381095</v>
       </c>
       <c r="J13">
-        <v>4.638523737164221</v>
+        <v>9.70952700868461</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>4.93941615645666</v>
+        <v>9.36194726213578</v>
       </c>
       <c r="M13">
-        <v>43.90316534270335</v>
+        <v>33.91441754689875</v>
       </c>
       <c r="N13">
-        <v>21.88115561961947</v>
+        <v>18.63538994658063</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.131091945355565</v>
+        <v>6.79983411591436</v>
       </c>
       <c r="D14">
-        <v>5.163686479440837</v>
+        <v>5.8635880208317</v>
       </c>
       <c r="E14">
-        <v>6.085785237852464</v>
+        <v>10.97870770955111</v>
       </c>
       <c r="F14">
-        <v>49.92797688990889</v>
+        <v>49.67545653742591</v>
       </c>
       <c r="G14">
-        <v>78.0585415484709</v>
+        <v>66.18626424399258</v>
       </c>
       <c r="H14">
-        <v>19.74369486100279</v>
+        <v>22.63324145162224</v>
       </c>
       <c r="I14">
-        <v>36.37754731272777</v>
+        <v>37.92695272549113</v>
       </c>
       <c r="J14">
-        <v>4.661354636037665</v>
+        <v>9.715819086271329</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>4.952749677727446</v>
+        <v>9.366098234993235</v>
       </c>
       <c r="M14">
-        <v>43.50164051439216</v>
+        <v>33.78476099049762</v>
       </c>
       <c r="N14">
-        <v>21.74342233263944</v>
+        <v>18.58720526045361</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.129144281058791</v>
+        <v>6.800328587593511</v>
       </c>
       <c r="D15">
-        <v>5.144340060363719</v>
+        <v>5.859208218778912</v>
       </c>
       <c r="E15">
-        <v>6.092347771302624</v>
+        <v>10.98137290825112</v>
       </c>
       <c r="F15">
-        <v>49.65902940212914</v>
+        <v>49.64387570771344</v>
       </c>
       <c r="G15">
-        <v>77.59539806512359</v>
+        <v>66.10601437155439</v>
       </c>
       <c r="H15">
-        <v>19.65111714031408</v>
+        <v>22.6266151219959</v>
       </c>
       <c r="I15">
-        <v>36.18895471773327</v>
+        <v>37.90773242032546</v>
       </c>
       <c r="J15">
-        <v>4.675332077967131</v>
+        <v>9.719691907225386</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>4.960921987293977</v>
+        <v>9.368654307771555</v>
       </c>
       <c r="M15">
-        <v>43.2543575187141</v>
+        <v>33.70513402084433</v>
       </c>
       <c r="N15">
-        <v>21.65874094964552</v>
+        <v>18.55766412045284</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.118564699570613</v>
+        <v>6.803251311075771</v>
       </c>
       <c r="D16">
-        <v>5.033606095331756</v>
+        <v>5.83395240058711</v>
       </c>
       <c r="E16">
-        <v>6.130340866027787</v>
+        <v>10.99689457284532</v>
       </c>
       <c r="F16">
-        <v>48.12281827132575</v>
+        <v>49.46719603240226</v>
       </c>
       <c r="G16">
-        <v>74.94030135302106</v>
+        <v>65.6512512048276</v>
       </c>
       <c r="H16">
-        <v>19.1245930766834</v>
+        <v>22.59043827715989</v>
       </c>
       <c r="I16">
-        <v>35.11314687388178</v>
+        <v>37.80082340718272</v>
       </c>
       <c r="J16">
-        <v>4.755362373801477</v>
+        <v>9.742173381135544</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.007851624884197</v>
+        <v>9.383509187034669</v>
       </c>
       <c r="M16">
-        <v>41.81644727295271</v>
+        <v>33.24574036652477</v>
       </c>
       <c r="N16">
-        <v>21.16868755032297</v>
+        <v>18.3880101314955</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.1125573557101</v>
+        <v>6.805123837008312</v>
       </c>
       <c r="D17">
-        <v>4.96572943385137</v>
+        <v>5.818319887109121</v>
       </c>
       <c r="E17">
-        <v>6.153994624437526</v>
+        <v>11.0066387872661</v>
       </c>
       <c r="F17">
-        <v>47.18435974274886</v>
+        <v>49.36267065349339</v>
       </c>
       <c r="G17">
-        <v>73.30961534594316</v>
+        <v>65.3769503907188</v>
       </c>
       <c r="H17">
-        <v>18.80496367382377</v>
+        <v>22.56984962479294</v>
       </c>
       <c r="I17">
-        <v>34.4572128790873</v>
+        <v>37.73813786121409</v>
       </c>
       <c r="J17">
-        <v>4.8044389154044</v>
+        <v>9.756222636875696</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.036747567841437</v>
+        <v>9.392807390347452</v>
       </c>
       <c r="M17">
-        <v>40.91540655666468</v>
+        <v>32.9612919574645</v>
       </c>
       <c r="N17">
-        <v>20.86386517911907</v>
+        <v>18.28365333846401</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.109266268551102</v>
+        <v>6.806230098993963</v>
       </c>
       <c r="D18">
-        <v>4.926685946973871</v>
+        <v>5.809277898266369</v>
       </c>
       <c r="E18">
-        <v>6.167727693772232</v>
+        <v>11.01232522744682</v>
       </c>
       <c r="F18">
-        <v>46.64585991667808</v>
+        <v>49.3039799644363</v>
       </c>
       <c r="G18">
-        <v>72.37066331737446</v>
+        <v>65.22094566092967</v>
       </c>
       <c r="H18">
-        <v>18.62229481824813</v>
+        <v>22.55859798008931</v>
       </c>
       <c r="I18">
-        <v>34.08129552607929</v>
+        <v>37.70315330859872</v>
       </c>
       <c r="J18">
-        <v>4.832675015010116</v>
+        <v>9.764398341403972</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.05341395816119</v>
+        <v>9.398223717022919</v>
       </c>
       <c r="M18">
-        <v>40.39006758284192</v>
+        <v>32.79677134956395</v>
       </c>
       <c r="N18">
-        <v>20.68703154288509</v>
+        <v>18.22354606344534</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.108178991176962</v>
+        <v>6.806609682120104</v>
       </c>
       <c r="D19">
-        <v>4.913464065794541</v>
+        <v>5.806207792729136</v>
       </c>
       <c r="E19">
-        <v>6.172399550381238</v>
+        <v>11.01426462882629</v>
       </c>
       <c r="F19">
-        <v>46.46373810460563</v>
+        <v>49.28435475995941</v>
       </c>
       <c r="G19">
-        <v>72.05254654533356</v>
+        <v>65.16843265407546</v>
       </c>
       <c r="H19">
-        <v>18.56064232951358</v>
+        <v>22.5548898215798</v>
       </c>
       <c r="I19">
-        <v>33.9542395473575</v>
+        <v>37.69149243395042</v>
       </c>
       <c r="J19">
-        <v>4.842238158535519</v>
+        <v>9.767182827517757</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.059065496559668</v>
+        <v>9.400069330546188</v>
       </c>
       <c r="M19">
-        <v>40.210968653832</v>
+        <v>32.74091561271748</v>
       </c>
       <c r="N19">
-        <v>20.62690305950797</v>
+        <v>18.20318213984744</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.113179572539925</v>
+        <v>6.804921477934998</v>
       </c>
       <c r="D20">
-        <v>4.972954810909286</v>
+        <v>5.819989240143833</v>
       </c>
       <c r="E20">
-        <v>6.151463407722173</v>
+        <v>11.00559303434489</v>
       </c>
       <c r="F20">
-        <v>47.28412456819036</v>
+        <v>49.37364983017483</v>
       </c>
       <c r="G20">
-        <v>73.48330383286073</v>
+        <v>65.40596843274298</v>
       </c>
       <c r="H20">
-        <v>18.83886595331234</v>
+        <v>22.57198023084534</v>
       </c>
       <c r="I20">
-        <v>34.52689504816244</v>
+        <v>37.74470015508221</v>
       </c>
       <c r="J20">
-        <v>4.799214087347801</v>
+        <v>9.754717249507539</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.033666919308573</v>
+        <v>9.391810521581995</v>
       </c>
       <c r="M20">
-        <v>41.01205430121224</v>
+        <v>32.99166768962334</v>
       </c>
       <c r="N20">
-        <v>20.89647087254792</v>
+        <v>18.29477141738903</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.132036737466223</v>
+        <v>6.799598579277359</v>
       </c>
       <c r="D21">
-        <v>5.172966920540693</v>
+        <v>5.865685462518474</v>
       </c>
       <c r="E21">
-        <v>6.082645125816434</v>
+        <v>10.97743406366391</v>
       </c>
       <c r="F21">
-        <v>50.05704154494934</v>
+        <v>49.69067601934441</v>
       </c>
       <c r="G21">
-        <v>78.28062876578893</v>
+        <v>66.22483508905717</v>
       </c>
       <c r="H21">
-        <v>19.78816223912237</v>
+        <v>22.63645069249591</v>
       </c>
       <c r="I21">
-        <v>36.46807582450801</v>
+        <v>37.93622640880138</v>
       </c>
       <c r="J21">
-        <v>4.654650236932265</v>
+        <v>9.713967046332691</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>4.948832273595785</v>
+        <v>9.364876184992037</v>
       </c>
       <c r="M21">
-        <v>43.61985598898278</v>
+        <v>33.82288800025386</v>
       </c>
       <c r="N21">
-        <v>21.78394388085623</v>
+        <v>18.60136392110622</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.146127331204442</v>
+        <v>6.79637993083186</v>
       </c>
       <c r="D22">
-        <v>5.304194566835034</v>
+        <v>5.895090432554804</v>
       </c>
       <c r="E22">
-        <v>6.038792689952058</v>
+        <v>10.95975544747198</v>
       </c>
       <c r="F22">
-        <v>51.88503602862967</v>
+        <v>49.91037160819531</v>
       </c>
       <c r="G22">
-        <v>81.44568343567207</v>
+        <v>66.7747594578408</v>
       </c>
       <c r="H22">
-        <v>20.42066504693102</v>
+        <v>22.68382592866351</v>
       </c>
       <c r="I22">
-        <v>37.75194032974809</v>
+        <v>38.07082197592731</v>
       </c>
       <c r="J22">
-        <v>4.559893137553781</v>
+        <v>9.688174014819399</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.893638003899768</v>
+        <v>9.347876946864348</v>
       </c>
       <c r="M22">
-        <v>45.26399138748248</v>
+        <v>34.3569388567926</v>
       </c>
       <c r="N22">
-        <v>22.34990720943215</v>
+        <v>18.80059810624113</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.138428604806596</v>
+        <v>6.798073985285363</v>
       </c>
       <c r="D23">
-        <v>5.234079655402827</v>
+        <v>5.879439019178558</v>
       </c>
       <c r="E23">
-        <v>6.062095337077853</v>
+        <v>10.96912471028126</v>
       </c>
       <c r="F23">
-        <v>50.90769933544564</v>
+        <v>49.79198404281194</v>
       </c>
       <c r="G23">
-        <v>79.7428527753909</v>
+        <v>66.47995339843914</v>
       </c>
       <c r="H23">
-        <v>20.08188392870682</v>
+        <v>22.65806247085082</v>
       </c>
       <c r="I23">
-        <v>37.06514194851471</v>
+        <v>37.99812957175075</v>
       </c>
       <c r="J23">
-        <v>4.610510753258298</v>
+        <v>9.701863703959859</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>4.923081879881667</v>
+        <v>9.35689468693398</v>
       </c>
       <c r="M23">
-        <v>44.39184228914595</v>
+        <v>34.0727971287791</v>
       </c>
       <c r="N23">
-        <v>22.0491531221736</v>
+        <v>18.69438623465513</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.112897764884059</v>
+        <v>6.805012871893378</v>
       </c>
       <c r="D24">
-        <v>4.969688286450802</v>
+        <v>5.819234695746534</v>
       </c>
       <c r="E24">
-        <v>6.152607352558783</v>
+        <v>11.00606555643146</v>
       </c>
       <c r="F24">
-        <v>47.23901771631737</v>
+        <v>49.36868177397253</v>
       </c>
       <c r="G24">
-        <v>73.40478386006689</v>
+        <v>65.39284408736795</v>
       </c>
       <c r="H24">
-        <v>18.82353535236921</v>
+        <v>22.57101516139763</v>
       </c>
       <c r="I24">
-        <v>34.49538806920769</v>
+        <v>37.7417300572607</v>
       </c>
       <c r="J24">
-        <v>4.801576161954375</v>
+        <v>9.755397527953503</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.035059511466657</v>
+        <v>9.392260985800375</v>
       </c>
       <c r="M24">
-        <v>40.96838268185902</v>
+        <v>32.97793788462007</v>
       </c>
       <c r="N24">
-        <v>20.88173477474803</v>
+        <v>18.28974527574188</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.091529593070682</v>
+        <v>6.813615404275901</v>
       </c>
       <c r="D25">
-        <v>4.684242317619107</v>
+        <v>5.752366471136473</v>
       </c>
       <c r="E25">
-        <v>6.255148482386484</v>
+        <v>11.04904294505682</v>
       </c>
       <c r="F25">
-        <v>43.33009888512848</v>
+        <v>48.96682674856959</v>
       </c>
       <c r="G25">
-        <v>66.52890560767096</v>
+        <v>64.28824301662884</v>
       </c>
       <c r="H25">
-        <v>17.51081628246632</v>
+        <v>22.49969136253206</v>
       </c>
       <c r="I25">
-        <v>31.77508815137011</v>
+        <v>37.50612555573295</v>
       </c>
       <c r="J25">
-        <v>5.008144012049748</v>
+        <v>9.816775985088277</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.157679364561933</v>
+        <v>9.433020821161159</v>
       </c>
       <c r="M25">
-        <v>37.20196978427506</v>
+        <v>31.76276497906785</v>
       </c>
       <c r="N25">
-        <v>19.56544457742725</v>
+        <v>17.85031052613873</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.820912598721751</v>
+        <v>4.079877461568146</v>
       </c>
       <c r="D2">
-        <v>5.70151577176208</v>
+        <v>4.47184677689524</v>
       </c>
       <c r="E2">
-        <v>11.08340569134277</v>
+        <v>6.334992510732445</v>
       </c>
       <c r="F2">
-        <v>48.71888702128586</v>
+        <v>40.48185147725238</v>
       </c>
       <c r="G2">
-        <v>63.53804066105725</v>
+        <v>61.40750206858423</v>
       </c>
       <c r="H2">
-        <v>22.46658599470801</v>
+        <v>16.57771168102696</v>
       </c>
       <c r="I2">
-        <v>37.36823565528921</v>
+        <v>29.80807009506517</v>
       </c>
       <c r="J2">
-        <v>9.865134272908122</v>
+        <v>5.162213875179175</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.465304517862631</v>
+        <v>5.250266726374316</v>
       </c>
       <c r="M2">
-        <v>30.84481856938868</v>
+        <v>34.31733720490789</v>
       </c>
       <c r="N2">
-        <v>17.52634659968407</v>
+        <v>18.55190062592674</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.826459800416182</v>
+        <v>4.07405716794079</v>
       </c>
       <c r="D3">
-        <v>5.666067956587002</v>
+        <v>4.325858487654212</v>
       </c>
       <c r="E3">
-        <v>11.10840268998274</v>
+        <v>6.391877383583415</v>
       </c>
       <c r="F3">
-        <v>48.58106236823549</v>
+        <v>38.56961872405758</v>
       </c>
       <c r="G3">
-        <v>63.07106968057143</v>
+        <v>57.89753292036694</v>
       </c>
       <c r="H3">
-        <v>22.45622469797813</v>
+        <v>15.9652990439684</v>
       </c>
       <c r="I3">
-        <v>37.29707625788979</v>
+        <v>28.49675320071554</v>
       </c>
       <c r="J3">
-        <v>9.899902076866796</v>
+        <v>5.268511414562024</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.488614189692694</v>
+        <v>5.314753722966068</v>
       </c>
       <c r="M3">
-        <v>30.21168592982617</v>
+        <v>32.23732258161164</v>
       </c>
       <c r="N3">
-        <v>17.3076605741715</v>
+        <v>17.84056999585587</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.830163008576514</v>
+        <v>4.071381828780002</v>
       </c>
       <c r="D4">
-        <v>5.643824383140236</v>
+        <v>4.235072055992898</v>
       </c>
       <c r="E4">
-        <v>11.12459823832196</v>
+        <v>6.428194231818654</v>
       </c>
       <c r="F4">
-        <v>48.51139695660602</v>
+        <v>37.40553849291652</v>
       </c>
       <c r="G4">
-        <v>62.80540223011759</v>
+        <v>55.72490409968738</v>
       </c>
       <c r="H4">
-        <v>22.45579872348409</v>
+        <v>15.59915769434979</v>
       </c>
       <c r="I4">
-        <v>37.2643849442028</v>
+        <v>27.70296512981371</v>
       </c>
       <c r="J4">
-        <v>9.92224022619502</v>
+        <v>5.334893004336837</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.503636415162136</v>
+        <v>5.355293951030737</v>
       </c>
       <c r="M4">
-        <v>29.81874467176163</v>
+        <v>30.89909487831205</v>
       </c>
       <c r="N4">
-        <v>17.17419911573255</v>
+        <v>17.39311435516868</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.831746882843774</v>
+        <v>4.070501234044391</v>
       </c>
       <c r="D5">
-        <v>5.634640923975969</v>
+        <v>4.19777350670933</v>
       </c>
       <c r="E5">
-        <v>11.13141171062487</v>
+        <v>6.443345945311623</v>
       </c>
       <c r="F5">
-        <v>48.48677523525924</v>
+        <v>36.93399026741637</v>
       </c>
       <c r="G5">
-        <v>62.70251844644347</v>
+        <v>54.83570259728181</v>
       </c>
       <c r="H5">
-        <v>22.45711421108927</v>
+        <v>15.45247089472978</v>
       </c>
       <c r="I5">
-        <v>37.25382830052191</v>
+        <v>27.38252368166085</v>
       </c>
       <c r="J5">
-        <v>9.931593192214077</v>
+        <v>5.362249042938598</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.509937218758703</v>
+        <v>5.37206362609999</v>
       </c>
       <c r="M5">
-        <v>29.65776032650312</v>
+        <v>30.3385759244005</v>
       </c>
       <c r="N5">
-        <v>17.12007578858776</v>
+        <v>17.20832056025156</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.832014402483477</v>
+        <v>4.070367233963736</v>
       </c>
       <c r="D6">
-        <v>5.633108866592345</v>
+        <v>4.191561567503276</v>
       </c>
       <c r="E6">
-        <v>11.13255600426192</v>
+        <v>6.44588323910463</v>
       </c>
       <c r="F6">
-        <v>48.48291444191224</v>
+        <v>36.85587125449216</v>
       </c>
       <c r="G6">
-        <v>62.68576169533245</v>
+        <v>54.68784084922898</v>
       </c>
       <c r="H6">
-        <v>22.45742245916151</v>
+        <v>15.42826709101282</v>
       </c>
       <c r="I6">
-        <v>37.25224231364644</v>
+        <v>27.32950407303155</v>
       </c>
       <c r="J6">
-        <v>9.933161370179585</v>
+        <v>5.366810597367877</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.510994298427688</v>
+        <v>5.374863589752758</v>
       </c>
       <c r="M6">
-        <v>29.63098309944927</v>
+        <v>30.24459236192151</v>
       </c>
       <c r="N6">
-        <v>17.11110627571253</v>
+        <v>17.17749512195612</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.83018406637613</v>
+        <v>4.07136912408127</v>
       </c>
       <c r="D7">
-        <v>5.643701012018192</v>
+        <v>4.234570272440076</v>
       </c>
       <c r="E7">
-        <v>11.12468926131151</v>
+        <v>6.42839714279433</v>
       </c>
       <c r="F7">
-        <v>48.51104964070982</v>
+        <v>37.3991671260636</v>
       </c>
       <c r="G7">
-        <v>62.80399282675431</v>
+        <v>55.71292663004931</v>
       </c>
       <c r="H7">
-        <v>22.45581044081066</v>
+        <v>15.59716916950704</v>
       </c>
       <c r="I7">
-        <v>37.26423138015738</v>
+        <v>27.69863098706824</v>
       </c>
       <c r="J7">
-        <v>9.922365350167874</v>
+        <v>5.335260671302238</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.503720663942525</v>
+        <v>5.355519089089934</v>
       </c>
       <c r="M7">
-        <v>29.81657678727797</v>
+        <v>30.89159668423708</v>
       </c>
       <c r="N7">
-        <v>17.17346804565996</v>
+        <v>17.39063175370089</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.822763620352496</v>
+        <v>4.077673734099996</v>
       </c>
       <c r="D8">
-        <v>5.689393443770365</v>
+        <v>4.421738508791408</v>
       </c>
       <c r="E8">
-        <v>11.09184916181768</v>
+        <v>6.354319864526929</v>
       </c>
       <c r="F8">
-        <v>48.66826513496307</v>
+        <v>39.82057674147151</v>
       </c>
       <c r="G8">
-        <v>63.37271275315851</v>
+        <v>60.20115231871846</v>
       </c>
       <c r="H8">
-        <v>22.46177958391948</v>
+        <v>16.36451464894934</v>
       </c>
       <c r="I8">
-        <v>37.34141696631151</v>
+        <v>29.35365463785508</v>
       </c>
       <c r="J8">
-        <v>9.876917162274077</v>
+        <v>5.198649570488334</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.473194691286066</v>
+        <v>5.272313014891409</v>
       </c>
       <c r="M8">
-        <v>30.62750139315782</v>
+        <v>33.61290957282244</v>
       </c>
       <c r="N8">
-        <v>17.45081035075837</v>
+        <v>18.30898703995323</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.810568131364006</v>
+        <v>4.098022095206601</v>
       </c>
       <c r="D9">
-        <v>5.775145070943776</v>
+        <v>4.780630791104516</v>
       </c>
       <c r="E9">
-        <v>11.03414536228465</v>
+        <v>6.219941071382785</v>
       </c>
       <c r="F9">
-        <v>49.09479461685689</v>
+        <v>44.64175396462827</v>
       </c>
       <c r="G9">
-        <v>64.65082242231557</v>
+        <v>68.85318713819959</v>
       </c>
       <c r="H9">
-        <v>22.52069972844828</v>
+        <v>17.94759414921784</v>
       </c>
       <c r="I9">
-        <v>37.57998035778463</v>
+        <v>32.68552246747759</v>
       </c>
       <c r="J9">
-        <v>9.795611500614854</v>
+        <v>4.938349786642329</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.418939559694675</v>
+        <v>5.116061151225638</v>
       </c>
       <c r="M9">
-        <v>32.17614066687347</v>
+        <v>38.46105161080981</v>
       </c>
       <c r="N9">
-        <v>17.99854515740062</v>
+        <v>20.01609608434405</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.803041603652122</v>
+        <v>4.119273356559153</v>
       </c>
       <c r="D10">
-        <v>5.83572929195931</v>
+        <v>5.041352527988317</v>
       </c>
       <c r="E10">
-        <v>10.99579376500471</v>
+        <v>6.127659098344612</v>
       </c>
       <c r="F10">
-        <v>49.47931608217024</v>
+        <v>48.23008790760611</v>
       </c>
       <c r="G10">
-        <v>65.68278685169965</v>
+        <v>75.12625813653374</v>
       </c>
       <c r="H10">
-        <v>22.59286754131061</v>
+        <v>19.16122859866429</v>
       </c>
       <c r="I10">
-        <v>37.80812097845305</v>
+        <v>35.18818609701648</v>
       </c>
       <c r="J10">
-        <v>9.740583108451869</v>
+        <v>4.749762448448386</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.382457431863452</v>
+        <v>5.004560148119546</v>
       </c>
       <c r="M10">
-        <v>33.27807037803947</v>
+        <v>41.91831138507152</v>
       </c>
       <c r="N10">
-        <v>18.39990522103325</v>
+        <v>21.20326316359053</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.799928329260833</v>
+        <v>4.130717133528411</v>
       </c>
       <c r="D11">
-        <v>5.862751079188586</v>
+        <v>5.15998614859897</v>
       </c>
       <c r="E11">
-        <v>10.97921641675754</v>
+        <v>6.087038706803746</v>
       </c>
       <c r="F11">
-        <v>49.66940076567146</v>
+        <v>49.87652484909007</v>
       </c>
       <c r="G11">
-        <v>66.17089854113502</v>
+        <v>77.96997524488873</v>
       </c>
       <c r="H11">
-        <v>22.63196735109986</v>
+        <v>19.7259750777014</v>
       </c>
       <c r="I11">
-        <v>37.9232647356522</v>
+        <v>36.34146236420262</v>
       </c>
       <c r="J11">
-        <v>9.716558575998475</v>
+        <v>4.664027939619753</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.366586234327405</v>
+        <v>4.954312152515675</v>
       </c>
       <c r="M11">
-        <v>33.76954615582107</v>
+        <v>43.45443204981997</v>
       </c>
       <c r="N11">
-        <v>18.58155763467967</v>
+        <v>21.72724734169971</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.798794037504333</v>
+        <v>4.135349055184399</v>
       </c>
       <c r="D12">
-        <v>5.872904810331963</v>
+        <v>5.204988902383051</v>
       </c>
       <c r="E12">
-        <v>10.97306334397866</v>
+        <v>6.071849648999929</v>
       </c>
       <c r="F12">
-        <v>49.74352947077031</v>
+        <v>50.50261528160189</v>
       </c>
       <c r="G12">
-        <v>66.35827794765703</v>
+        <v>79.04651925574385</v>
       </c>
       <c r="H12">
-        <v>22.64767292315524</v>
+        <v>19.94187643936083</v>
       </c>
       <c r="I12">
-        <v>37.96848524355649</v>
+        <v>36.78073339554727</v>
       </c>
       <c r="J12">
-        <v>9.707605116611363</v>
+        <v>4.631519747771639</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.360679808812925</v>
+        <v>4.935329510902076</v>
       </c>
       <c r="M12">
-        <v>33.95409034013471</v>
+        <v>44.02575614083774</v>
       </c>
       <c r="N12">
-        <v>18.65015397479865</v>
+        <v>21.92326277094524</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.799036342607844</v>
+        <v>4.134337433587705</v>
       </c>
       <c r="D13">
-        <v>5.870721551408784</v>
+        <v>5.195291860725032</v>
       </c>
       <c r="E13">
-        <v>10.9743829938831</v>
+        <v>6.075112333436735</v>
       </c>
       <c r="F13">
-        <v>49.72746957253627</v>
+        <v>50.36764686163879</v>
       </c>
       <c r="G13">
-        <v>66.31781170077053</v>
+        <v>78.8146579202794</v>
       </c>
       <c r="H13">
-        <v>22.64425049876795</v>
+        <v>19.89528282794021</v>
       </c>
       <c r="I13">
-        <v>37.95867451381095</v>
+        <v>36.68600652020583</v>
       </c>
       <c r="J13">
-        <v>9.70952700868461</v>
+        <v>4.638523737164123</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.36194726213578</v>
+        <v>4.939416156456625</v>
       </c>
       <c r="M13">
-        <v>33.91441754689875</v>
+        <v>43.9031653427034</v>
       </c>
       <c r="N13">
-        <v>18.63538994658063</v>
+        <v>21.88115561961948</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.79983411591436</v>
+        <v>4.131091945355838</v>
       </c>
       <c r="D14">
-        <v>5.8635880208317</v>
+        <v>5.163686479440796</v>
       </c>
       <c r="E14">
-        <v>10.97870770955111</v>
+        <v>6.085785237852462</v>
       </c>
       <c r="F14">
-        <v>49.67545653742591</v>
+        <v>49.92797688990891</v>
       </c>
       <c r="G14">
-        <v>66.18626424399258</v>
+        <v>78.05854154847115</v>
       </c>
       <c r="H14">
-        <v>22.63324145162224</v>
+        <v>19.74369486100277</v>
       </c>
       <c r="I14">
-        <v>37.92695272549113</v>
+        <v>36.37754731272778</v>
       </c>
       <c r="J14">
-        <v>9.715819086271329</v>
+        <v>4.661354636037665</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.366098234993235</v>
+        <v>4.952749677727411</v>
       </c>
       <c r="M14">
-        <v>33.78476099049762</v>
+        <v>43.50164051439225</v>
       </c>
       <c r="N14">
-        <v>18.58720526045361</v>
+        <v>21.74342233263942</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.800328587593511</v>
+        <v>4.129144281058656</v>
       </c>
       <c r="D15">
-        <v>5.859208218778912</v>
+        <v>5.144340060363952</v>
       </c>
       <c r="E15">
-        <v>10.98137290825112</v>
+        <v>6.092347771302694</v>
       </c>
       <c r="F15">
-        <v>49.64387570771344</v>
+        <v>49.65902940212924</v>
       </c>
       <c r="G15">
-        <v>66.10601437155439</v>
+        <v>77.59539806512383</v>
       </c>
       <c r="H15">
-        <v>22.6266151219959</v>
+        <v>19.6511171403141</v>
       </c>
       <c r="I15">
-        <v>37.90773242032546</v>
+        <v>36.1889547177333</v>
       </c>
       <c r="J15">
-        <v>9.719691907225386</v>
+        <v>4.675332077967031</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.368654307771555</v>
+        <v>4.960921987294013</v>
       </c>
       <c r="M15">
-        <v>33.70513402084433</v>
+        <v>43.25435751871417</v>
       </c>
       <c r="N15">
-        <v>18.55766412045284</v>
+        <v>21.65874094964552</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.803251311075771</v>
+        <v>4.118564699570483</v>
       </c>
       <c r="D16">
-        <v>5.83395240058711</v>
+        <v>5.033606095331765</v>
       </c>
       <c r="E16">
-        <v>10.99689457284532</v>
+        <v>6.130340866027856</v>
       </c>
       <c r="F16">
-        <v>49.46719603240226</v>
+        <v>48.12281827132571</v>
       </c>
       <c r="G16">
-        <v>65.6512512048276</v>
+        <v>74.94030135302089</v>
       </c>
       <c r="H16">
-        <v>22.59043827715989</v>
+        <v>19.12459307668342</v>
       </c>
       <c r="I16">
-        <v>37.80082340718272</v>
+        <v>35.11314687388177</v>
       </c>
       <c r="J16">
-        <v>9.742173381135544</v>
+        <v>4.755362373801543</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.383509187034669</v>
+        <v>5.00785162488423</v>
       </c>
       <c r="M16">
-        <v>33.24574036652477</v>
+        <v>41.81644727295264</v>
       </c>
       <c r="N16">
-        <v>18.3880101314955</v>
+        <v>21.16868755032295</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.805123837008312</v>
+        <v>4.112557355710237</v>
       </c>
       <c r="D17">
-        <v>5.818319887109121</v>
+        <v>4.965729433851362</v>
       </c>
       <c r="E17">
-        <v>11.0066387872661</v>
+        <v>6.153994624437658</v>
       </c>
       <c r="F17">
-        <v>49.36267065349339</v>
+        <v>47.18435974274887</v>
       </c>
       <c r="G17">
-        <v>65.3769503907188</v>
+        <v>73.30961534594323</v>
       </c>
       <c r="H17">
-        <v>22.56984962479294</v>
+        <v>18.80496367382377</v>
       </c>
       <c r="I17">
-        <v>37.73813786121409</v>
+        <v>34.45721287908729</v>
       </c>
       <c r="J17">
-        <v>9.756222636875696</v>
+        <v>4.804438915404498</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.392807390347452</v>
+        <v>5.036747567841502</v>
       </c>
       <c r="M17">
-        <v>32.9612919574645</v>
+        <v>40.91540655666468</v>
       </c>
       <c r="N17">
-        <v>18.28365333846401</v>
+        <v>20.86386517911906</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.806230098993963</v>
+        <v>4.109266268550972</v>
       </c>
       <c r="D18">
-        <v>5.809277898266369</v>
+        <v>4.926685946973881</v>
       </c>
       <c r="E18">
-        <v>11.01232522744682</v>
+        <v>6.167727693772297</v>
       </c>
       <c r="F18">
-        <v>49.3039799644363</v>
+        <v>46.64585991667811</v>
       </c>
       <c r="G18">
-        <v>65.22094566092967</v>
+        <v>72.37066331737464</v>
       </c>
       <c r="H18">
-        <v>22.55859798008931</v>
+        <v>18.62229481824811</v>
       </c>
       <c r="I18">
-        <v>37.70315330859872</v>
+        <v>34.08129552607929</v>
       </c>
       <c r="J18">
-        <v>9.764398341403972</v>
+        <v>4.832675015010182</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.398223717022919</v>
+        <v>5.053413958161223</v>
       </c>
       <c r="M18">
-        <v>32.79677134956395</v>
+        <v>40.39006758284199</v>
       </c>
       <c r="N18">
-        <v>18.22354606344534</v>
+        <v>20.68703154288507</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.806609682120104</v>
+        <v>4.108178991177223</v>
       </c>
       <c r="D19">
-        <v>5.806207792729136</v>
+        <v>4.91346406579455</v>
       </c>
       <c r="E19">
-        <v>11.01426462882629</v>
+        <v>6.172399550381305</v>
       </c>
       <c r="F19">
-        <v>49.28435475995941</v>
+        <v>46.46373810460564</v>
       </c>
       <c r="G19">
-        <v>65.16843265407546</v>
+        <v>72.05254654533364</v>
       </c>
       <c r="H19">
-        <v>22.5548898215798</v>
+        <v>18.56064232951358</v>
       </c>
       <c r="I19">
-        <v>37.69149243395042</v>
+        <v>33.95423954735753</v>
       </c>
       <c r="J19">
-        <v>9.767182827517757</v>
+        <v>4.84223815853552</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.400069330546188</v>
+        <v>5.05906549655967</v>
       </c>
       <c r="M19">
-        <v>32.74091561271748</v>
+        <v>40.21096865383203</v>
       </c>
       <c r="N19">
-        <v>18.20318213984744</v>
+        <v>20.62690305950793</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.804921477934998</v>
+        <v>4.113179572539789</v>
       </c>
       <c r="D20">
-        <v>5.819989240143833</v>
+        <v>4.972954810909277</v>
       </c>
       <c r="E20">
-        <v>11.00559303434489</v>
+        <v>6.15146340772204</v>
       </c>
       <c r="F20">
-        <v>49.37364983017483</v>
+        <v>47.28412456819039</v>
       </c>
       <c r="G20">
-        <v>65.40596843274298</v>
+        <v>73.48330383286078</v>
       </c>
       <c r="H20">
-        <v>22.57198023084534</v>
+        <v>18.83886595331235</v>
       </c>
       <c r="I20">
-        <v>37.74470015508221</v>
+        <v>34.52689504816247</v>
       </c>
       <c r="J20">
-        <v>9.754717249507539</v>
+        <v>4.799214087347735</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.391810521581995</v>
+        <v>5.033666919308505</v>
       </c>
       <c r="M20">
-        <v>32.99166768962334</v>
+        <v>41.01205430121227</v>
       </c>
       <c r="N20">
-        <v>18.29477141738903</v>
+        <v>20.89647087254792</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.799598579277359</v>
+        <v>4.132036737466223</v>
       </c>
       <c r="D21">
-        <v>5.865685462518474</v>
+        <v>5.17296692054056</v>
       </c>
       <c r="E21">
-        <v>10.97743406366391</v>
+        <v>6.082645125816501</v>
       </c>
       <c r="F21">
-        <v>49.69067601934441</v>
+        <v>50.05704154494941</v>
       </c>
       <c r="G21">
-        <v>66.22483508905717</v>
+        <v>78.28062876578909</v>
       </c>
       <c r="H21">
-        <v>22.63645069249591</v>
+        <v>19.78816223912239</v>
       </c>
       <c r="I21">
-        <v>37.93622640880138</v>
+        <v>36.46807582450806</v>
       </c>
       <c r="J21">
-        <v>9.713967046332691</v>
+        <v>4.654650236932329</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.364876184992037</v>
+        <v>4.948832273595751</v>
       </c>
       <c r="M21">
-        <v>33.82288800025386</v>
+        <v>43.61985598898286</v>
       </c>
       <c r="N21">
-        <v>18.60136392110622</v>
+        <v>21.78394388085621</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.79637993083186</v>
+        <v>4.146127331204305</v>
       </c>
       <c r="D22">
-        <v>5.895090432554804</v>
+        <v>5.304194566834966</v>
       </c>
       <c r="E22">
-        <v>10.95975544747198</v>
+        <v>6.038792689951925</v>
       </c>
       <c r="F22">
-        <v>49.91037160819531</v>
+        <v>51.88503602862977</v>
       </c>
       <c r="G22">
-        <v>66.7747594578408</v>
+        <v>81.44568343567231</v>
       </c>
       <c r="H22">
-        <v>22.68382592866351</v>
+        <v>20.42066504693105</v>
       </c>
       <c r="I22">
-        <v>38.07082197592731</v>
+        <v>37.75194032974816</v>
       </c>
       <c r="J22">
-        <v>9.688174014819399</v>
+        <v>4.55989313755375</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.347876946864348</v>
+        <v>4.893638003899699</v>
       </c>
       <c r="M22">
-        <v>34.3569388567926</v>
+        <v>45.26399138748261</v>
       </c>
       <c r="N22">
-        <v>18.80059810624113</v>
+        <v>22.34990720943216</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.798073985285363</v>
+        <v>4.138428604806594</v>
       </c>
       <c r="D23">
-        <v>5.879439019178558</v>
+        <v>5.234079655402703</v>
       </c>
       <c r="E23">
-        <v>10.96912471028126</v>
+        <v>6.062095337077785</v>
       </c>
       <c r="F23">
-        <v>49.79198404281194</v>
+        <v>50.90769933544563</v>
       </c>
       <c r="G23">
-        <v>66.47995339843914</v>
+        <v>79.74285277539101</v>
       </c>
       <c r="H23">
-        <v>22.65806247085082</v>
+        <v>20.08188392870678</v>
       </c>
       <c r="I23">
-        <v>37.99812957175075</v>
+        <v>37.06514194851469</v>
       </c>
       <c r="J23">
-        <v>9.701863703959859</v>
+        <v>4.610510753258265</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.35689468693398</v>
+        <v>4.923081879881532</v>
       </c>
       <c r="M23">
-        <v>34.0727971287791</v>
+        <v>44.39184228914601</v>
       </c>
       <c r="N23">
-        <v>18.69438623465513</v>
+        <v>22.04915312217361</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.805012871893378</v>
+        <v>4.112897764884193</v>
       </c>
       <c r="D24">
-        <v>5.819234695746534</v>
+        <v>4.969688286450751</v>
       </c>
       <c r="E24">
-        <v>11.00606555643146</v>
+        <v>6.152607352558846</v>
       </c>
       <c r="F24">
-        <v>49.36868177397253</v>
+        <v>47.23901771631738</v>
       </c>
       <c r="G24">
-        <v>65.39284408736795</v>
+        <v>73.40478386006691</v>
       </c>
       <c r="H24">
-        <v>22.57101516139763</v>
+        <v>18.82353535236922</v>
       </c>
       <c r="I24">
-        <v>37.7417300572607</v>
+        <v>34.49538806920771</v>
       </c>
       <c r="J24">
-        <v>9.755397527953503</v>
+        <v>4.801576161954407</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.392260985800375</v>
+        <v>5.035059511466689</v>
       </c>
       <c r="M24">
-        <v>32.97793788462007</v>
+        <v>40.96838268185902</v>
       </c>
       <c r="N24">
-        <v>18.28974527574188</v>
+        <v>20.88173477474807</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.813615404275901</v>
+        <v>4.091529593070679</v>
       </c>
       <c r="D25">
-        <v>5.752366471136473</v>
+        <v>4.684242317618986</v>
       </c>
       <c r="E25">
-        <v>11.04904294505682</v>
+        <v>6.255148482386416</v>
       </c>
       <c r="F25">
-        <v>48.96682674856959</v>
+        <v>43.33009888512856</v>
       </c>
       <c r="G25">
-        <v>64.28824301662884</v>
+        <v>66.52890560767111</v>
       </c>
       <c r="H25">
-        <v>22.49969136253206</v>
+        <v>17.51081628246636</v>
       </c>
       <c r="I25">
-        <v>37.50612555573295</v>
+        <v>31.77508815137019</v>
       </c>
       <c r="J25">
-        <v>9.816775985088277</v>
+        <v>5.00814401204978</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.433020821161159</v>
+        <v>5.157679364561965</v>
       </c>
       <c r="M25">
-        <v>31.76276497906785</v>
+        <v>37.20196978427509</v>
       </c>
       <c r="N25">
-        <v>17.85031052613873</v>
+        <v>19.56544457742723</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.079877461568146</v>
+        <v>6.199409330866149</v>
       </c>
       <c r="D2">
-        <v>4.47184677689524</v>
+        <v>4.184871948774886</v>
       </c>
       <c r="E2">
-        <v>6.334992510732445</v>
+        <v>7.360529103103253</v>
       </c>
       <c r="F2">
-        <v>40.48185147725238</v>
+        <v>29.6671066779353</v>
       </c>
       <c r="G2">
-        <v>61.40750206858423</v>
+        <v>38.37805048118338</v>
       </c>
       <c r="H2">
-        <v>16.57771168102696</v>
+        <v>3.169860232392552</v>
       </c>
       <c r="I2">
-        <v>29.80807009506517</v>
+        <v>3.523015390485244</v>
       </c>
       <c r="J2">
-        <v>5.162213875179175</v>
+        <v>12.65284302700057</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.41495349271861</v>
       </c>
       <c r="L2">
-        <v>5.250266726374316</v>
+        <v>5.985983999732769</v>
       </c>
       <c r="M2">
-        <v>34.31733720490789</v>
+        <v>18.96946362110742</v>
       </c>
       <c r="N2">
-        <v>18.55190062592674</v>
+        <v>5.493397462311726</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.46138647187464</v>
+      </c>
+      <c r="P2">
+        <v>13.43742917694675</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.07405716794079</v>
+        <v>5.904994909982514</v>
       </c>
       <c r="D3">
-        <v>4.325858487654212</v>
+        <v>4.05277740034516</v>
       </c>
       <c r="E3">
-        <v>6.391877383583415</v>
+        <v>7.192319911408242</v>
       </c>
       <c r="F3">
-        <v>38.56961872405758</v>
+        <v>29.02920168777353</v>
       </c>
       <c r="G3">
-        <v>57.89753292036694</v>
+        <v>37.36774580071243</v>
       </c>
       <c r="H3">
-        <v>15.9652990439684</v>
+        <v>3.420027789238071</v>
       </c>
       <c r="I3">
-        <v>28.49675320071554</v>
+        <v>3.746065896801287</v>
       </c>
       <c r="J3">
-        <v>5.268511414562024</v>
+        <v>12.54313267000678</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.99789786815012</v>
       </c>
       <c r="L3">
-        <v>5.314753722966068</v>
+        <v>5.920849951557193</v>
       </c>
       <c r="M3">
-        <v>32.23732258161164</v>
+        <v>17.82249450561516</v>
       </c>
       <c r="N3">
-        <v>17.84056999585587</v>
+        <v>5.465450791100697</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.72492353152917</v>
+      </c>
+      <c r="P3">
+        <v>13.57733586598313</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.071381828780002</v>
+        <v>5.71356098661893</v>
       </c>
       <c r="D4">
-        <v>4.235072055992898</v>
+        <v>3.970201963312033</v>
       </c>
       <c r="E4">
-        <v>6.428194231818654</v>
+        <v>7.086068438157242</v>
       </c>
       <c r="F4">
-        <v>37.40553849291652</v>
+        <v>28.63815543384797</v>
       </c>
       <c r="G4">
-        <v>55.72490409968738</v>
+        <v>36.74497343331603</v>
       </c>
       <c r="H4">
-        <v>15.59915769434979</v>
+        <v>3.579078803709142</v>
       </c>
       <c r="I4">
-        <v>27.70296512981371</v>
+        <v>3.88879007756041</v>
       </c>
       <c r="J4">
-        <v>5.334893004336837</v>
+        <v>12.47840202035297</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>21.74109232202695</v>
       </c>
       <c r="L4">
-        <v>5.355293951030737</v>
+        <v>5.879418161506267</v>
       </c>
       <c r="M4">
-        <v>30.89909487831205</v>
+        <v>17.07976572865833</v>
       </c>
       <c r="N4">
-        <v>17.39311435516868</v>
+        <v>5.448380797666543</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.25360648827553</v>
+      </c>
+      <c r="P4">
+        <v>13.66513362911764</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.070501234044391</v>
+        <v>5.624958096489876</v>
       </c>
       <c r="D5">
-        <v>4.19777350670933</v>
+        <v>3.9373382825913</v>
       </c>
       <c r="E5">
-        <v>6.443345945311623</v>
+        <v>7.041182713213503</v>
       </c>
       <c r="F5">
-        <v>36.93399026741637</v>
+        <v>28.4690000981566</v>
       </c>
       <c r="G5">
-        <v>54.83570259728181</v>
+        <v>36.47315852965112</v>
       </c>
       <c r="H5">
-        <v>15.45247089472978</v>
+        <v>3.645826696521966</v>
       </c>
       <c r="I5">
-        <v>27.38252368166085</v>
+        <v>3.951159548027008</v>
       </c>
       <c r="J5">
-        <v>5.362249042938598</v>
+        <v>12.44943358159694</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>21.62695414006551</v>
       </c>
       <c r="L5">
-        <v>5.37206362609999</v>
+        <v>5.861530405894051</v>
       </c>
       <c r="M5">
-        <v>30.3385759244005</v>
+        <v>16.76327082048558</v>
       </c>
       <c r="N5">
-        <v>17.20832056025156</v>
+        <v>5.442106640813302</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.0538927672154</v>
+      </c>
+      <c r="P5">
+        <v>13.70158861014264</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.070367233963736</v>
+        <v>5.600395577631248</v>
       </c>
       <c r="D6">
-        <v>4.191561567503276</v>
+        <v>3.933234205815161</v>
       </c>
       <c r="E6">
-        <v>6.44588323910463</v>
+        <v>7.032638946673854</v>
       </c>
       <c r="F6">
-        <v>36.85587125449216</v>
+        <v>28.42857663311628</v>
       </c>
       <c r="G6">
-        <v>54.68784084922898</v>
+        <v>36.40638408016726</v>
       </c>
       <c r="H6">
-        <v>15.42826709101282</v>
+        <v>3.657655339423588</v>
       </c>
       <c r="I6">
-        <v>27.32950407303155</v>
+        <v>3.965097792862556</v>
       </c>
       <c r="J6">
-        <v>5.366810597367877</v>
+        <v>12.44069074075698</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21.59651662267265</v>
       </c>
       <c r="L6">
-        <v>5.374863589752758</v>
+        <v>5.857756621882448</v>
       </c>
       <c r="M6">
-        <v>30.24459236192151</v>
+        <v>16.70491192113559</v>
       </c>
       <c r="N6">
-        <v>17.17749512195612</v>
+        <v>5.441881234751151</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.01675216707309</v>
+      </c>
+      <c r="P6">
+        <v>13.70791582923611</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.07136912408127</v>
+        <v>5.686301863503367</v>
       </c>
       <c r="D7">
-        <v>4.234570272440076</v>
+        <v>3.973464060817301</v>
       </c>
       <c r="E7">
-        <v>6.42839714279433</v>
+        <v>7.082635851447576</v>
       </c>
       <c r="F7">
-        <v>37.3991671260636</v>
+        <v>28.60235842601315</v>
       </c>
       <c r="G7">
-        <v>55.71292663004931</v>
+        <v>36.68273477833722</v>
       </c>
       <c r="H7">
-        <v>15.59716916950704</v>
+        <v>3.581755659310346</v>
       </c>
       <c r="I7">
-        <v>27.69863098706824</v>
+        <v>3.898915115599878</v>
       </c>
       <c r="J7">
-        <v>5.335260671302238</v>
+        <v>12.46719717508434</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>21.70837540355329</v>
       </c>
       <c r="L7">
-        <v>5.355519089089934</v>
+        <v>5.877063171232363</v>
       </c>
       <c r="M7">
-        <v>30.89159668423708</v>
+        <v>17.06154554723018</v>
       </c>
       <c r="N7">
-        <v>17.39063175370089</v>
+        <v>5.450510996543588</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.24097263022778</v>
+      </c>
+      <c r="P7">
+        <v>13.66636044038095</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.077673734099996</v>
+        <v>6.06743982472088</v>
       </c>
       <c r="D8">
-        <v>4.421738508791408</v>
+        <v>4.144360613451497</v>
       </c>
       <c r="E8">
-        <v>6.354319864526929</v>
+        <v>7.299539191456539</v>
       </c>
       <c r="F8">
-        <v>39.82057674147151</v>
+        <v>29.40390771739595</v>
       </c>
       <c r="G8">
-        <v>60.20115231871846</v>
+        <v>37.95522191856936</v>
       </c>
       <c r="H8">
-        <v>16.36451464894934</v>
+        <v>3.257267289097673</v>
       </c>
       <c r="I8">
-        <v>29.35365463785508</v>
+        <v>3.610702337805442</v>
       </c>
       <c r="J8">
-        <v>5.198649570488334</v>
+        <v>12.60034443294205</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.23099016888422</v>
       </c>
       <c r="L8">
-        <v>5.272313014891409</v>
+        <v>5.961107507451946</v>
       </c>
       <c r="M8">
-        <v>33.61290957282244</v>
+        <v>18.56480489426561</v>
       </c>
       <c r="N8">
-        <v>18.30898703995323</v>
+        <v>5.486638041465711</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.19905799930829</v>
+      </c>
+      <c r="P8">
+        <v>13.48655800315601</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.098022095206601</v>
+        <v>6.772753588663708</v>
       </c>
       <c r="D9">
-        <v>4.780630791104516</v>
+        <v>4.460175805959703</v>
       </c>
       <c r="E9">
-        <v>6.219941071382785</v>
+        <v>7.705558417945979</v>
       </c>
       <c r="F9">
-        <v>44.64175396462827</v>
+        <v>31.03260972757996</v>
       </c>
       <c r="G9">
-        <v>68.85318713819959</v>
+        <v>40.5208694722285</v>
       </c>
       <c r="H9">
-        <v>17.94759414921784</v>
+        <v>2.660089146399507</v>
       </c>
       <c r="I9">
-        <v>32.68552246747759</v>
+        <v>3.075137571371861</v>
       </c>
       <c r="J9">
-        <v>4.938349786642329</v>
+        <v>12.90153142318055</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.30068499646048</v>
       </c>
       <c r="L9">
-        <v>5.116061151225638</v>
+        <v>6.118261468400912</v>
       </c>
       <c r="M9">
-        <v>38.46105161080981</v>
+        <v>21.22595410709122</v>
       </c>
       <c r="N9">
-        <v>20.01609608434405</v>
+        <v>5.554469520202661</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.93578769153469</v>
+      </c>
+      <c r="P9">
+        <v>13.14692956537999</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.119273356559153</v>
+        <v>7.189116069310551</v>
       </c>
       <c r="D10">
-        <v>5.041352527988317</v>
+        <v>4.661279135239109</v>
       </c>
       <c r="E10">
-        <v>6.127659098344612</v>
+        <v>7.919679916650864</v>
       </c>
       <c r="F10">
-        <v>48.23008790760611</v>
+        <v>32.04056973598171</v>
       </c>
       <c r="G10">
-        <v>75.12625813653374</v>
+        <v>42.10744781386801</v>
       </c>
       <c r="H10">
-        <v>19.16122859866429</v>
+        <v>2.275829682191191</v>
       </c>
       <c r="I10">
-        <v>35.18818609701648</v>
+        <v>2.722176001493093</v>
       </c>
       <c r="J10">
-        <v>4.749762448448386</v>
+        <v>13.08318286873511</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.94941010845209</v>
       </c>
       <c r="L10">
-        <v>5.004560148119546</v>
+        <v>6.20122866976566</v>
       </c>
       <c r="M10">
-        <v>41.91831138507152</v>
+        <v>22.93960942083019</v>
       </c>
       <c r="N10">
-        <v>21.20326316359053</v>
+        <v>5.579458555230478</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.02170389372472</v>
+      </c>
+      <c r="P10">
+        <v>12.91521654842738</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.130717133528411</v>
+        <v>7.009405635443877</v>
       </c>
       <c r="D11">
-        <v>5.15998614859897</v>
+        <v>4.55765192057854</v>
       </c>
       <c r="E11">
-        <v>6.087038706803746</v>
+        <v>7.472899743001757</v>
       </c>
       <c r="F11">
-        <v>49.87652484909007</v>
+        <v>31.01944231199862</v>
       </c>
       <c r="G11">
-        <v>77.96997524488873</v>
+        <v>40.66052184709111</v>
       </c>
       <c r="H11">
-        <v>19.7259750777014</v>
+        <v>3.099590208965851</v>
       </c>
       <c r="I11">
-        <v>36.34146236420262</v>
+        <v>2.65017080993284</v>
       </c>
       <c r="J11">
-        <v>4.664027939619753</v>
+        <v>12.73949782741348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.2224750324812</v>
       </c>
       <c r="L11">
-        <v>4.954312152515675</v>
+        <v>6.053926631468447</v>
       </c>
       <c r="M11">
-        <v>43.45443204981997</v>
+        <v>23.28341950430876</v>
       </c>
       <c r="N11">
-        <v>21.72724734169971</v>
+        <v>5.400870529673392</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.77301252460733</v>
+      </c>
+      <c r="P11">
+        <v>12.90567923566164</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.135349055184399</v>
+        <v>6.808129599399465</v>
       </c>
       <c r="D12">
-        <v>5.204988902383051</v>
+        <v>4.422004059052426</v>
       </c>
       <c r="E12">
-        <v>6.071849648999929</v>
+        <v>7.121368071172895</v>
       </c>
       <c r="F12">
-        <v>50.50261528160189</v>
+        <v>29.97345517922605</v>
       </c>
       <c r="G12">
-        <v>79.04651925574385</v>
+        <v>39.15784063657303</v>
       </c>
       <c r="H12">
-        <v>19.94187643936083</v>
+        <v>4.383156793957343</v>
       </c>
       <c r="I12">
-        <v>36.78073339554727</v>
+        <v>2.639985759786591</v>
       </c>
       <c r="J12">
-        <v>4.631519747771639</v>
+        <v>12.42141953259404</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.50626228488886</v>
       </c>
       <c r="L12">
-        <v>4.935329510902076</v>
+        <v>5.961849235581952</v>
       </c>
       <c r="M12">
-        <v>44.02575614083774</v>
+        <v>23.23633229976989</v>
       </c>
       <c r="N12">
-        <v>21.92326277094524</v>
+        <v>5.297955993340726</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.34208329478439</v>
+      </c>
+      <c r="P12">
+        <v>12.96438797590826</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.134337433587705</v>
+        <v>6.54065897512488</v>
       </c>
       <c r="D13">
-        <v>5.195291860725032</v>
+        <v>4.256235505840928</v>
       </c>
       <c r="E13">
-        <v>6.075112333436735</v>
+        <v>6.824222303355662</v>
       </c>
       <c r="F13">
-        <v>50.36764686163879</v>
+        <v>28.78281995189901</v>
       </c>
       <c r="G13">
-        <v>78.8146579202794</v>
+        <v>37.41192497756101</v>
       </c>
       <c r="H13">
-        <v>19.89528282794021</v>
+        <v>5.76471779723053</v>
       </c>
       <c r="I13">
-        <v>36.68600652020583</v>
+        <v>2.693319824418644</v>
       </c>
       <c r="J13">
-        <v>4.638523737164123</v>
+        <v>12.08581250212963</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.70233964353201</v>
       </c>
       <c r="L13">
-        <v>4.939416156456625</v>
+        <v>5.90416238565306</v>
       </c>
       <c r="M13">
-        <v>43.9031653427034</v>
+        <v>22.86759380430266</v>
       </c>
       <c r="N13">
-        <v>21.88115561961948</v>
+        <v>5.251953882021752</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.72140760692653</v>
+      </c>
+      <c r="P13">
+        <v>13.07562317458366</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.131091945355838</v>
+        <v>6.316288174506621</v>
       </c>
       <c r="D14">
-        <v>5.163686479440796</v>
+        <v>4.126636143242755</v>
       </c>
       <c r="E14">
-        <v>6.085785237852462</v>
+        <v>6.655920494671112</v>
       </c>
       <c r="F14">
-        <v>49.92797688990891</v>
+        <v>27.87140105896576</v>
       </c>
       <c r="G14">
-        <v>78.05854154847115</v>
+        <v>36.05495929559353</v>
       </c>
       <c r="H14">
-        <v>19.74369486100277</v>
+        <v>6.758791459723122</v>
       </c>
       <c r="I14">
-        <v>36.37754731272778</v>
+        <v>2.762573436066841</v>
       </c>
       <c r="J14">
-        <v>4.661354636037665</v>
+        <v>11.84066239121149</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>21.0904725901774</v>
       </c>
       <c r="L14">
-        <v>4.952749677727411</v>
+        <v>5.885802767327738</v>
       </c>
       <c r="M14">
-        <v>43.50164051439225</v>
+        <v>22.45541842583433</v>
       </c>
       <c r="N14">
-        <v>21.74342233263942</v>
+        <v>5.253399036922858</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.19124986766456</v>
+      </c>
+      <c r="P14">
+        <v>13.17800476634896</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.129144281058656</v>
+        <v>6.239172873186129</v>
       </c>
       <c r="D15">
-        <v>5.144340060363952</v>
+        <v>4.089753867144362</v>
       </c>
       <c r="E15">
-        <v>6.092347771302694</v>
+        <v>6.616988350009718</v>
       </c>
       <c r="F15">
-        <v>49.65902940212924</v>
+        <v>27.60951388162171</v>
       </c>
       <c r="G15">
-        <v>77.59539806512383</v>
+        <v>35.6551591784436</v>
       </c>
       <c r="H15">
-        <v>19.6511171403141</v>
+        <v>6.993491383559666</v>
       </c>
       <c r="I15">
-        <v>36.1889547177333</v>
+        <v>2.798371294398731</v>
       </c>
       <c r="J15">
-        <v>4.675332077967031</v>
+        <v>11.77454479964872</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.91370880392956</v>
       </c>
       <c r="L15">
-        <v>4.960921987294013</v>
+        <v>5.88214686098378</v>
       </c>
       <c r="M15">
-        <v>43.25435751871417</v>
+        <v>22.28068312277017</v>
       </c>
       <c r="N15">
-        <v>21.65874094964552</v>
+        <v>5.257422546267848</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.01792252458036</v>
+      </c>
+      <c r="P15">
+        <v>13.21206805387824</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.118564699570483</v>
+        <v>6.091649118620195</v>
       </c>
       <c r="D16">
-        <v>5.033606095331765</v>
+        <v>4.034583884994377</v>
       </c>
       <c r="E16">
-        <v>6.130340866027856</v>
+        <v>6.577251439753447</v>
       </c>
       <c r="F16">
-        <v>48.12281827132571</v>
+        <v>27.36753984108288</v>
       </c>
       <c r="G16">
-        <v>74.94030135302089</v>
+        <v>35.23212939806163</v>
       </c>
       <c r="H16">
-        <v>19.12459307668342</v>
+        <v>6.824063819776605</v>
       </c>
       <c r="I16">
-        <v>35.11314687388177</v>
+        <v>2.94335624682123</v>
       </c>
       <c r="J16">
-        <v>4.755362373801543</v>
+        <v>11.75456234577399</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.76404713018146</v>
       </c>
       <c r="L16">
-        <v>5.00785162488423</v>
+        <v>5.854890853537229</v>
       </c>
       <c r="M16">
-        <v>41.81644727295264</v>
+        <v>21.6183868343522</v>
       </c>
       <c r="N16">
-        <v>21.16868755032295</v>
+        <v>5.252957361752411</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.65056294088794</v>
+      </c>
+      <c r="P16">
+        <v>13.27522527096882</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.112557355710237</v>
+        <v>6.098828939650625</v>
       </c>
       <c r="D17">
-        <v>4.965729433851362</v>
+        <v>4.062648845324423</v>
       </c>
       <c r="E17">
-        <v>6.153994624437658</v>
+        <v>6.627905156933078</v>
       </c>
       <c r="F17">
-        <v>47.18435974274887</v>
+        <v>27.67487872517768</v>
       </c>
       <c r="G17">
-        <v>73.30961534594323</v>
+        <v>35.64597866538451</v>
       </c>
       <c r="H17">
-        <v>18.80496367382377</v>
+        <v>6.142302686912222</v>
       </c>
       <c r="I17">
-        <v>34.45721287908729</v>
+        <v>3.01883344374425</v>
       </c>
       <c r="J17">
-        <v>4.804438915404498</v>
+        <v>11.8703278531398</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.97824565312576</v>
       </c>
       <c r="L17">
-        <v>5.036747567841502</v>
+        <v>5.83944652925867</v>
       </c>
       <c r="M17">
-        <v>40.91540655666468</v>
+        <v>21.32985956852492</v>
       </c>
       <c r="N17">
-        <v>20.86386517911906</v>
+        <v>5.244532721902559</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.65824561948484</v>
+      </c>
+      <c r="P17">
+        <v>13.27106607919038</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.109266268550972</v>
+        <v>6.261998093286349</v>
       </c>
       <c r="D18">
-        <v>4.926685946973881</v>
+        <v>4.163710178019874</v>
       </c>
       <c r="E18">
-        <v>6.167727693772297</v>
+        <v>6.810295661302412</v>
       </c>
       <c r="F18">
-        <v>46.64585991667811</v>
+        <v>28.51069735068049</v>
       </c>
       <c r="G18">
-        <v>72.37066331737464</v>
+        <v>36.86349746996095</v>
       </c>
       <c r="H18">
-        <v>18.62229481824811</v>
+        <v>4.983397900860417</v>
       </c>
       <c r="I18">
-        <v>34.08129552607929</v>
+        <v>3.029675420807203</v>
       </c>
       <c r="J18">
-        <v>4.832675015010182</v>
+        <v>12.12286812025174</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.55185970380559</v>
       </c>
       <c r="L18">
-        <v>5.053413958161223</v>
+        <v>5.858044436569762</v>
       </c>
       <c r="M18">
-        <v>40.39006758284199</v>
+        <v>21.34830292990036</v>
       </c>
       <c r="N18">
-        <v>20.68703154288507</v>
+        <v>5.261974123304039</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.99848960146014</v>
+      </c>
+      <c r="P18">
+        <v>13.21451866583176</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.108178991177223</v>
+        <v>6.504578329474284</v>
       </c>
       <c r="D19">
-        <v>4.91346406579455</v>
+        <v>4.321643814162187</v>
       </c>
       <c r="E19">
-        <v>6.172399550381305</v>
+        <v>7.144562740981815</v>
       </c>
       <c r="F19">
-        <v>46.46373810460564</v>
+        <v>29.65004266761984</v>
       </c>
       <c r="G19">
-        <v>72.05254654533364</v>
+        <v>38.52939252813226</v>
       </c>
       <c r="H19">
-        <v>18.56064232951358</v>
+        <v>3.662009312286337</v>
       </c>
       <c r="I19">
-        <v>33.95423954735753</v>
+        <v>3.005292480877627</v>
       </c>
       <c r="J19">
-        <v>4.84223815853552</v>
+        <v>12.4490398616879</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.32020768820395</v>
       </c>
       <c r="L19">
-        <v>5.05906549655967</v>
+        <v>5.937494820946289</v>
       </c>
       <c r="M19">
-        <v>40.21096865383203</v>
+        <v>21.58882974065721</v>
       </c>
       <c r="N19">
-        <v>20.62690305950793</v>
+        <v>5.341989269696247</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.55783155553892</v>
+      </c>
+      <c r="P19">
+        <v>13.13644060760765</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.113179572539789</v>
+        <v>7.014370416571536</v>
       </c>
       <c r="D20">
-        <v>4.972954810909277</v>
+        <v>4.618057503281624</v>
       </c>
       <c r="E20">
-        <v>6.15146340772204</v>
+        <v>7.853463749580268</v>
       </c>
       <c r="F20">
-        <v>47.28412456819039</v>
+        <v>31.67445916719667</v>
       </c>
       <c r="G20">
-        <v>73.48330383286078</v>
+        <v>41.51960451128437</v>
       </c>
       <c r="H20">
-        <v>18.83886595331235</v>
+        <v>2.379747680739</v>
       </c>
       <c r="I20">
-        <v>34.52689504816247</v>
+        <v>2.846765310581346</v>
       </c>
       <c r="J20">
-        <v>4.799214087347735</v>
+        <v>13.00048206106775</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.6854756628955</v>
       </c>
       <c r="L20">
-        <v>5.033666919308505</v>
+        <v>6.172837552247048</v>
       </c>
       <c r="M20">
-        <v>41.01205430121227</v>
+        <v>22.46575189859455</v>
       </c>
       <c r="N20">
-        <v>20.89647087254792</v>
+        <v>5.578134028775406</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.71382403408521</v>
+      </c>
+      <c r="P20">
+        <v>12.98038424786898</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.132036737466223</v>
+        <v>7.39448615829604</v>
       </c>
       <c r="D21">
-        <v>5.17296692054056</v>
+        <v>4.802154016403438</v>
       </c>
       <c r="E21">
-        <v>6.082645125816501</v>
+        <v>8.11956061721547</v>
       </c>
       <c r="F21">
-        <v>50.05704154494941</v>
+        <v>32.72253697854578</v>
       </c>
       <c r="G21">
-        <v>78.28062876578909</v>
+        <v>43.13745039207972</v>
       </c>
       <c r="H21">
-        <v>19.78816223912239</v>
+        <v>2.046755739164591</v>
       </c>
       <c r="I21">
-        <v>36.46807582450806</v>
+        <v>2.567401241890821</v>
       </c>
       <c r="J21">
-        <v>4.654650236932329</v>
+        <v>13.22510506037021</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.37490467329297</v>
       </c>
       <c r="L21">
-        <v>4.948832273595751</v>
+        <v>6.274372996772117</v>
       </c>
       <c r="M21">
-        <v>43.61985598898286</v>
+        <v>23.79723258940676</v>
       </c>
       <c r="N21">
-        <v>21.78394388085621</v>
+        <v>5.63777688224366</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.64705712991313</v>
+      </c>
+      <c r="P21">
+        <v>12.79202055019785</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.146127331204305</v>
+        <v>7.639414546679587</v>
       </c>
       <c r="D22">
-        <v>5.304194566834966</v>
+        <v>4.904653617633912</v>
       </c>
       <c r="E22">
-        <v>6.038792689951925</v>
+        <v>8.259004911430946</v>
       </c>
       <c r="F22">
-        <v>51.88503602862977</v>
+        <v>33.35677038807543</v>
       </c>
       <c r="G22">
-        <v>81.44568343567231</v>
+        <v>44.12594797444074</v>
       </c>
       <c r="H22">
-        <v>20.42066504693105</v>
+        <v>1.845086514443666</v>
       </c>
       <c r="I22">
-        <v>37.75194032974816</v>
+        <v>2.61951384854718</v>
       </c>
       <c r="J22">
-        <v>4.55989313755375</v>
+        <v>13.3629973156227</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.80032231685791</v>
       </c>
       <c r="L22">
-        <v>4.893638003899699</v>
+        <v>6.329296968008541</v>
       </c>
       <c r="M22">
-        <v>45.26399138748261</v>
+        <v>24.62488462641089</v>
       </c>
       <c r="N22">
-        <v>22.34990720943216</v>
+        <v>5.660390226261627</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.20434847004796</v>
+      </c>
+      <c r="P22">
+        <v>12.67239228162269</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.138428604806594</v>
+        <v>7.533666316532351</v>
       </c>
       <c r="D23">
-        <v>5.234079655402703</v>
+        <v>4.846504915336034</v>
       </c>
       <c r="E23">
-        <v>6.062095337077785</v>
+        <v>8.187721921679147</v>
       </c>
       <c r="F23">
-        <v>50.90769933544563</v>
+        <v>33.05326324215391</v>
       </c>
       <c r="G23">
-        <v>79.74285277539101</v>
+        <v>43.65837970668144</v>
       </c>
       <c r="H23">
-        <v>20.08188392870678</v>
+        <v>1.950564784071947</v>
       </c>
       <c r="I23">
-        <v>37.06514194851469</v>
+        <v>2.526340097052684</v>
       </c>
       <c r="J23">
-        <v>4.610510753258265</v>
+        <v>13.301089883016</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.60642543247819</v>
       </c>
       <c r="L23">
-        <v>4.923081879881532</v>
+        <v>6.302291563405488</v>
       </c>
       <c r="M23">
-        <v>44.39184228914601</v>
+        <v>24.19765158273971</v>
       </c>
       <c r="N23">
-        <v>22.04915312217361</v>
+        <v>5.645761063559929</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.91804113599779</v>
+      </c>
+      <c r="P23">
+        <v>12.73415093344235</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.112897764884193</v>
+        <v>7.077619857936408</v>
       </c>
       <c r="D24">
-        <v>4.969688286450751</v>
+        <v>4.62759011498446</v>
       </c>
       <c r="E24">
-        <v>6.152607352558846</v>
+        <v>7.907532946525637</v>
       </c>
       <c r="F24">
-        <v>47.23901771631738</v>
+        <v>31.84400787501065</v>
       </c>
       <c r="G24">
-        <v>73.40478386006691</v>
+        <v>41.77958531570932</v>
       </c>
       <c r="H24">
-        <v>18.82353535236922</v>
+        <v>2.360600949115646</v>
       </c>
       <c r="I24">
-        <v>34.49538806920771</v>
+        <v>2.824828111405914</v>
       </c>
       <c r="J24">
-        <v>4.801576161954407</v>
+        <v>13.05325776043092</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.81580534579496</v>
       </c>
       <c r="L24">
-        <v>5.035059511466689</v>
+        <v>6.194357408842558</v>
       </c>
       <c r="M24">
-        <v>40.96838268185902</v>
+        <v>22.49880695300814</v>
       </c>
       <c r="N24">
-        <v>20.88173477474807</v>
+        <v>5.594715178562302</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.77902334652468</v>
+      </c>
+      <c r="P24">
+        <v>12.97426129247698</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.091529593070679</v>
+        <v>6.549801254751999</v>
       </c>
       <c r="D25">
-        <v>4.684242317618986</v>
+        <v>4.382403753264446</v>
       </c>
       <c r="E25">
-        <v>6.255148482386416</v>
+        <v>7.59366138906177</v>
       </c>
       <c r="F25">
-        <v>43.33009888512856</v>
+        <v>30.53617082574538</v>
       </c>
       <c r="G25">
-        <v>66.52890560767111</v>
+        <v>39.73347661443757</v>
       </c>
       <c r="H25">
-        <v>17.51081628246636</v>
+        <v>2.820230248062403</v>
       </c>
       <c r="I25">
-        <v>31.77508815137019</v>
+        <v>3.23278140112054</v>
       </c>
       <c r="J25">
-        <v>5.00814401204978</v>
+        <v>12.79885637757014</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.95944669404218</v>
       </c>
       <c r="L25">
-        <v>5.157679364561965</v>
+        <v>6.073367607514418</v>
       </c>
       <c r="M25">
-        <v>37.20196978427509</v>
+        <v>20.5181182013709</v>
       </c>
       <c r="N25">
-        <v>19.56544457742723</v>
+        <v>5.539933192824523</v>
       </c>
       <c r="O25">
+        <v>16.46794992314499</v>
+      </c>
+      <c r="P25">
+        <v>13.23952674782215</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.199409330866149</v>
+        <v>4.628120386290272</v>
       </c>
       <c r="D2">
-        <v>4.184871948774886</v>
+        <v>4.414534197777924</v>
       </c>
       <c r="E2">
-        <v>7.360529103103253</v>
+        <v>7.261245646881689</v>
       </c>
       <c r="F2">
-        <v>29.6671066779353</v>
+        <v>27.88274303343972</v>
       </c>
       <c r="G2">
-        <v>38.37805048118338</v>
+        <v>35.14688538191581</v>
       </c>
       <c r="H2">
-        <v>3.169860232392552</v>
+        <v>3.020664671622249</v>
       </c>
       <c r="I2">
-        <v>3.523015390485244</v>
+        <v>3.312415732552664</v>
       </c>
       <c r="J2">
-        <v>12.65284302700057</v>
+        <v>12.14664798974256</v>
       </c>
       <c r="K2">
-        <v>22.41495349271861</v>
+        <v>20.61944676072471</v>
       </c>
       <c r="L2">
-        <v>5.985983999732769</v>
+        <v>16.50924399853342</v>
       </c>
       <c r="M2">
-        <v>18.96946362110742</v>
+        <v>14.15372975302044</v>
       </c>
       <c r="N2">
-        <v>5.493397462311726</v>
+        <v>5.864746739804335</v>
       </c>
       <c r="O2">
-        <v>15.46138647187464</v>
+        <v>18.35919776201535</v>
       </c>
       <c r="P2">
-        <v>13.43742917694675</v>
+        <v>5.853673652354406</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.97470177872871</v>
+      </c>
+      <c r="R2">
+        <v>13.37299624533592</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.904994909982514</v>
+        <v>4.416735697404425</v>
       </c>
       <c r="D3">
-        <v>4.05277740034516</v>
+        <v>4.272415548706705</v>
       </c>
       <c r="E3">
-        <v>7.192319911408242</v>
+        <v>7.114372593620325</v>
       </c>
       <c r="F3">
-        <v>29.02920168777353</v>
+        <v>27.38403417371772</v>
       </c>
       <c r="G3">
-        <v>37.36774580071243</v>
+        <v>34.43417567544752</v>
       </c>
       <c r="H3">
-        <v>3.420027789238071</v>
+        <v>3.244187696137949</v>
       </c>
       <c r="I3">
-        <v>3.746065896801287</v>
+        <v>3.502187864893966</v>
       </c>
       <c r="J3">
-        <v>12.54313267000678</v>
+        <v>12.03607325078042</v>
       </c>
       <c r="K3">
-        <v>21.99789786815012</v>
+        <v>20.32850407248665</v>
       </c>
       <c r="L3">
-        <v>5.920849951557193</v>
+        <v>16.4216084537557</v>
       </c>
       <c r="M3">
-        <v>17.82249450561516</v>
+        <v>13.81219008953867</v>
       </c>
       <c r="N3">
-        <v>5.465450791100697</v>
+        <v>5.81029556327848</v>
       </c>
       <c r="O3">
-        <v>14.72492353152917</v>
+        <v>17.25887558831596</v>
       </c>
       <c r="P3">
-        <v>13.57733586598313</v>
+        <v>5.827223094489113</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.27314477868454</v>
+      </c>
+      <c r="R3">
+        <v>13.48532290354257</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.71356098661893</v>
+        <v>4.278975113932652</v>
       </c>
       <c r="D4">
-        <v>3.970201963312033</v>
+        <v>4.183763031549293</v>
       </c>
       <c r="E4">
-        <v>7.086068438157242</v>
+        <v>7.021614929957601</v>
       </c>
       <c r="F4">
-        <v>28.63815543384797</v>
+        <v>27.07840774326084</v>
       </c>
       <c r="G4">
-        <v>36.74497343331603</v>
+        <v>34.0001478232362</v>
       </c>
       <c r="H4">
-        <v>3.579078803709142</v>
+        <v>3.386457701994455</v>
       </c>
       <c r="I4">
-        <v>3.88879007756041</v>
+        <v>3.624077728130595</v>
       </c>
       <c r="J4">
-        <v>12.47840202035297</v>
+        <v>11.96811485695394</v>
       </c>
       <c r="K4">
-        <v>21.74109232202695</v>
+        <v>20.14871733013839</v>
       </c>
       <c r="L4">
-        <v>5.879418161506267</v>
+        <v>16.36166066498838</v>
       </c>
       <c r="M4">
-        <v>17.07976572865833</v>
+        <v>13.61777336469162</v>
       </c>
       <c r="N4">
-        <v>5.448380797666543</v>
+        <v>5.775530770138928</v>
       </c>
       <c r="O4">
-        <v>14.25360648827553</v>
+        <v>16.54500594874724</v>
       </c>
       <c r="P4">
-        <v>13.66513362911764</v>
+        <v>5.811596600797662</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.82344497511474</v>
+      </c>
+      <c r="R4">
+        <v>13.55680499387907</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.624958096489876</v>
+        <v>4.213871250777281</v>
       </c>
       <c r="D5">
-        <v>3.9373382825913</v>
+        <v>4.148437246949483</v>
       </c>
       <c r="E5">
-        <v>7.041182713213503</v>
+        <v>6.982394442510845</v>
       </c>
       <c r="F5">
-        <v>28.4690000981566</v>
+        <v>26.94455686345163</v>
       </c>
       <c r="G5">
-        <v>36.47315852965112</v>
+        <v>33.80773907401775</v>
       </c>
       <c r="H5">
-        <v>3.645826696521966</v>
+        <v>3.446204799806703</v>
       </c>
       <c r="I5">
-        <v>3.951159548027008</v>
+        <v>3.678255958296023</v>
       </c>
       <c r="J5">
-        <v>12.44943358159694</v>
+        <v>11.93726026395622</v>
       </c>
       <c r="K5">
-        <v>21.62695414006551</v>
+        <v>20.066466914545</v>
       </c>
       <c r="L5">
-        <v>5.861530405894051</v>
+        <v>16.32819523599019</v>
       </c>
       <c r="M5">
-        <v>16.76327082048558</v>
+        <v>13.53689045860761</v>
       </c>
       <c r="N5">
-        <v>5.442106640813302</v>
+        <v>5.760467996868482</v>
       </c>
       <c r="O5">
-        <v>14.0538927672154</v>
+        <v>16.24043845455265</v>
       </c>
       <c r="P5">
-        <v>13.70158861014264</v>
+        <v>5.806138768442608</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.63267684105055</v>
+      </c>
+      <c r="R5">
+        <v>13.58694151617125</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.600395577631248</v>
+        <v>4.194485894572652</v>
       </c>
       <c r="D6">
-        <v>3.933234205815161</v>
+        <v>4.143908135047625</v>
       </c>
       <c r="E6">
-        <v>7.032638946673854</v>
+        <v>6.974883010954841</v>
       </c>
       <c r="F6">
-        <v>28.42857663311628</v>
+        <v>26.91068255536116</v>
       </c>
       <c r="G6">
-        <v>36.40638408016726</v>
+        <v>33.75561854406829</v>
       </c>
       <c r="H6">
-        <v>3.657655339423588</v>
+        <v>3.456800520695108</v>
       </c>
       <c r="I6">
-        <v>3.965097792862556</v>
+        <v>3.691365444859448</v>
       </c>
       <c r="J6">
-        <v>12.44069074075698</v>
+        <v>11.92828109293161</v>
       </c>
       <c r="K6">
-        <v>21.59651662267265</v>
+        <v>20.04211392915344</v>
       </c>
       <c r="L6">
-        <v>5.857756621882448</v>
+        <v>16.3134114287957</v>
       </c>
       <c r="M6">
-        <v>16.70491192113559</v>
+        <v>13.51666751433159</v>
       </c>
       <c r="N6">
-        <v>5.441881234751151</v>
+        <v>5.757264767325791</v>
       </c>
       <c r="O6">
-        <v>14.01675216707309</v>
+        <v>16.18423258802058</v>
       </c>
       <c r="P6">
-        <v>13.70791582923611</v>
+        <v>5.806174299130118</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.59715425398768</v>
+      </c>
+      <c r="R6">
+        <v>13.59245490353779</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.686301863503367</v>
+        <v>4.260064925260769</v>
       </c>
       <c r="D7">
-        <v>3.973464060817301</v>
+        <v>4.191289798888874</v>
       </c>
       <c r="E7">
-        <v>7.082635851447576</v>
+        <v>7.019798415326024</v>
       </c>
       <c r="F7">
-        <v>28.60235842601315</v>
+        <v>27.02663748926459</v>
       </c>
       <c r="G7">
-        <v>36.68273477833722</v>
+        <v>34.01336288233125</v>
       </c>
       <c r="H7">
-        <v>3.581755659310346</v>
+        <v>3.389611475211791</v>
       </c>
       <c r="I7">
-        <v>3.898915115599878</v>
+        <v>3.636228447408012</v>
       </c>
       <c r="J7">
-        <v>12.46719717508434</v>
+        <v>11.91140713559799</v>
       </c>
       <c r="K7">
-        <v>21.70837540355329</v>
+        <v>20.10640146421689</v>
       </c>
       <c r="L7">
-        <v>5.877063171232363</v>
+        <v>16.32649665785502</v>
       </c>
       <c r="M7">
-        <v>17.06154554723018</v>
+        <v>13.58888709062778</v>
       </c>
       <c r="N7">
-        <v>5.450510996543588</v>
+        <v>5.773152736954931</v>
       </c>
       <c r="O7">
-        <v>14.24097263022778</v>
+        <v>16.51864724795166</v>
       </c>
       <c r="P7">
-        <v>13.66636044038095</v>
+        <v>5.813979789079143</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.80782650489353</v>
+      </c>
+      <c r="R7">
+        <v>13.55937230103156</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.06743982472088</v>
+        <v>4.543237154406174</v>
       </c>
       <c r="D8">
-        <v>4.144360613451497</v>
+        <v>4.384472495009669</v>
       </c>
       <c r="E8">
-        <v>7.299539191456539</v>
+        <v>7.212153842889064</v>
       </c>
       <c r="F8">
-        <v>29.40390771739595</v>
+        <v>27.61066452630666</v>
       </c>
       <c r="G8">
-        <v>37.95522191856936</v>
+        <v>35.06002993500806</v>
       </c>
       <c r="H8">
-        <v>3.257267289097673</v>
+        <v>3.101049897334109</v>
       </c>
       <c r="I8">
-        <v>3.610702337805442</v>
+        <v>3.392769833599564</v>
       </c>
       <c r="J8">
-        <v>12.60034443294205</v>
+        <v>11.94570589139909</v>
       </c>
       <c r="K8">
-        <v>22.23099016888422</v>
+        <v>20.44234695917118</v>
       </c>
       <c r="L8">
-        <v>5.961107507451946</v>
+        <v>16.4180137143175</v>
       </c>
       <c r="M8">
-        <v>18.56480489426561</v>
+        <v>13.97802177379184</v>
       </c>
       <c r="N8">
-        <v>5.486638041465711</v>
+        <v>5.842865507576652</v>
       </c>
       <c r="O8">
-        <v>15.19905799930829</v>
+        <v>17.94413148188772</v>
       </c>
       <c r="P8">
-        <v>13.48655800315601</v>
+        <v>5.847544796441491</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.71395022572771</v>
+      </c>
+      <c r="R8">
+        <v>13.41653867651671</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.772753588663708</v>
+        <v>5.055939347812274</v>
       </c>
       <c r="D9">
-        <v>4.460175805959703</v>
+        <v>4.728143661523164</v>
       </c>
       <c r="E9">
-        <v>7.705558417945979</v>
+        <v>7.567992525010172</v>
       </c>
       <c r="F9">
-        <v>31.03260972757996</v>
+        <v>28.87906992567634</v>
       </c>
       <c r="G9">
-        <v>40.5208694722285</v>
+        <v>36.96850118001338</v>
       </c>
       <c r="H9">
-        <v>2.660089146399507</v>
+        <v>2.568818538172491</v>
       </c>
       <c r="I9">
-        <v>3.075137571371861</v>
+        <v>2.93710998826768</v>
       </c>
       <c r="J9">
-        <v>12.90153142318055</v>
+        <v>12.19612892023737</v>
       </c>
       <c r="K9">
-        <v>23.30068499646048</v>
+        <v>21.18556144012972</v>
       </c>
       <c r="L9">
-        <v>6.118261468400912</v>
+        <v>16.62702523059309</v>
       </c>
       <c r="M9">
-        <v>21.22595410709122</v>
+        <v>14.91817492937203</v>
       </c>
       <c r="N9">
-        <v>5.554469520202661</v>
+        <v>5.973494937109815</v>
       </c>
       <c r="O9">
-        <v>16.93578769153469</v>
+        <v>20.48679677869087</v>
       </c>
       <c r="P9">
-        <v>13.14692956537999</v>
+        <v>5.91414617325436</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.36299778112448</v>
+      </c>
+      <c r="R9">
+        <v>13.15075556521859</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.189116069310551</v>
+        <v>5.384535749620632</v>
       </c>
       <c r="D10">
-        <v>4.661279135239109</v>
+        <v>4.969102565165378</v>
       </c>
       <c r="E10">
-        <v>7.919679916650864</v>
+        <v>7.757922646124429</v>
       </c>
       <c r="F10">
-        <v>32.04056973598171</v>
+        <v>29.55025172344519</v>
       </c>
       <c r="G10">
-        <v>42.10744781386801</v>
+        <v>38.5172888502234</v>
       </c>
       <c r="H10">
-        <v>2.275829682191191</v>
+        <v>2.232990360570964</v>
       </c>
       <c r="I10">
-        <v>2.722176001493093</v>
+        <v>2.644326685982112</v>
       </c>
       <c r="J10">
-        <v>13.08318286873511</v>
+        <v>12.08659520201216</v>
       </c>
       <c r="K10">
-        <v>23.94941010845209</v>
+        <v>21.55094387156471</v>
       </c>
       <c r="L10">
-        <v>6.20122866976566</v>
+        <v>16.62386330722905</v>
       </c>
       <c r="M10">
-        <v>22.93960942083019</v>
+        <v>15.52700335702088</v>
       </c>
       <c r="N10">
-        <v>5.579458555230478</v>
+        <v>6.040655828819315</v>
       </c>
       <c r="O10">
-        <v>18.02170389372472</v>
+        <v>22.08224294955872</v>
       </c>
       <c r="P10">
-        <v>12.91521654842738</v>
+        <v>5.933709516403378</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.37438464260707</v>
+      </c>
+      <c r="R10">
+        <v>12.98917564343903</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.009405635443877</v>
+        <v>5.337591180699527</v>
       </c>
       <c r="D11">
-        <v>4.55765192057854</v>
+        <v>4.899689858810538</v>
       </c>
       <c r="E11">
-        <v>7.472899743001757</v>
+        <v>7.338354643963552</v>
       </c>
       <c r="F11">
-        <v>31.01944231199862</v>
+        <v>28.38115719283727</v>
       </c>
       <c r="G11">
-        <v>40.66052184709111</v>
+        <v>37.95910224977203</v>
       </c>
       <c r="H11">
-        <v>3.099590208965851</v>
+        <v>3.080339523962499</v>
       </c>
       <c r="I11">
-        <v>2.65017080993284</v>
+        <v>2.595873167171721</v>
       </c>
       <c r="J11">
-        <v>12.73949782741348</v>
+        <v>11.28613809693564</v>
       </c>
       <c r="K11">
-        <v>23.2224750324812</v>
+        <v>20.75131729093764</v>
       </c>
       <c r="L11">
-        <v>6.053926631468447</v>
+        <v>15.90837386656548</v>
       </c>
       <c r="M11">
-        <v>23.28341950430876</v>
+        <v>15.05868709017105</v>
       </c>
       <c r="N11">
-        <v>5.400870529673392</v>
+        <v>5.924337938552767</v>
       </c>
       <c r="O11">
-        <v>17.77301252460733</v>
+        <v>22.35520640347459</v>
       </c>
       <c r="P11">
-        <v>12.90567923566164</v>
+        <v>5.689823888928244</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.10227668025263</v>
+      </c>
+      <c r="R11">
+        <v>13.06175258682234</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.808129599399465</v>
+        <v>5.247216695122363</v>
       </c>
       <c r="D12">
-        <v>4.422004059052426</v>
+        <v>4.7694747556391</v>
       </c>
       <c r="E12">
-        <v>7.121368071172895</v>
+        <v>7.008105122132637</v>
       </c>
       <c r="F12">
-        <v>29.97345517922605</v>
+        <v>27.34223262339834</v>
       </c>
       <c r="G12">
-        <v>39.15784063657303</v>
+        <v>36.97664937060304</v>
       </c>
       <c r="H12">
-        <v>4.383156793957343</v>
+        <v>4.370567210578661</v>
       </c>
       <c r="I12">
-        <v>2.639985759786591</v>
+        <v>2.588678552569691</v>
       </c>
       <c r="J12">
-        <v>12.42141953259404</v>
+        <v>10.81693610051843</v>
       </c>
       <c r="K12">
-        <v>22.50626228488886</v>
+        <v>20.07467941835379</v>
       </c>
       <c r="L12">
-        <v>5.961849235581952</v>
+        <v>15.3704275707023</v>
       </c>
       <c r="M12">
-        <v>23.23633229976989</v>
+        <v>14.58382734076128</v>
       </c>
       <c r="N12">
-        <v>5.297955993340726</v>
+        <v>5.862664778609409</v>
       </c>
       <c r="O12">
-        <v>17.34208329478439</v>
+        <v>22.30246555323257</v>
       </c>
       <c r="P12">
-        <v>12.96438797590826</v>
+        <v>5.528555998676931</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.6772273676604</v>
+      </c>
+      <c r="R12">
+        <v>13.16830636307801</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.54065897512488</v>
+        <v>5.081564370243653</v>
       </c>
       <c r="D13">
-        <v>4.256235505840928</v>
+        <v>4.578779085138065</v>
       </c>
       <c r="E13">
-        <v>6.824222303355662</v>
+        <v>6.730725910434787</v>
       </c>
       <c r="F13">
-        <v>28.78281995189901</v>
+        <v>26.32180305213478</v>
       </c>
       <c r="G13">
-        <v>37.41192497756101</v>
+        <v>35.34271251547163</v>
       </c>
       <c r="H13">
-        <v>5.76471779723053</v>
+        <v>5.750939076717138</v>
       </c>
       <c r="I13">
-        <v>2.693319824418644</v>
+        <v>2.630879336661797</v>
       </c>
       <c r="J13">
-        <v>12.08581250212963</v>
+        <v>10.62168763178775</v>
       </c>
       <c r="K13">
-        <v>21.70233964353201</v>
+        <v>19.42930949816557</v>
       </c>
       <c r="L13">
-        <v>5.90416238565306</v>
+        <v>14.91188440498459</v>
       </c>
       <c r="M13">
-        <v>22.86759380430266</v>
+        <v>14.0612091711739</v>
       </c>
       <c r="N13">
-        <v>5.251953882021752</v>
+        <v>5.836221128534664</v>
       </c>
       <c r="O13">
-        <v>16.72140760692653</v>
+        <v>21.98166581960457</v>
       </c>
       <c r="P13">
-        <v>13.07562317458366</v>
+        <v>5.430092999086638</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.09298439704451</v>
+      </c>
+      <c r="R13">
+        <v>13.29413509301353</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.316288174506621</v>
+        <v>4.927944030377239</v>
       </c>
       <c r="D14">
-        <v>4.126636143242755</v>
+        <v>4.419078419345622</v>
       </c>
       <c r="E14">
-        <v>6.655920494671112</v>
+        <v>6.578128422604306</v>
       </c>
       <c r="F14">
-        <v>27.87140105896576</v>
+        <v>25.60107779302253</v>
       </c>
       <c r="G14">
-        <v>36.05495929559353</v>
+        <v>33.89328533421721</v>
       </c>
       <c r="H14">
-        <v>6.758791459723122</v>
+        <v>6.742423635155857</v>
       </c>
       <c r="I14">
-        <v>2.762573436066841</v>
+        <v>2.686607594585404</v>
       </c>
       <c r="J14">
-        <v>11.84066239121149</v>
+        <v>10.5904877344407</v>
       </c>
       <c r="K14">
-        <v>21.0904725901774</v>
+        <v>18.98056298910284</v>
       </c>
       <c r="L14">
-        <v>5.885802767327738</v>
+        <v>14.61563039043799</v>
       </c>
       <c r="M14">
-        <v>22.45541842583433</v>
+        <v>13.66701150602363</v>
       </c>
       <c r="N14">
-        <v>5.253399036922858</v>
+        <v>5.839229886257368</v>
       </c>
       <c r="O14">
-        <v>16.19124986766456</v>
+        <v>21.63163944694272</v>
       </c>
       <c r="P14">
-        <v>13.17800476634896</v>
+        <v>5.399460904899843</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.60208063249018</v>
+      </c>
+      <c r="R14">
+        <v>13.38982486425583</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.239172873186129</v>
+        <v>4.869235115046811</v>
       </c>
       <c r="D15">
-        <v>4.089753867144362</v>
+        <v>4.369679557779047</v>
       </c>
       <c r="E15">
-        <v>6.616988350009718</v>
+        <v>6.544081976961255</v>
       </c>
       <c r="F15">
-        <v>27.60951388162171</v>
+        <v>25.4165380266926</v>
       </c>
       <c r="G15">
-        <v>35.6551591784436</v>
+        <v>33.40097400155995</v>
       </c>
       <c r="H15">
-        <v>6.993491383559666</v>
+        <v>6.975555504595331</v>
       </c>
       <c r="I15">
-        <v>2.798371294398731</v>
+        <v>2.716870741775521</v>
       </c>
       <c r="J15">
-        <v>11.77454479964872</v>
+        <v>10.62565866996794</v>
       </c>
       <c r="K15">
-        <v>20.91370880392956</v>
+        <v>18.86628802401583</v>
       </c>
       <c r="L15">
-        <v>5.88214686098378</v>
+        <v>14.54943968817465</v>
       </c>
       <c r="M15">
-        <v>22.28068312277017</v>
+        <v>13.55361943493807</v>
       </c>
       <c r="N15">
-        <v>5.257422546267848</v>
+        <v>5.84082740810792</v>
       </c>
       <c r="O15">
-        <v>16.01792252458036</v>
+        <v>21.4850721626127</v>
       </c>
       <c r="P15">
-        <v>13.21206805387824</v>
+        <v>5.39798118959627</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.44435950335553</v>
+      </c>
+      <c r="R15">
+        <v>13.41541467399622</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.091649118620195</v>
+        <v>4.717713259605798</v>
       </c>
       <c r="D16">
-        <v>4.034583884994377</v>
+        <v>4.271501602049756</v>
       </c>
       <c r="E16">
-        <v>6.577251439753447</v>
+        <v>6.511302990199243</v>
       </c>
       <c r="F16">
-        <v>27.36753984108288</v>
+        <v>25.4291726355728</v>
       </c>
       <c r="G16">
-        <v>35.23212939806163</v>
+        <v>32.41330794393946</v>
       </c>
       <c r="H16">
-        <v>6.824063819776605</v>
+        <v>6.795642531377849</v>
       </c>
       <c r="I16">
-        <v>2.94335624682123</v>
+        <v>2.834643131666147</v>
       </c>
       <c r="J16">
-        <v>11.75456234577399</v>
+        <v>11.02034781866881</v>
       </c>
       <c r="K16">
-        <v>20.76404713018146</v>
+        <v>18.90217559856516</v>
       </c>
       <c r="L16">
-        <v>5.854890853537229</v>
+        <v>14.66773323102888</v>
       </c>
       <c r="M16">
-        <v>21.6183868343522</v>
+        <v>13.45619476963945</v>
       </c>
       <c r="N16">
-        <v>5.252957361752411</v>
+        <v>5.814220976662736</v>
       </c>
       <c r="O16">
-        <v>15.65056294088794</v>
+        <v>20.92650190709032</v>
       </c>
       <c r="P16">
-        <v>13.27522527096882</v>
+        <v>5.411890287924625</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.12746600343382</v>
+      </c>
+      <c r="R16">
+        <v>13.42037337674894</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.098828939650625</v>
+        <v>4.686425714962631</v>
       </c>
       <c r="D17">
-        <v>4.062648845324423</v>
+        <v>4.287245835631959</v>
       </c>
       <c r="E17">
-        <v>6.627905156933078</v>
+        <v>6.556161883493851</v>
       </c>
       <c r="F17">
-        <v>27.67487872517768</v>
+        <v>25.80681191556576</v>
       </c>
       <c r="G17">
-        <v>35.64597866538451</v>
+        <v>32.53750520751469</v>
       </c>
       <c r="H17">
-        <v>6.142302686912222</v>
+        <v>6.104975266886706</v>
       </c>
       <c r="I17">
-        <v>3.01883344374425</v>
+        <v>2.897273266354638</v>
       </c>
       <c r="J17">
-        <v>11.8703278531398</v>
+        <v>11.29891791694489</v>
       </c>
       <c r="K17">
-        <v>20.97824565312576</v>
+        <v>19.15679529806736</v>
       </c>
       <c r="L17">
-        <v>5.83944652925867</v>
+        <v>14.91262008825273</v>
       </c>
       <c r="M17">
-        <v>21.32985956852492</v>
+        <v>13.58023041056965</v>
       </c>
       <c r="N17">
-        <v>5.244532721902559</v>
+        <v>5.788314681146256</v>
       </c>
       <c r="O17">
-        <v>15.65824561948484</v>
+        <v>20.67201601880558</v>
       </c>
       <c r="P17">
-        <v>13.27106607919038</v>
+        <v>5.433274292453506</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>15.14848392843033</v>
+      </c>
+      <c r="R17">
+        <v>13.38199051361748</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.261998093286349</v>
+        <v>4.76613655789742</v>
       </c>
       <c r="D18">
-        <v>4.163710178019874</v>
+        <v>4.392629669768837</v>
       </c>
       <c r="E18">
-        <v>6.810295661302412</v>
+        <v>6.719891948064453</v>
       </c>
       <c r="F18">
-        <v>28.51069735068049</v>
+        <v>26.59762156540641</v>
       </c>
       <c r="G18">
-        <v>36.86349746996095</v>
+        <v>33.51625560497544</v>
       </c>
       <c r="H18">
-        <v>4.983397900860417</v>
+        <v>4.936050796085271</v>
       </c>
       <c r="I18">
-        <v>3.029675420807203</v>
+        <v>2.903716205103012</v>
       </c>
       <c r="J18">
-        <v>12.12286812025174</v>
+        <v>11.59333737733589</v>
       </c>
       <c r="K18">
-        <v>21.55185970380559</v>
+        <v>19.67360468491083</v>
       </c>
       <c r="L18">
-        <v>5.858044436569762</v>
+        <v>15.33239320971894</v>
       </c>
       <c r="M18">
-        <v>21.34830292990036</v>
+        <v>13.93736335906664</v>
       </c>
       <c r="N18">
-        <v>5.261974123304039</v>
+        <v>5.785071895885014</v>
       </c>
       <c r="O18">
-        <v>15.99848960146014</v>
+        <v>20.68232294771083</v>
       </c>
       <c r="P18">
-        <v>13.21451866583176</v>
+        <v>5.493706866161284</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.47745691434697</v>
+      </c>
+      <c r="R18">
+        <v>13.29999421475139</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.504578329474284</v>
+        <v>4.902465781774171</v>
       </c>
       <c r="D19">
-        <v>4.321643814162187</v>
+        <v>4.564655462803449</v>
       </c>
       <c r="E19">
-        <v>7.144562740981815</v>
+        <v>7.027763673619554</v>
       </c>
       <c r="F19">
-        <v>29.65004266761984</v>
+        <v>27.62168709728045</v>
       </c>
       <c r="G19">
-        <v>38.52939252813226</v>
+        <v>34.94991263248202</v>
       </c>
       <c r="H19">
-        <v>3.662009312286337</v>
+        <v>3.602452532158623</v>
       </c>
       <c r="I19">
-        <v>3.005292480877627</v>
+        <v>2.885711452607357</v>
       </c>
       <c r="J19">
-        <v>12.4490398616879</v>
+        <v>11.89584757414612</v>
       </c>
       <c r="K19">
-        <v>22.32020768820395</v>
+        <v>20.32583690494402</v>
       </c>
       <c r="L19">
-        <v>5.937494820946289</v>
+        <v>15.83504819319028</v>
       </c>
       <c r="M19">
-        <v>21.58882974065721</v>
+        <v>14.42429626416088</v>
       </c>
       <c r="N19">
-        <v>5.341989269696247</v>
+        <v>5.834650140389994</v>
       </c>
       <c r="O19">
-        <v>16.55783155553892</v>
+        <v>20.88904897532829</v>
       </c>
       <c r="P19">
-        <v>13.13644060760765</v>
+        <v>5.625676847045247</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.01001315028501</v>
+      </c>
+      <c r="R19">
+        <v>13.20146919012636</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.014370416571536</v>
+        <v>5.232977676270367</v>
       </c>
       <c r="D20">
-        <v>4.618057503281624</v>
+        <v>4.901644499463723</v>
       </c>
       <c r="E20">
-        <v>7.853463749580268</v>
+        <v>7.694285690472944</v>
       </c>
       <c r="F20">
-        <v>31.67445916719667</v>
+        <v>29.33806190463208</v>
       </c>
       <c r="G20">
-        <v>41.51960451128437</v>
+        <v>37.71495405858112</v>
       </c>
       <c r="H20">
-        <v>2.379747680739</v>
+        <v>2.321538933129669</v>
       </c>
       <c r="I20">
-        <v>2.846765310581346</v>
+        <v>2.756434873974239</v>
       </c>
       <c r="J20">
-        <v>13.00048206106775</v>
+        <v>12.23662970503398</v>
       </c>
       <c r="K20">
-        <v>23.6854756628955</v>
+        <v>21.40879656406457</v>
       </c>
       <c r="L20">
-        <v>6.172837552247048</v>
+        <v>16.59048740544048</v>
       </c>
       <c r="M20">
-        <v>22.46575189859455</v>
+        <v>15.32909264813953</v>
       </c>
       <c r="N20">
-        <v>5.578134028775406</v>
+        <v>6.018415919875454</v>
       </c>
       <c r="O20">
-        <v>17.71382403408521</v>
+        <v>21.6652407098713</v>
       </c>
       <c r="P20">
-        <v>12.98038424786898</v>
+        <v>5.934967277653825</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.09737479121682</v>
+      </c>
+      <c r="R20">
+        <v>13.03323059804317</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.39448615829604</v>
+        <v>5.590032896073368</v>
       </c>
       <c r="D21">
-        <v>4.802154016403438</v>
+        <v>5.191475883326055</v>
       </c>
       <c r="E21">
-        <v>8.11956061721547</v>
+        <v>7.961956230952853</v>
       </c>
       <c r="F21">
-        <v>32.72253697854578</v>
+        <v>29.78996094273386</v>
       </c>
       <c r="G21">
-        <v>43.13745039207972</v>
+        <v>40.48738163917371</v>
       </c>
       <c r="H21">
-        <v>2.046755739164591</v>
+        <v>2.037568523595247</v>
       </c>
       <c r="I21">
-        <v>2.567401241890821</v>
+        <v>2.53414190051407</v>
       </c>
       <c r="J21">
-        <v>13.22510506037021</v>
+        <v>11.44862931033931</v>
       </c>
       <c r="K21">
-        <v>24.37490467329297</v>
+        <v>21.64333776366994</v>
       </c>
       <c r="L21">
-        <v>6.274372996772117</v>
+        <v>16.55332419408211</v>
       </c>
       <c r="M21">
-        <v>23.79723258940676</v>
+        <v>15.77108394195084</v>
       </c>
       <c r="N21">
-        <v>5.63777688224366</v>
+        <v>6.09618781864665</v>
       </c>
       <c r="O21">
-        <v>18.64705712991313</v>
+        <v>22.7768843194083</v>
       </c>
       <c r="P21">
-        <v>12.79202055019785</v>
+        <v>6.000759827586453</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.91483145120781</v>
+      </c>
+      <c r="R21">
+        <v>12.92240061887878</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.639414546679587</v>
+        <v>5.83076651011032</v>
       </c>
       <c r="D22">
-        <v>4.904653617633912</v>
+        <v>5.366588242397891</v>
       </c>
       <c r="E22">
-        <v>8.259004911430946</v>
+        <v>8.107131971853907</v>
       </c>
       <c r="F22">
-        <v>33.35677038807543</v>
+        <v>30.02251034036338</v>
       </c>
       <c r="G22">
-        <v>44.12594797444074</v>
+        <v>42.33994763545569</v>
       </c>
       <c r="H22">
-        <v>1.845086514443666</v>
+        <v>1.867314838995309</v>
       </c>
       <c r="I22">
-        <v>2.61951384854718</v>
+        <v>2.636409584732132</v>
       </c>
       <c r="J22">
-        <v>13.3629973156227</v>
+        <v>10.90237693387389</v>
       </c>
       <c r="K22">
-        <v>24.80032231685791</v>
+        <v>21.76407348108183</v>
       </c>
       <c r="L22">
-        <v>6.329296968008541</v>
+        <v>16.50410846775983</v>
       </c>
       <c r="M22">
-        <v>24.62488462641089</v>
+        <v>16.03996336009191</v>
       </c>
       <c r="N22">
-        <v>5.660390226261627</v>
+        <v>6.137650923201096</v>
       </c>
       <c r="O22">
-        <v>19.20434847004796</v>
+        <v>23.49554338102527</v>
       </c>
       <c r="P22">
-        <v>12.67239228162269</v>
+        <v>6.023964744300679</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.39613379867079</v>
+      </c>
+      <c r="R22">
+        <v>12.8603618407548</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.533666316532351</v>
+        <v>5.713072743852263</v>
       </c>
       <c r="D23">
-        <v>4.846504915336034</v>
+        <v>5.259603402596177</v>
       </c>
       <c r="E23">
-        <v>8.187721921679147</v>
+        <v>8.028848498157062</v>
       </c>
       <c r="F23">
-        <v>33.05326324215391</v>
+        <v>29.9740887874767</v>
       </c>
       <c r="G23">
-        <v>43.65837970668144</v>
+        <v>41.23634828129163</v>
       </c>
       <c r="H23">
-        <v>1.950564784071947</v>
+        <v>1.954987605429404</v>
       </c>
       <c r="I23">
-        <v>2.526340097052684</v>
+        <v>2.561671135084618</v>
       </c>
       <c r="J23">
-        <v>13.301089883016</v>
+        <v>11.30175969883467</v>
       </c>
       <c r="K23">
-        <v>24.60642543247819</v>
+        <v>21.75910410631132</v>
       </c>
       <c r="L23">
-        <v>6.302291563405488</v>
+        <v>16.57383011458388</v>
       </c>
       <c r="M23">
-        <v>24.19765158273971</v>
+        <v>15.94259739386285</v>
       </c>
       <c r="N23">
-        <v>5.645761063559929</v>
+        <v>6.118033853677026</v>
       </c>
       <c r="O23">
-        <v>18.91804113599779</v>
+        <v>23.14405562481317</v>
       </c>
       <c r="P23">
-        <v>12.73415093344235</v>
+        <v>6.008524323343218</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.15712561279027</v>
+      </c>
+      <c r="R23">
+        <v>12.88577662725558</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.077619857936408</v>
+        <v>5.277565325285678</v>
       </c>
       <c r="D24">
-        <v>4.62759011498446</v>
+        <v>4.912008906035446</v>
       </c>
       <c r="E24">
-        <v>7.907532946525637</v>
+        <v>7.745550164192598</v>
       </c>
       <c r="F24">
-        <v>31.84400787501065</v>
+        <v>29.49620584756254</v>
       </c>
       <c r="G24">
-        <v>41.77958531570932</v>
+        <v>37.93921864467836</v>
       </c>
       <c r="H24">
-        <v>2.360600949115646</v>
+        <v>2.302861781263186</v>
       </c>
       <c r="I24">
-        <v>2.824828111405914</v>
+        <v>2.731436373519628</v>
       </c>
       <c r="J24">
-        <v>13.05325776043092</v>
+        <v>12.29162784299311</v>
       </c>
       <c r="K24">
-        <v>23.81580534579496</v>
+        <v>21.5259757894144</v>
       </c>
       <c r="L24">
-        <v>6.194357408842558</v>
+        <v>16.68220004565563</v>
       </c>
       <c r="M24">
-        <v>22.49880695300814</v>
+        <v>15.41486269092532</v>
       </c>
       <c r="N24">
-        <v>5.594715178562302</v>
+        <v>6.036184548667791</v>
       </c>
       <c r="O24">
-        <v>17.77902334652468</v>
+        <v>21.69549336254556</v>
       </c>
       <c r="P24">
-        <v>12.97426129247698</v>
+        <v>5.956069054031326</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.15992371243414</v>
+      </c>
+      <c r="R24">
+        <v>13.02208521013933</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.549801254751999</v>
+        <v>4.884212268962471</v>
       </c>
       <c r="D25">
-        <v>4.382403753264446</v>
+        <v>4.637121502193644</v>
       </c>
       <c r="E25">
-        <v>7.59366138906177</v>
+        <v>7.467886945626094</v>
       </c>
       <c r="F25">
-        <v>30.53617082574538</v>
+        <v>28.50745439580978</v>
       </c>
       <c r="G25">
-        <v>39.73347661443757</v>
+        <v>36.26266384106051</v>
       </c>
       <c r="H25">
-        <v>2.820230248062403</v>
+        <v>2.71044473164667</v>
       </c>
       <c r="I25">
-        <v>3.23278140112054</v>
+        <v>3.075290512984797</v>
       </c>
       <c r="J25">
-        <v>12.79885637757014</v>
+        <v>12.17340386731574</v>
       </c>
       <c r="K25">
-        <v>22.95944669404218</v>
+        <v>20.95299104592199</v>
       </c>
       <c r="L25">
-        <v>6.073367607514418</v>
+        <v>16.55000030145834</v>
       </c>
       <c r="M25">
-        <v>20.5181182013709</v>
+        <v>14.62915670622762</v>
       </c>
       <c r="N25">
-        <v>5.539933192824523</v>
+        <v>5.936620400508922</v>
       </c>
       <c r="O25">
-        <v>16.46794992314499</v>
+        <v>19.82205212939637</v>
       </c>
       <c r="P25">
-        <v>13.23952674782215</v>
+        <v>5.900325962509066</v>
       </c>
       <c r="Q25">
+        <v>15.92356682255336</v>
+      </c>
+      <c r="R25">
+        <v>13.22244085686232</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
